--- a/Data/Quality_MCF-7_42_.xlsx
+++ b/Data/Quality_MCF-7_42_.xlsx
@@ -436,7 +436,7 @@
         <v>0.9723336987051074</v>
       </c>
       <c r="D2">
-        <v>0.1031796824805402</v>
+        <v>-3.223339439742867</v>
       </c>
       <c r="E2">
         <v>0.1580334685747399</v>
@@ -459,7 +459,7 @@
         <v>0.9527690481299603</v>
       </c>
       <c r="D3">
-        <v>0.3388491936746693</v>
+        <v>-1.218524191238176</v>
       </c>
       <c r="E3">
         <v>0.2064842213217889</v>
@@ -482,7 +482,7 @@
         <v>0.9165501910891184</v>
       </c>
       <c r="D4">
-        <v>0.2666813930276367</v>
+        <v>-2.014334296529082</v>
       </c>
       <c r="E4">
         <v>0.2744645093820047</v>
@@ -505,7 +505,7 @@
         <v>0.8729967957299254</v>
       </c>
       <c r="D5">
-        <v>0.3154459718207645</v>
+        <v>0.3020884225869364</v>
       </c>
       <c r="E5">
         <v>0.3385952492073824</v>
@@ -528,7 +528,7 @@
         <v>0.7983514658988633</v>
       </c>
       <c r="D6">
-        <v>0.5070221976139887</v>
+        <v>0.6993908015511173</v>
       </c>
       <c r="E6">
         <v>0.4266493180024521</v>
@@ -551,7 +551,7 @@
         <v>0.7816938845689854</v>
       </c>
       <c r="D7">
-        <v>0.0967622550167051</v>
+        <v>0.6592973254393131</v>
       </c>
       <c r="E7">
         <v>0.443921799259109</v>
@@ -574,7 +574,7 @@
         <v>0.7203688483826164</v>
       </c>
       <c r="D8">
-        <v>-0.3175516414468942</v>
+        <v>0.377002338492868</v>
       </c>
       <c r="E8">
         <v>0.5024192799669491</v>
@@ -597,7 +597,7 @@
         <v>0.7092527737793725</v>
       </c>
       <c r="D9">
-        <v>-0.6463696901911664</v>
+        <v>0.03615220610830472</v>
       </c>
       <c r="E9">
         <v>0.5123082046990716</v>
@@ -620,7 +620,7 @@
         <v>0.7076116465487472</v>
       </c>
       <c r="D10">
-        <v>-0.6434757022348996</v>
+        <v>0.1020625614878995</v>
       </c>
       <c r="E10">
         <v>0.5137520359401733</v>
@@ -643,7 +643,7 @@
         <v>0.6639939829725011</v>
       </c>
       <c r="D11">
-        <v>-0.4836614832486088</v>
+        <v>0.4406943588104274</v>
       </c>
       <c r="E11">
         <v>0.5507405430042294</v>
@@ -666,7 +666,7 @@
         <v>0.5933787638111143</v>
       </c>
       <c r="D12">
-        <v>-0.4903613253082009</v>
+        <v>0.3747815365108909</v>
       </c>
       <c r="E12">
         <v>0.6058547948297912</v>
@@ -689,7 +689,7 @@
         <v>0.5932273354624662</v>
       </c>
       <c r="D13">
-        <v>-0.4794086244604772</v>
+        <v>0.3856263414737479</v>
       </c>
       <c r="E13">
         <v>0.6059675964287393</v>
@@ -712,7 +712,7 @@
         <v>0.5837626718978848</v>
       </c>
       <c r="D14">
-        <v>-0.2463175194543239</v>
+        <v>0.4498772208327686</v>
       </c>
       <c r="E14">
         <v>0.6129767944546934</v>
@@ -735,7 +735,7 @@
         <v>0.5770156477501255</v>
       </c>
       <c r="D15">
-        <v>-0.3510518476969746</v>
+        <v>0.3796619723785895</v>
       </c>
       <c r="E15">
         <v>0.6179248657581249</v>
@@ -758,7 +758,7 @@
         <v>0.5694034474562116</v>
       </c>
       <c r="D16">
-        <v>-0.1763450861019618</v>
+        <v>0.4037362174254646</v>
       </c>
       <c r="E16">
         <v>0.6234602873360791</v>
@@ -781,7 +781,7 @@
         <v>0.5674189160380092</v>
       </c>
       <c r="D17">
-        <v>-0.2071457775289758</v>
+        <v>0.3642699478896477</v>
       </c>
       <c r="E17">
         <v>0.6248953362327915</v>
@@ -804,7 +804,7 @@
         <v>0.5645748742237074</v>
       </c>
       <c r="D18">
-        <v>-0.245797453360584</v>
+        <v>0.3447170625509535</v>
       </c>
       <c r="E18">
         <v>0.6269461851479573</v>
@@ -827,7 +827,7 @@
         <v>0.5417842357199687</v>
       </c>
       <c r="D19">
-        <v>-0.2581740120104026</v>
+        <v>0.383792023626658</v>
       </c>
       <c r="E19">
         <v>0.6431444619819195</v>
@@ -850,7 +850,7 @@
         <v>0.5417842357199687</v>
       </c>
       <c r="D20">
-        <v>-0.2581740120104026</v>
+        <v>0.383792023626658</v>
       </c>
       <c r="E20">
         <v>0.6431444619819195</v>
@@ -909,7 +909,7 @@
         <v>0.7664920206548271</v>
       </c>
       <c r="D2">
-        <v>0.3162034228339039</v>
+        <v>0.5383438578115374</v>
       </c>
       <c r="E2">
         <v>0.4591180677772043</v>
@@ -935,7 +935,7 @@
         <v>0.8397196479180207</v>
       </c>
       <c r="D3">
-        <v>0.2751779310093805</v>
+        <v>0.4469513659306917</v>
       </c>
       <c r="E3">
         <v>0.3803764886388026</v>
@@ -961,7 +961,7 @@
         <v>0.8882176885544069</v>
       </c>
       <c r="D4">
-        <v>0.1493217860766026</v>
+        <v>0.1964845776336041</v>
       </c>
       <c r="E4">
         <v>0.3176581951469997</v>
@@ -987,7 +987,7 @@
         <v>0.9099648062393837</v>
       </c>
       <c r="D5">
-        <v>-0.093033753393992</v>
+        <v>0.0002304148378061699</v>
       </c>
       <c r="E5">
         <v>0.2850884829114815</v>
@@ -1013,7 +1013,7 @@
         <v>0.9366282945497733</v>
       </c>
       <c r="D6">
-        <v>0.03035111745788133</v>
+        <v>0.2081972675561676</v>
       </c>
       <c r="E6">
         <v>0.239177993727652</v>
@@ -1039,7 +1039,7 @@
         <v>0.9604915136241807</v>
       </c>
       <c r="D7">
-        <v>0.3120912589958861</v>
+        <v>0.462410102686312</v>
       </c>
       <c r="E7">
         <v>0.1888507513104165</v>
@@ -1065,7 +1065,7 @@
         <v>0.975056290839853</v>
       </c>
       <c r="D8">
-        <v>0.3028834513772013</v>
+        <v>0.4672309711189699</v>
       </c>
       <c r="E8">
         <v>0.1500562324535465</v>
@@ -1091,7 +1091,7 @@
         <v>0.9844114434684986</v>
       </c>
       <c r="D9">
-        <v>0.2266038489292248</v>
+        <v>0.4155239755290493</v>
       </c>
       <c r="E9">
         <v>0.118625067422956</v>
@@ -1117,7 +1117,7 @@
         <v>0.9896323542157439</v>
       </c>
       <c r="D10">
-        <v>0.2940719276087507</v>
+        <v>0.4343023931077323</v>
       </c>
       <c r="E10">
         <v>0.09674167367024294</v>
@@ -1143,7 +1143,7 @@
         <v>0.9909980789654423</v>
       </c>
       <c r="D11">
-        <v>0.2593056432986685</v>
+        <v>0.4174166248493542</v>
       </c>
       <c r="E11">
         <v>0.09014489155821262</v>
@@ -1169,7 +1169,7 @@
         <v>0.9913972584399207</v>
       </c>
       <c r="D12">
-        <v>0.2959195386509851</v>
+        <v>0.4391762126118376</v>
       </c>
       <c r="E12">
         <v>0.08812354495594345</v>
@@ -1195,7 +1195,7 @@
         <v>0.9914669677291233</v>
       </c>
       <c r="D13">
-        <v>0.2367812592604128</v>
+        <v>0.3983209517761259</v>
       </c>
       <c r="E13">
         <v>0.08776577965610952</v>
@@ -1221,7 +1221,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D14">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E14">
         <v>0.0877404725287898</v>
@@ -1247,7 +1247,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D15">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E15">
         <v>0.0877404725287898</v>
@@ -1273,7 +1273,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D16">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E16">
         <v>0.0877404725287898</v>
@@ -1299,7 +1299,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D17">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E17">
         <v>0.0877404725287898</v>
@@ -1325,7 +1325,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D18">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E18">
         <v>0.0877404725287898</v>
@@ -1351,7 +1351,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D19">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E19">
         <v>0.0877404725287898</v>
@@ -1377,7 +1377,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D20">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E20">
         <v>0.0877404725287898</v>
@@ -1403,7 +1403,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D21">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E21">
         <v>0.0877404725287898</v>
@@ -1429,7 +1429,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D22">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E22">
         <v>0.0877404725287898</v>
@@ -1455,7 +1455,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D23">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E23">
         <v>0.0877404725287898</v>
@@ -1481,7 +1481,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D24">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E24">
         <v>0.0877404725287898</v>
@@ -1507,7 +1507,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D25">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E25">
         <v>0.0877404725287898</v>
@@ -1533,7 +1533,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D26">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E26">
         <v>0.0877404725287898</v>
@@ -1559,7 +1559,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D27">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E27">
         <v>0.0877404725287898</v>
@@ -1585,7 +1585,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D28">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E28">
         <v>0.0877404725287898</v>
@@ -1611,7 +1611,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D29">
-        <v>0.3174988798667873</v>
+        <v>0.4456796247026023</v>
       </c>
       <c r="E29">
         <v>0.0877404725287898</v>
@@ -1637,7 +1637,7 @@
         <v>0.7664920206548271</v>
       </c>
       <c r="D30">
-        <v>0.3162034228339016</v>
+        <v>0.5383438578115373</v>
       </c>
       <c r="E30">
         <v>0.4591180677772043</v>
@@ -1663,7 +1663,7 @@
         <v>0.8397196479180207</v>
       </c>
       <c r="D31">
-        <v>-0.2279517925330481</v>
+        <v>0.3842831127460188</v>
       </c>
       <c r="E31">
         <v>0.3803764886388026</v>
@@ -1689,7 +1689,7 @@
         <v>0.8882176885544069</v>
       </c>
       <c r="D32">
-        <v>0.1397807892824113</v>
+        <v>0.4174778128947838</v>
       </c>
       <c r="E32">
         <v>0.3176581951469996</v>
@@ -1715,7 +1715,7 @@
         <v>0.9099648062393837</v>
       </c>
       <c r="D33">
-        <v>-0.5020901579438439</v>
+        <v>0.1327315876119886</v>
       </c>
       <c r="E33">
         <v>0.2850884829114814</v>
@@ -1741,7 +1741,7 @@
         <v>0.9366282945497733</v>
       </c>
       <c r="D34">
-        <v>0.06702685987862045</v>
+        <v>0.2643326573971283</v>
       </c>
       <c r="E34">
         <v>0.239177993727652</v>
@@ -1767,7 +1767,7 @@
         <v>0.9604915136241807</v>
       </c>
       <c r="D35">
-        <v>-0.2470335217176098</v>
+        <v>0.2339405220618564</v>
       </c>
       <c r="E35">
         <v>0.1888507513104165</v>
@@ -1793,7 +1793,7 @@
         <v>0.9748488269985733</v>
       </c>
       <c r="D36">
-        <v>-0.09652919454877318</v>
+        <v>0.4376567367968568</v>
       </c>
       <c r="E36">
         <v>0.1506789701982575</v>
@@ -1819,7 +1819,7 @@
         <v>0.9842497846214443</v>
       </c>
       <c r="D37">
-        <v>-0.188675569738866</v>
+        <v>0.3919312961069806</v>
       </c>
       <c r="E37">
         <v>0.1192385729197395</v>
@@ -1845,7 +1845,7 @@
         <v>0.9894346800943361</v>
       </c>
       <c r="D38">
-        <v>-0.09174247452517781</v>
+        <v>0.4109948819862924</v>
       </c>
       <c r="E38">
         <v>0.09765957880820081</v>
@@ -1871,7 +1871,7 @@
         <v>0.9908000947293945</v>
       </c>
       <c r="D39">
-        <v>-0.1613674730830652</v>
+        <v>0.3917515122482488</v>
       </c>
       <c r="E39">
         <v>0.09113080338350658</v>
@@ -1897,7 +1897,7 @@
         <v>0.991367219758724</v>
       </c>
       <c r="D40">
-        <v>-0.1770962034213206</v>
+        <v>0.3887292756803707</v>
       </c>
       <c r="E40">
         <v>0.08827726387853467</v>
@@ -1923,7 +1923,7 @@
         <v>0.991450711677948</v>
       </c>
       <c r="D41">
-        <v>-0.2054227345336672</v>
+        <v>0.389737447124205</v>
       </c>
       <c r="E41">
         <v>0.08784933999567326</v>
@@ -1949,7 +1949,7 @@
         <v>0.9914702453996525</v>
       </c>
       <c r="D42">
-        <v>-0.138805384479693</v>
+        <v>0.4185482928746818</v>
       </c>
       <c r="E42">
         <v>0.08774892193601716</v>
@@ -1975,7 +1975,7 @@
         <v>0.9914718070663106</v>
       </c>
       <c r="D43">
-        <v>-0.1501895967311562</v>
+        <v>0.4157922878236958</v>
       </c>
       <c r="E43">
         <v>0.087740888830442</v>
@@ -2001,7 +2001,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D44">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E44">
         <v>0.0877404725287898</v>
@@ -2027,7 +2027,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D45">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E45">
         <v>0.0877404725287898</v>
@@ -2053,7 +2053,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D46">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E46">
         <v>0.0877404725287898</v>
@@ -2079,7 +2079,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D47">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E47">
         <v>0.0877404725287898</v>
@@ -2105,7 +2105,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D48">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E48">
         <v>0.0877404725287898</v>
@@ -2131,7 +2131,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D49">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E49">
         <v>0.0877404725287898</v>
@@ -2157,7 +2157,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D50">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E50">
         <v>0.0877404725287898</v>
@@ -2183,7 +2183,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D51">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E51">
         <v>0.0877404725287898</v>
@@ -2209,7 +2209,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D52">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E52">
         <v>0.0877404725287898</v>
@@ -2235,7 +2235,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D53">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E53">
         <v>0.0877404725287898</v>
@@ -2261,7 +2261,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D54">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E54">
         <v>0.0877404725287898</v>
@@ -2287,7 +2287,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D55">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E55">
         <v>0.0877404725287898</v>
@@ -2313,7 +2313,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D56">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E56">
         <v>0.0877404725287898</v>
@@ -2339,7 +2339,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D57">
-        <v>-0.1782737608342002</v>
+        <v>0.3958094056241613</v>
       </c>
       <c r="E57">
         <v>0.0877404725287898</v>
@@ -2365,7 +2365,7 @@
         <v>0.7664920206548271</v>
       </c>
       <c r="D58">
-        <v>0.3162034228339039</v>
+        <v>0.5383438578115374</v>
       </c>
       <c r="E58">
         <v>0.4591180677772043</v>
@@ -2391,7 +2391,7 @@
         <v>0.8397196479180207</v>
       </c>
       <c r="D59">
-        <v>0.1538569008283217</v>
+        <v>0.2486517662319899</v>
       </c>
       <c r="E59">
         <v>0.3803764886388026</v>
@@ -2417,7 +2417,7 @@
         <v>0.887691442623906</v>
       </c>
       <c r="D60">
-        <v>0.1082883622498854</v>
+        <v>0.3868969487870979</v>
       </c>
       <c r="E60">
         <v>0.3184050487713804</v>
@@ -2443,7 +2443,7 @@
         <v>0.9110635651415894</v>
       </c>
       <c r="D61">
-        <v>0.08115330596587988</v>
+        <v>0.2357332230315411</v>
       </c>
       <c r="E61">
         <v>0.283343581551399</v>
@@ -2469,7 +2469,7 @@
         <v>0.9275691537163206</v>
       </c>
       <c r="D62">
-        <v>0.2402059978200388</v>
+        <v>0.4403014335755583</v>
       </c>
       <c r="E62">
         <v>0.2557026923953513</v>
@@ -2495,7 +2495,7 @@
         <v>0.9384438480230985</v>
       </c>
       <c r="D63">
-        <v>-0.2036910688550879</v>
+        <v>0.001834518921190909</v>
       </c>
       <c r="E63">
         <v>0.235726958531437</v>
@@ -2521,7 +2521,7 @@
         <v>0.9475422353687685</v>
       </c>
       <c r="D64">
-        <v>-0.7357000745086515</v>
+        <v>-0.06345897727180261</v>
       </c>
       <c r="E64">
         <v>0.2176097806708087</v>
@@ -2547,7 +2547,7 @@
         <v>0.9597951849278933</v>
       </c>
       <c r="D65">
-        <v>-0.5083769274585741</v>
+        <v>-0.06756502803854403</v>
       </c>
       <c r="E65">
         <v>0.1905077095418204</v>
@@ -2573,7 +2573,7 @@
         <v>0.9744278011063994</v>
       </c>
       <c r="D66">
-        <v>-0.6069876040036992</v>
+        <v>-0.08262975310667198</v>
       </c>
       <c r="E66">
         <v>0.1519349047558365</v>
@@ -2599,7 +2599,7 @@
         <v>0.9845803490884363</v>
       </c>
       <c r="D67">
-        <v>-0.411525966561167</v>
+        <v>-0.09979929883154126</v>
       </c>
       <c r="E67">
         <v>0.1179806520331215</v>
@@ -2625,7 +2625,7 @@
         <v>0.9881489056727442</v>
       </c>
       <c r="D68">
-        <v>-0.4676870762608869</v>
+        <v>-0.06684955585353047</v>
       </c>
       <c r="E68">
         <v>0.1034314822675835</v>
@@ -2651,7 +2651,7 @@
         <v>0.9896997155005935</v>
       </c>
       <c r="D69">
-        <v>-0.4689851874952458</v>
+        <v>-0.05068968062985557</v>
       </c>
       <c r="E69">
         <v>0.09642688364071837</v>
@@ -2677,7 +2677,7 @@
         <v>0.9907534896957025</v>
       </c>
       <c r="D70">
-        <v>-0.4575925675869079</v>
+        <v>-0.04024004854389984</v>
       </c>
       <c r="E70">
         <v>0.09136133776360472</v>
@@ -2703,7 +2703,7 @@
         <v>0.9912162004147097</v>
       </c>
       <c r="D71">
-        <v>-0.500574158542769</v>
+        <v>-0.09654931019044</v>
       </c>
       <c r="E71">
         <v>0.08904606453803644</v>
@@ -2729,7 +2729,7 @@
         <v>0.9913735937520262</v>
       </c>
       <c r="D72">
-        <v>-0.5433558005525774</v>
+        <v>-0.04970956073050115</v>
       </c>
       <c r="E72">
         <v>0.08824466820399757</v>
@@ -2755,7 +2755,7 @@
         <v>0.9914375514255916</v>
       </c>
       <c r="D73">
-        <v>-0.5238185122772587</v>
+        <v>-0.05083240393510469</v>
       </c>
       <c r="E73">
         <v>0.087916928949708</v>
@@ -2781,7 +2781,7 @@
         <v>0.9914592339926835</v>
       </c>
       <c r="D74">
-        <v>-0.3965271027028845</v>
+        <v>-0.04070399842753614</v>
       </c>
       <c r="E74">
         <v>0.08780554299357196</v>
@@ -2807,7 +2807,7 @@
         <v>0.9914700715717139</v>
       </c>
       <c r="D75">
-        <v>-0.5374400290983365</v>
+        <v>-0.05545198108203864</v>
       </c>
       <c r="E75">
         <v>0.08774981604945985</v>
@@ -2833,7 +2833,7 @@
         <v>0.9914712952327813</v>
       </c>
       <c r="D76">
-        <v>-0.5207843400726451</v>
+        <v>-0.05093611558015465</v>
       </c>
       <c r="E76">
         <v>0.08774352174783343</v>
@@ -2859,7 +2859,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D77">
-        <v>-0.5193185412843528</v>
+        <v>-0.05161825990558788</v>
       </c>
       <c r="E77">
         <v>0.0877404725287898</v>
@@ -2885,7 +2885,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D78">
-        <v>-0.5193185412843528</v>
+        <v>-0.05161825990558788</v>
       </c>
       <c r="E78">
         <v>0.0877404725287898</v>
@@ -2911,7 +2911,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D79">
-        <v>-0.5193185412843528</v>
+        <v>-0.05161825990558788</v>
       </c>
       <c r="E79">
         <v>0.0877404725287898</v>
@@ -2937,7 +2937,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D80">
-        <v>-0.5193185412843528</v>
+        <v>-0.05161825990558788</v>
       </c>
       <c r="E80">
         <v>0.0877404725287898</v>
@@ -2963,7 +2963,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D81">
-        <v>-0.5193185412843528</v>
+        <v>-0.05161825990558788</v>
       </c>
       <c r="E81">
         <v>0.0877404725287898</v>
@@ -2989,7 +2989,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D82">
-        <v>-0.5193185412843528</v>
+        <v>-0.05161825990558788</v>
       </c>
       <c r="E82">
         <v>0.0877404725287898</v>
@@ -3015,7 +3015,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D83">
-        <v>-0.5193185412843528</v>
+        <v>-0.05161825990558788</v>
       </c>
       <c r="E83">
         <v>0.0877404725287898</v>
@@ -3041,7 +3041,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D84">
-        <v>-0.5193185412843528</v>
+        <v>-0.05161825990558788</v>
       </c>
       <c r="E84">
         <v>0.0877404725287898</v>
@@ -3067,7 +3067,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D85">
-        <v>-0.5193185412843528</v>
+        <v>-0.05161825990558788</v>
       </c>
       <c r="E85">
         <v>0.0877404725287898</v>
@@ -3093,7 +3093,7 @@
         <v>0.7664920206548271</v>
       </c>
       <c r="D86">
-        <v>0.3162034228339016</v>
+        <v>0.5383438578115373</v>
       </c>
       <c r="E86">
         <v>0.4591180677772043</v>
@@ -3119,7 +3119,7 @@
         <v>0.8366832981037431</v>
       </c>
       <c r="D87">
-        <v>0.486745054669287</v>
+        <v>0.6404953176501393</v>
       </c>
       <c r="E87">
         <v>0.3839625096357399</v>
@@ -3145,7 +3145,7 @@
         <v>0.877600066197687</v>
       </c>
       <c r="D88">
-        <v>0.4323676007701051</v>
+        <v>0.6289489709127343</v>
       </c>
       <c r="E88">
         <v>0.3324023707661568</v>
@@ -3171,7 +3171,7 @@
         <v>0.9108778919297712</v>
       </c>
       <c r="D89">
-        <v>0.3759637027657136</v>
+        <v>0.4856165095114862</v>
       </c>
       <c r="E89">
         <v>0.283639196522567</v>
@@ -3197,7 +3197,7 @@
         <v>0.9275352686660006</v>
       </c>
       <c r="D90">
-        <v>0.5719773359899449</v>
+        <v>0.6899732872740619</v>
       </c>
       <c r="E90">
         <v>0.25576249761585</v>
@@ -3223,7 +3223,7 @@
         <v>0.9384351403909847</v>
       </c>
       <c r="D91">
-        <v>0.005689406801827723</v>
+        <v>0.4246283716135564</v>
       </c>
       <c r="E91">
         <v>0.2357436307159647</v>
@@ -3249,7 +3249,7 @@
         <v>0.9475410280668456</v>
       </c>
       <c r="D92">
-        <v>-0.391598413073998</v>
+        <v>0.1866935353992425</v>
       </c>
       <c r="E92">
         <v>0.2176122847728888</v>
@@ -3275,7 +3275,7 @@
         <v>0.9596708857619861</v>
       </c>
       <c r="D93">
-        <v>0.5638250853737858</v>
+        <v>0.6827363491792096</v>
       </c>
       <c r="E93">
         <v>0.1908019737371537</v>
@@ -3301,7 +3301,7 @@
         <v>0.9739965747140821</v>
       </c>
       <c r="D94">
-        <v>0.3607125500030711</v>
+        <v>0.443370218708084</v>
       </c>
       <c r="E94">
         <v>0.1532105955021602</v>
@@ -3327,7 +3327,7 @@
         <v>0.985432959970734</v>
       </c>
       <c r="D95">
-        <v>0.3616536028353431</v>
+        <v>0.407806040364678</v>
       </c>
       <c r="E95">
         <v>0.1146724728569079</v>
@@ -3353,7 +3353,7 @@
         <v>0.988855680764268</v>
       </c>
       <c r="D96">
-        <v>0.3955501786304354</v>
+        <v>0.4656434681209628</v>
       </c>
       <c r="E96">
         <v>0.1002998522459699</v>
@@ -3379,7 +3379,7 @@
         <v>0.9901953391284475</v>
       </c>
       <c r="D97">
-        <v>0.3216399036654773</v>
+        <v>0.4233474380326939</v>
       </c>
       <c r="E97">
         <v>0.09407837547137544</v>
@@ -3405,7 +3405,7 @@
         <v>0.9907608842200885</v>
       </c>
       <c r="D98">
-        <v>0.3499099346262458</v>
+        <v>0.4506990005656187</v>
       </c>
       <c r="E98">
         <v>0.09132479918107358</v>
@@ -3431,7 +3431,7 @@
         <v>0.9912160557323288</v>
       </c>
       <c r="D99">
-        <v>0.2929168199661391</v>
+        <v>0.4108600974010158</v>
       </c>
       <c r="E99">
         <v>0.08904679789627454</v>
@@ -3457,7 +3457,7 @@
         <v>0.9913708222365092</v>
       </c>
       <c r="D100">
-        <v>0.3527578762813014</v>
+        <v>0.4555635525044976</v>
       </c>
       <c r="E100">
         <v>0.08825884281038598</v>
@@ -3483,7 +3483,7 @@
         <v>0.991436743896112</v>
       </c>
       <c r="D101">
-        <v>0.3262443978552843</v>
+        <v>0.4355002887059208</v>
       </c>
       <c r="E101">
         <v>0.08792107460018633</v>
@@ -3509,7 +3509,7 @@
         <v>0.9914592339926835</v>
       </c>
       <c r="D102">
-        <v>0.319552597083699</v>
+        <v>0.4310220370560525</v>
       </c>
       <c r="E102">
         <v>0.08780554299357196</v>
@@ -3535,7 +3535,7 @@
         <v>0.9914700715717139</v>
       </c>
       <c r="D103">
-        <v>0.3654206605816094</v>
+        <v>0.4680430551691717</v>
       </c>
       <c r="E103">
         <v>0.08774981604945985</v>
@@ -3561,7 +3561,7 @@
         <v>0.9914712952327813</v>
       </c>
       <c r="D104">
-        <v>0.322595909862275</v>
+        <v>0.4226659731580131</v>
       </c>
       <c r="E104">
         <v>0.08774352174783343</v>
@@ -3587,7 +3587,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D105">
-        <v>0.3172828595245233</v>
+        <v>0.4325384550995481</v>
       </c>
       <c r="E105">
         <v>0.0877404725287898</v>
@@ -3613,7 +3613,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D106">
-        <v>0.3172828595245233</v>
+        <v>0.4325384550995481</v>
       </c>
       <c r="E106">
         <v>0.0877404725287898</v>
@@ -3639,7 +3639,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D107">
-        <v>0.3172828595245233</v>
+        <v>0.4325384550995481</v>
       </c>
       <c r="E107">
         <v>0.0877404725287898</v>
@@ -3665,7 +3665,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D108">
-        <v>0.3172828595245233</v>
+        <v>0.4325384550995481</v>
       </c>
       <c r="E108">
         <v>0.0877404725287898</v>
@@ -3691,7 +3691,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D109">
-        <v>0.3172828595245233</v>
+        <v>0.4325384550995481</v>
       </c>
       <c r="E109">
         <v>0.0877404725287898</v>
@@ -3717,7 +3717,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D110">
-        <v>0.3172828595245233</v>
+        <v>0.4325384550995481</v>
       </c>
       <c r="E110">
         <v>0.0877404725287898</v>
@@ -3743,7 +3743,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D111">
-        <v>0.3172828595245233</v>
+        <v>0.4325384550995481</v>
       </c>
       <c r="E111">
         <v>0.0877404725287898</v>
@@ -3769,7 +3769,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D112">
-        <v>0.3172828595245233</v>
+        <v>0.4325384550995481</v>
       </c>
       <c r="E112">
         <v>0.0877404725287898</v>
@@ -3795,7 +3795,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D113">
-        <v>0.3172828595245233</v>
+        <v>0.4325384550995481</v>
       </c>
       <c r="E113">
         <v>0.0877404725287898</v>
@@ -3821,7 +3821,7 @@
         <v>0.7618277156567531</v>
       </c>
       <c r="D114">
-        <v>0.271390173858583</v>
+        <v>0.5399291827945281</v>
       </c>
       <c r="E114">
         <v>0.4636808203727217</v>
@@ -3847,7 +3847,7 @@
         <v>0.8390246160295276</v>
       </c>
       <c r="D115">
-        <v>0.2083123644130322</v>
+        <v>0.2761181512435911</v>
       </c>
       <c r="E115">
         <v>0.3812003195112089</v>
@@ -3873,7 +3873,7 @@
         <v>0.8876842555311459</v>
       </c>
       <c r="D116">
-        <v>0.3137027963163169</v>
+        <v>0.4489727751601071</v>
       </c>
       <c r="E116">
         <v>0.3184152366415848</v>
@@ -3899,7 +3899,7 @@
         <v>0.9110477627483829</v>
       </c>
       <c r="D117">
-        <v>0.2320797184829126</v>
+        <v>0.2864040946848033</v>
       </c>
       <c r="E117">
         <v>0.2833687529438662</v>
@@ -3925,7 +3925,7 @@
         <v>0.927562353631052</v>
       </c>
       <c r="D118">
-        <v>0.00176914578883669</v>
+        <v>0.05560622716465857</v>
       </c>
       <c r="E118">
         <v>0.2557146952877068</v>
@@ -3951,7 +3951,7 @@
         <v>0.9384435284846935</v>
       </c>
       <c r="D119">
-        <v>0.1928319889058747</v>
+        <v>0.2492388013160834</v>
       </c>
       <c r="E119">
         <v>0.2357275703607684</v>
@@ -3977,7 +3977,7 @@
         <v>0.9475421443080649</v>
       </c>
       <c r="D120">
-        <v>0.2618072823180156</v>
+        <v>0.3099008039240466</v>
       </c>
       <c r="E120">
         <v>0.2176099695436217</v>
@@ -4003,7 +4003,7 @@
         <v>0.9596709768226896</v>
       </c>
       <c r="D121">
-        <v>0.4101780387166386</v>
+        <v>0.4843214296663336</v>
       </c>
       <c r="E121">
         <v>0.1908017583273671</v>
@@ -4029,7 +4029,7 @@
         <v>0.9739965747140821</v>
       </c>
       <c r="D122">
-        <v>0.3730953291598075</v>
+        <v>0.4429159767875018</v>
       </c>
       <c r="E122">
         <v>0.1532105955021602</v>
@@ -4055,7 +4055,7 @@
         <v>0.985432959970734</v>
       </c>
       <c r="D123">
-        <v>0.3777368518845001</v>
+        <v>0.4396168409446053</v>
       </c>
       <c r="E123">
         <v>0.1146724728569079</v>
@@ -4081,7 +4081,7 @@
         <v>0.988855680764268</v>
       </c>
       <c r="D124">
-        <v>0.3823583155638325</v>
+        <v>0.4486043848569478</v>
       </c>
       <c r="E124">
         <v>0.1002998522459699</v>
@@ -4107,7 +4107,7 @@
         <v>0.9901953391284475</v>
       </c>
       <c r="D125">
-        <v>0.3425326473595183</v>
+        <v>0.4138268433375129</v>
       </c>
       <c r="E125">
         <v>0.09407837547137544</v>
@@ -4133,7 +4133,7 @@
         <v>0.9907023070640548</v>
       </c>
       <c r="D126">
-        <v>0.331667219060292</v>
+        <v>0.4214738909624303</v>
       </c>
       <c r="E126">
         <v>0.09161384711119706</v>
@@ -4159,7 +4159,7 @@
         <v>0.9911839666318643</v>
       </c>
       <c r="D127">
-        <v>0.3662703666138972</v>
+        <v>0.4494381733305807</v>
       </c>
       <c r="E127">
         <v>0.08920930044941158</v>
@@ -4185,7 +4185,7 @@
         <v>0.9913755764474556</v>
       </c>
       <c r="D128">
-        <v>0.347805924356395</v>
+        <v>0.4430717996290603</v>
       </c>
       <c r="E128">
         <v>0.08823452653261166</v>
@@ -4211,7 +4211,7 @@
         <v>0.9914323924971262</v>
       </c>
       <c r="D129">
-        <v>0.3525293499114369</v>
+        <v>0.4438135891600208</v>
       </c>
       <c r="E129">
         <v>0.08794341020949205</v>
@@ -4237,7 +4237,7 @@
         <v>0.9914587072368366</v>
       </c>
       <c r="D130">
-        <v>0.3881756603939098</v>
+        <v>0.4630232116438887</v>
       </c>
       <c r="E130">
         <v>0.08780825067634854</v>
@@ -4263,7 +4263,7 @@
         <v>0.9914686747119077</v>
       </c>
       <c r="D131">
-        <v>0.3561722999232905</v>
+        <v>0.4457242972464085</v>
       </c>
       <c r="E131">
         <v>0.08775700070372147</v>
@@ -4289,7 +4289,7 @@
         <v>0.991471760508904</v>
       </c>
       <c r="D132">
-        <v>0.3280228560015106</v>
+        <v>0.4232505088253244</v>
       </c>
       <c r="E132">
         <v>0.08774112832916615</v>
@@ -4315,7 +4315,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D133">
-        <v>0.3612216998133766</v>
+        <v>0.4436546498283368</v>
       </c>
       <c r="E133">
         <v>0.0877404725287898</v>
@@ -4341,7 +4341,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D134">
-        <v>0.3334299091685016</v>
+        <v>0.3923422781530598</v>
       </c>
       <c r="E134">
         <v>0.0877404725287898</v>
@@ -4367,7 +4367,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D135">
-        <v>0.3334299091685016</v>
+        <v>0.3923422781530598</v>
       </c>
       <c r="E135">
         <v>0.0877404725287898</v>
@@ -4393,7 +4393,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D136">
-        <v>0.3334299091685016</v>
+        <v>0.3923422781530598</v>
       </c>
       <c r="E136">
         <v>0.0877404725287898</v>
@@ -4419,7 +4419,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D137">
-        <v>0.3334299091685016</v>
+        <v>0.3923422781530598</v>
       </c>
       <c r="E137">
         <v>0.0877404725287898</v>
@@ -4445,7 +4445,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D138">
-        <v>0.3334299091685016</v>
+        <v>0.3923422781530598</v>
       </c>
       <c r="E138">
         <v>0.0877404725287898</v>
@@ -4471,7 +4471,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D139">
-        <v>0.3334299091685016</v>
+        <v>0.3923422781530598</v>
       </c>
       <c r="E139">
         <v>0.0877404725287898</v>
@@ -4497,7 +4497,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D140">
-        <v>0.3334299091685016</v>
+        <v>0.3923422781530598</v>
       </c>
       <c r="E140">
         <v>0.0877404725287898</v>
@@ -4523,7 +4523,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D141">
-        <v>0.3334299091685016</v>
+        <v>0.3923422781530598</v>
       </c>
       <c r="E141">
         <v>0.0877404725287898</v>
@@ -4549,7 +4549,7 @@
         <v>0.761827715656753</v>
       </c>
       <c r="D142">
-        <v>0.2713901738585813</v>
+        <v>0.5399291827945278</v>
       </c>
       <c r="E142">
         <v>0.4636808203727217</v>
@@ -4575,7 +4575,7 @@
         <v>0.8390246160295276</v>
       </c>
       <c r="D143">
-        <v>0.2514731186347415</v>
+        <v>0.3155823100296098</v>
       </c>
       <c r="E143">
         <v>0.3812003195112089</v>
@@ -4601,7 +4601,7 @@
         <v>0.8876842555311459</v>
       </c>
       <c r="D144">
-        <v>0.1345163917134673</v>
+        <v>0.2123201696265322</v>
       </c>
       <c r="E144">
         <v>0.3184152366415848</v>
@@ -4627,7 +4627,7 @@
         <v>0.9110477627483829</v>
       </c>
       <c r="D145">
-        <v>0.2320797184829182</v>
+        <v>0.2864040946848048</v>
       </c>
       <c r="E145">
         <v>0.2833687529438661</v>
@@ -4653,7 +4653,7 @@
         <v>0.927562353631052</v>
       </c>
       <c r="D146">
-        <v>0.01544195963116801</v>
+        <v>0.0531013643342183</v>
       </c>
       <c r="E146">
         <v>0.2557146952877068</v>
@@ -4679,7 +4679,7 @@
         <v>0.9384435284846935</v>
       </c>
       <c r="D147">
-        <v>0.2034827733615961</v>
+        <v>0.2467339384856443</v>
       </c>
       <c r="E147">
         <v>0.2357275703607684</v>
@@ -4705,7 +4705,7 @@
         <v>0.9475421443080649</v>
       </c>
       <c r="D148">
-        <v>0.4244464912850783</v>
+        <v>0.5025106581601395</v>
       </c>
       <c r="E148">
         <v>0.2176099695436217</v>
@@ -4731,7 +4731,7 @@
         <v>0.9596709768226896</v>
       </c>
       <c r="D149">
-        <v>0.03774042747468653</v>
+        <v>0.04138784650614979</v>
       </c>
       <c r="E149">
         <v>0.1908017583273671</v>
@@ -4757,7 +4757,7 @@
         <v>0.973509357194882</v>
       </c>
       <c r="D150">
-        <v>0.04378805364114791</v>
+        <v>0.01455261936158625</v>
       </c>
       <c r="E150">
         <v>0.1546392623956614</v>
@@ -4783,7 +4783,7 @@
         <v>0.9859882293861258</v>
       </c>
       <c r="D151">
-        <v>0.07982885059602263</v>
+        <v>0.03828829002230782</v>
       </c>
       <c r="E151">
         <v>0.1124656844334553</v>
@@ -4809,7 +4809,7 @@
         <v>0.9902277502500425</v>
       </c>
       <c r="D152">
-        <v>0.08757218552019108</v>
+        <v>0.04386932510905295</v>
       </c>
       <c r="E152">
         <v>0.09392275000954606</v>
@@ -4835,7 +4835,7 @@
         <v>0.9912981628763523</v>
       </c>
       <c r="D153">
-        <v>0.09583207114655001</v>
+        <v>0.03402459980590222</v>
       </c>
       <c r="E153">
         <v>0.08862964223277583</v>
@@ -4861,7 +4861,7 @@
         <v>0.991385078365998</v>
       </c>
       <c r="D154">
-        <v>0.04716115547967903</v>
+        <v>0.02373130972848281</v>
       </c>
       <c r="E154">
         <v>0.08818590714773325</v>
@@ -4887,7 +4887,7 @@
         <v>0.9914182082942541</v>
       </c>
       <c r="D155">
-        <v>0.08806195729824784</v>
+        <v>0.04077967922290282</v>
       </c>
       <c r="E155">
         <v>0.08801617797507318</v>
@@ -4913,7 +4913,7 @@
         <v>0.991456356332348</v>
       </c>
       <c r="D156">
-        <v>0.0955602067850907</v>
+        <v>0.04472289037248856</v>
       </c>
       <c r="E156">
         <v>0.08782033401162177</v>
@@ -4939,7 +4939,7 @@
         <v>0.9914698983622713</v>
       </c>
       <c r="D157">
-        <v>0.07415946088526848</v>
+        <v>-0.005479237391529113</v>
       </c>
       <c r="E157">
         <v>0.08775070697250194</v>
@@ -4965,7 +4965,7 @@
         <v>0.9914714434188305</v>
       </c>
       <c r="D158">
-        <v>0.0633745514435512</v>
+        <v>0.03953367776182448</v>
       </c>
       <c r="E158">
         <v>0.08774275947368622</v>
@@ -4991,7 +4991,7 @@
         <v>0.9914717780052471</v>
       </c>
       <c r="D159">
-        <v>0.05528380455420601</v>
+        <v>0.03006087637975419</v>
       </c>
       <c r="E159">
         <v>0.08774103832526359</v>
@@ -5017,7 +5017,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D160">
-        <v>0.02643225091576829</v>
+        <v>0.01518870904338598</v>
       </c>
       <c r="E160">
         <v>0.0877404725287898</v>
@@ -5043,7 +5043,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D161">
-        <v>0.02643225091576829</v>
+        <v>0.01518870904338598</v>
       </c>
       <c r="E161">
         <v>0.0877404725287898</v>
@@ -5069,7 +5069,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D162">
-        <v>0.02643225091576829</v>
+        <v>0.01518870904338598</v>
       </c>
       <c r="E162">
         <v>0.0877404725287898</v>
@@ -5095,7 +5095,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D163">
-        <v>0.02643225091576829</v>
+        <v>0.01518870904338598</v>
       </c>
       <c r="E163">
         <v>0.0877404725287898</v>
@@ -5121,7 +5121,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D164">
-        <v>0.02643225091576829</v>
+        <v>0.01518870904338598</v>
       </c>
       <c r="E164">
         <v>0.0877404725287898</v>
@@ -5147,7 +5147,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D165">
-        <v>0.02643225091576829</v>
+        <v>0.01518870904338598</v>
       </c>
       <c r="E165">
         <v>0.0877404725287898</v>
@@ -5173,7 +5173,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D166">
-        <v>0.02643225091576829</v>
+        <v>0.01518870904338598</v>
       </c>
       <c r="E166">
         <v>0.0877404725287898</v>
@@ -5199,7 +5199,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D167">
-        <v>0.02643225091576829</v>
+        <v>0.01518870904338598</v>
       </c>
       <c r="E167">
         <v>0.0877404725287898</v>
@@ -5225,7 +5225,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D168">
-        <v>0.02643225091576829</v>
+        <v>0.01518870904338598</v>
       </c>
       <c r="E168">
         <v>0.0877404725287898</v>
@@ -5251,7 +5251,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D169">
-        <v>0.02643225091576829</v>
+        <v>0.01518870904338598</v>
       </c>
       <c r="E169">
         <v>0.0877404725287898</v>
@@ -5277,7 +5277,7 @@
         <v>0.7433731691606528</v>
       </c>
       <c r="D170">
-        <v>0.09469773599777187</v>
+        <v>0.2980361336739034</v>
       </c>
       <c r="E170">
         <v>0.4813096304752305</v>
@@ -5303,7 +5303,7 @@
         <v>0.8396355471531478</v>
       </c>
       <c r="D171">
-        <v>0.4013577956873593</v>
+        <v>0.4508206755324141</v>
       </c>
       <c r="E171">
         <v>0.3804762692979853</v>
@@ -5329,7 +5329,7 @@
         <v>0.8877292832320672</v>
       </c>
       <c r="D172">
-        <v>0.311495323058693</v>
+        <v>0.4523615068141034</v>
       </c>
       <c r="E172">
         <v>0.3183514034569012</v>
@@ -5355,7 +5355,7 @@
         <v>0.9110145640329458</v>
       </c>
       <c r="D173">
-        <v>0.2488143130954017</v>
+        <v>0.2868016851387718</v>
       </c>
       <c r="E173">
         <v>0.2834216273924657</v>
@@ -5381,7 +5381,7 @@
         <v>0.927336561093661</v>
       </c>
       <c r="D174">
-        <v>0.2312449425263168</v>
+        <v>0.2531301344814727</v>
       </c>
       <c r="E174">
         <v>0.2561129243108632</v>
@@ -5407,7 +5407,7 @@
         <v>0.9382951928192068</v>
       </c>
       <c r="D175">
-        <v>0.2186117214878138</v>
+        <v>0.2487388030349772</v>
       </c>
       <c r="E175">
         <v>0.2360114216374611</v>
@@ -5433,7 +5433,7 @@
         <v>0.9475166515047665</v>
       </c>
       <c r="D176">
-        <v>0.2533645728078373</v>
+        <v>0.2686850689216157</v>
       </c>
       <c r="E176">
         <v>0.2176628387875645</v>
@@ -5459,7 +5459,7 @@
         <v>0.9596685386976667</v>
       </c>
       <c r="D177">
-        <v>0.2583224774307366</v>
+        <v>0.2464659102928212</v>
       </c>
       <c r="E177">
         <v>0.1908075257806053</v>
@@ -5485,7 +5485,7 @@
         <v>0.9734341944004798</v>
       </c>
       <c r="D178">
-        <v>0.2028288007077694</v>
+        <v>0.1894889289707034</v>
       </c>
       <c r="E178">
         <v>0.1548584885990448</v>
@@ -5511,7 +5511,7 @@
         <v>0.9871110896988546</v>
       </c>
       <c r="D179">
-        <v>0.1592213040261553</v>
+        <v>0.1826229755976496</v>
       </c>
       <c r="E179">
         <v>0.1078652667408454</v>
@@ -5537,7 +5537,7 @@
         <v>0.9906603885422998</v>
       </c>
       <c r="D180">
-        <v>0.2096442189225836</v>
+        <v>0.1831912814955413</v>
       </c>
       <c r="E180">
         <v>0.09182013475133881</v>
@@ -5563,7 +5563,7 @@
         <v>0.9912863616164148</v>
       </c>
       <c r="D181">
-        <v>0.203429816997227</v>
+        <v>0.2129575148015954</v>
       </c>
       <c r="E181">
         <v>0.08868972075701578</v>
@@ -5589,7 +5589,7 @@
         <v>0.9914115632152736</v>
       </c>
       <c r="D182">
-        <v>0.2297856502508671</v>
+        <v>0.1623096240339852</v>
       </c>
       <c r="E182">
         <v>0.08805024785800891</v>
@@ -5615,7 +5615,7 @@
         <v>0.9914565448129918</v>
       </c>
       <c r="D183">
-        <v>0.2181469346228604</v>
+        <v>0.1884436900506471</v>
       </c>
       <c r="E183">
         <v>0.08781936530757525</v>
@@ -5641,7 +5641,7 @@
         <v>0.9914713311195278</v>
       </c>
       <c r="D184">
-        <v>0.2269577774174676</v>
+        <v>0.2131173992223425</v>
       </c>
       <c r="E184">
         <v>0.08774333714577999</v>
@@ -5667,7 +5667,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D185">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E185">
         <v>0.0877404725287898</v>
@@ -5693,7 +5693,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D186">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E186">
         <v>0.0877404725287898</v>
@@ -5719,7 +5719,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D187">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E187">
         <v>0.0877404725287898</v>
@@ -5745,7 +5745,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D188">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E188">
         <v>0.0877404725287898</v>
@@ -5771,7 +5771,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D189">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E189">
         <v>0.0877404725287898</v>
@@ -5797,7 +5797,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D190">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E190">
         <v>0.0877404725287898</v>
@@ -5823,7 +5823,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D191">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E191">
         <v>0.0877404725287898</v>
@@ -5849,7 +5849,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D192">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E192">
         <v>0.0877404725287898</v>
@@ -5875,7 +5875,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D193">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E193">
         <v>0.0877404725287898</v>
@@ -5901,7 +5901,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D194">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E194">
         <v>0.0877404725287898</v>
@@ -5927,7 +5927,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D195">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E195">
         <v>0.0877404725287898</v>
@@ -5953,7 +5953,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D196">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E196">
         <v>0.0877404725287898</v>
@@ -5979,7 +5979,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D197">
-        <v>0.1852112467674968</v>
+        <v>0.1832717090940493</v>
       </c>
       <c r="E197">
         <v>0.0877404725287898</v>
@@ -6005,7 +6005,7 @@
         <v>0.7433731691606528</v>
       </c>
       <c r="D198">
-        <v>0.0946977359977742</v>
+        <v>0.2980361336739035</v>
       </c>
       <c r="E198">
         <v>0.4813096304752305</v>
@@ -6031,7 +6031,7 @@
         <v>0.8396355471531478</v>
       </c>
       <c r="D199">
-        <v>0.4013577956873625</v>
+        <v>0.4508206755324147</v>
       </c>
       <c r="E199">
         <v>0.3804762692979853</v>
@@ -6057,7 +6057,7 @@
         <v>0.8866851980427166</v>
       </c>
       <c r="D200">
-        <v>0.3618825861720563</v>
+        <v>0.4605097683446042</v>
       </c>
       <c r="E200">
         <v>0.319828265786013</v>
@@ -6083,7 +6083,7 @@
         <v>0.9184358425898335</v>
       </c>
       <c r="D201">
-        <v>0.4425127824091081</v>
+        <v>0.4256121987437539</v>
       </c>
       <c r="E201">
         <v>0.2713458589906507</v>
@@ -6109,7 +6109,7 @@
         <v>0.9444314411514834</v>
       </c>
       <c r="D202">
-        <v>0.342824721799874</v>
+        <v>0.2439679599148536</v>
       </c>
       <c r="E202">
         <v>0.2239690913045976</v>
@@ -6135,7 +6135,7 @@
         <v>0.9629965848178825</v>
       </c>
       <c r="D203">
-        <v>0.2454158330257705</v>
+        <v>0.1666650118960097</v>
       </c>
       <c r="E203">
         <v>0.1827655869138426</v>
@@ -6161,7 +6161,7 @@
         <v>0.97889253842825</v>
       </c>
       <c r="D204">
-        <v>0.1828462593367746</v>
+        <v>0.1043312697595614</v>
       </c>
       <c r="E204">
         <v>0.1380357326770657</v>
@@ -6187,7 +6187,7 @@
         <v>0.9867255908378982</v>
       </c>
       <c r="D205">
-        <v>0.145982335415839</v>
+        <v>0.08403742684927828</v>
       </c>
       <c r="E205">
         <v>0.1094664719232475</v>
@@ -6213,7 +6213,7 @@
         <v>0.9889272722438691</v>
       </c>
       <c r="D206">
-        <v>0.1246336109729314</v>
+        <v>0.07478366511814571</v>
       </c>
       <c r="E206">
         <v>0.09997716837483454</v>
@@ -6239,7 +6239,7 @@
         <v>0.9904692101636059</v>
       </c>
       <c r="D207">
-        <v>0.1838779086588949</v>
+        <v>0.1372815541140696</v>
       </c>
       <c r="E207">
         <v>0.09275513623879689</v>
@@ -6265,7 +6265,7 @@
         <v>0.9910771024814371</v>
       </c>
       <c r="D208">
-        <v>0.1599304885185535</v>
+        <v>0.1195040549763615</v>
       </c>
       <c r="E208">
         <v>0.08974835015122198</v>
@@ -6291,7 +6291,7 @@
         <v>0.9912259937647196</v>
       </c>
       <c r="D209">
-        <v>0.2174823162173771</v>
+        <v>0.1674630070499404</v>
       </c>
       <c r="E209">
         <v>0.08899641048593049</v>
@@ -6317,7 +6317,7 @@
         <v>0.9913296004140917</v>
       </c>
       <c r="D210">
-        <v>0.1216982814870252</v>
+        <v>0.07582888880010685</v>
       </c>
       <c r="E210">
         <v>0.08846939912627247</v>
@@ -6343,7 +6343,7 @@
         <v>0.9913693536523877</v>
       </c>
       <c r="D211">
-        <v>0.1085566553452361</v>
+        <v>0.07092539581751289</v>
       </c>
       <c r="E211">
         <v>0.08826635279710798</v>
@@ -6369,7 +6369,7 @@
         <v>0.9914039463317261</v>
       </c>
       <c r="D212">
-        <v>0.1238485375770172</v>
+        <v>0.0875071239197972</v>
       </c>
       <c r="E212">
         <v>0.08808928405673307</v>
@@ -6395,7 +6395,7 @@
         <v>0.9914367049914867</v>
       </c>
       <c r="D213">
-        <v>0.1235119213408019</v>
+        <v>0.07428454118550554</v>
       </c>
       <c r="E213">
         <v>0.08792127432167868</v>
@@ -6421,7 +6421,7 @@
         <v>0.9914565156663858</v>
       </c>
       <c r="D214">
-        <v>0.2191682096648934</v>
+        <v>0.1683403632620738</v>
       </c>
       <c r="E214">
         <v>0.08781951510845797</v>
@@ -6447,7 +6447,7 @@
         <v>0.9914698880627023</v>
       </c>
       <c r="D215">
-        <v>0.1004415212766603</v>
+        <v>0.06935440870206233</v>
       </c>
       <c r="E215">
         <v>0.0877507599492558</v>
@@ -6473,7 +6473,7 @@
         <v>0.9914712761256221</v>
       </c>
       <c r="D216">
-        <v>0.2145558303260598</v>
+        <v>0.1675891443584184</v>
       </c>
       <c r="E216">
         <v>0.087743620035237</v>
@@ -6499,7 +6499,7 @@
         <v>0.9914717780052471</v>
       </c>
       <c r="D217">
-        <v>0.1947979549752947</v>
+        <v>0.1507777046476707</v>
       </c>
       <c r="E217">
         <v>0.08774103832526359</v>
@@ -6525,7 +6525,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D218">
-        <v>0.2042751137774586</v>
+        <v>0.147159836173904</v>
       </c>
       <c r="E218">
         <v>0.0877404725287898</v>
@@ -6551,7 +6551,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D219">
-        <v>0.2042751137774586</v>
+        <v>0.147159836173904</v>
       </c>
       <c r="E219">
         <v>0.0877404725287898</v>
@@ -6577,7 +6577,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D220">
-        <v>0.2042751137774586</v>
+        <v>0.147159836173904</v>
       </c>
       <c r="E220">
         <v>0.0877404725287898</v>
@@ -6603,7 +6603,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D221">
-        <v>0.2042751137774586</v>
+        <v>0.147159836173904</v>
       </c>
       <c r="E221">
         <v>0.0877404725287898</v>
@@ -6629,7 +6629,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D222">
-        <v>0.2042751137774586</v>
+        <v>0.147159836173904</v>
       </c>
       <c r="E222">
         <v>0.0877404725287898</v>
@@ -6655,7 +6655,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D223">
-        <v>0.2042751137774586</v>
+        <v>0.147159836173904</v>
       </c>
       <c r="E223">
         <v>0.0877404725287898</v>
@@ -6681,7 +6681,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D224">
-        <v>0.2042751137774586</v>
+        <v>0.147159836173904</v>
       </c>
       <c r="E224">
         <v>0.0877404725287898</v>
@@ -6707,7 +6707,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D225">
-        <v>0.2042751137774586</v>
+        <v>0.147159836173904</v>
       </c>
       <c r="E225">
         <v>0.0877404725287898</v>
@@ -6733,7 +6733,7 @@
         <v>0.7433731691606527</v>
       </c>
       <c r="D226">
-        <v>0.09469773599777176</v>
+        <v>0.2980361336739028</v>
       </c>
       <c r="E226">
         <v>0.4813096304752305</v>
@@ -6759,7 +6759,7 @@
         <v>0.8396355471531478</v>
       </c>
       <c r="D227">
-        <v>0.4013577956873595</v>
+        <v>0.4508206755324141</v>
       </c>
       <c r="E227">
         <v>0.3804762692979853</v>
@@ -6785,7 +6785,7 @@
         <v>0.8866851980427166</v>
       </c>
       <c r="D228">
-        <v>0.2241185610295084</v>
+        <v>0.2894868247548225</v>
       </c>
       <c r="E228">
         <v>0.319828265786013</v>
@@ -6811,7 +6811,7 @@
         <v>0.9184358425898335</v>
       </c>
       <c r="D229">
-        <v>0.1807397909792104</v>
+        <v>0.2534653949650212</v>
       </c>
       <c r="E229">
         <v>0.2713458589906507</v>
@@ -6837,7 +6837,7 @@
         <v>0.9444314411514834</v>
       </c>
       <c r="D230">
-        <v>0.1978072517084094</v>
+        <v>0.2595177777043439</v>
       </c>
       <c r="E230">
         <v>0.2239690913045976</v>
@@ -6863,7 +6863,7 @@
         <v>0.9629965848178825</v>
       </c>
       <c r="D231">
-        <v>0.2146743203355058</v>
+        <v>0.281036503037709</v>
       </c>
       <c r="E231">
         <v>0.1827655869138426</v>
@@ -6889,7 +6889,7 @@
         <v>0.97889253842825</v>
       </c>
       <c r="D232">
-        <v>0.2063001760549454</v>
+        <v>0.2732921758907275</v>
       </c>
       <c r="E232">
         <v>0.1380357326770657</v>
@@ -6915,7 +6915,7 @@
         <v>0.9867255908378982</v>
       </c>
       <c r="D233">
-        <v>0.1578553531466846</v>
+        <v>0.2512834217719857</v>
       </c>
       <c r="E233">
         <v>0.1094664719232475</v>
@@ -6941,7 +6941,7 @@
         <v>0.9889272722438691</v>
       </c>
       <c r="D234">
-        <v>0.06026678163940224</v>
+        <v>0.1853824155805585</v>
       </c>
       <c r="E234">
         <v>0.09997716837483454</v>
@@ -6967,7 +6967,7 @@
         <v>0.9904692101636059</v>
       </c>
       <c r="D235">
-        <v>0.05498112671317079</v>
+        <v>0.1880539873773931</v>
       </c>
       <c r="E235">
         <v>0.09275513623879689</v>
@@ -6993,7 +6993,7 @@
         <v>0.9910771024814371</v>
       </c>
       <c r="D236">
-        <v>0.08646517923198216</v>
+        <v>0.2162154602869316</v>
       </c>
       <c r="E236">
         <v>0.08974835015122198</v>
@@ -7019,7 +7019,7 @@
         <v>0.9912259937647196</v>
       </c>
       <c r="D237">
-        <v>0.09889570833036931</v>
+        <v>0.2023202081149879</v>
       </c>
       <c r="E237">
         <v>0.08899641048593049</v>
@@ -7045,7 +7045,7 @@
         <v>0.9913296004140917</v>
       </c>
       <c r="D238">
-        <v>0.1238656967942524</v>
+        <v>0.2390277967105698</v>
       </c>
       <c r="E238">
         <v>0.08846939912627247</v>
@@ -7071,7 +7071,7 @@
         <v>0.9913693536523877</v>
       </c>
       <c r="D239">
-        <v>0.1343954578113012</v>
+        <v>0.2508752404152524</v>
       </c>
       <c r="E239">
         <v>0.08826635279710798</v>
@@ -7097,7 +7097,7 @@
         <v>0.9914039463317261</v>
       </c>
       <c r="D240">
-        <v>0.1267909534889988</v>
+        <v>0.2382901593123926</v>
       </c>
       <c r="E240">
         <v>0.08808928405673307</v>
@@ -7123,7 +7123,7 @@
         <v>0.9914367049914867</v>
       </c>
       <c r="D241">
-        <v>0.08828281362362955</v>
+        <v>0.2139975987000462</v>
       </c>
       <c r="E241">
         <v>0.08792127432167868</v>
@@ -7149,7 +7149,7 @@
         <v>0.9914565156663858</v>
       </c>
       <c r="D242">
-        <v>0.1055135705936041</v>
+        <v>0.2331690834487602</v>
       </c>
       <c r="E242">
         <v>0.08781951510845797</v>
@@ -7175,7 +7175,7 @@
         <v>0.9914698880627023</v>
       </c>
       <c r="D243">
-        <v>0.05620105300931644</v>
+        <v>0.1935379034612228</v>
       </c>
       <c r="E243">
         <v>0.0877507599492558</v>
@@ -7201,7 +7201,7 @@
         <v>0.9914712761256221</v>
       </c>
       <c r="D244">
-        <v>0.03112127414565835</v>
+        <v>0.1714218603769105</v>
       </c>
       <c r="E244">
         <v>0.087743620035237</v>
@@ -7227,7 +7227,7 @@
         <v>0.9914717780052471</v>
       </c>
       <c r="D245">
-        <v>0.07562556266610077</v>
+        <v>0.1951615343186428</v>
       </c>
       <c r="E245">
         <v>0.08774103832526359</v>
@@ -7253,7 +7253,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D246">
-        <v>0.1592824862676249</v>
+        <v>0.2567103331782814</v>
       </c>
       <c r="E246">
         <v>0.0877404725287898</v>
@@ -7279,7 +7279,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D247">
-        <v>0.1592824862676249</v>
+        <v>0.2567103331782814</v>
       </c>
       <c r="E247">
         <v>0.0877404725287898</v>
@@ -7305,7 +7305,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D248">
-        <v>0.1592824862676249</v>
+        <v>0.2567103331782814</v>
       </c>
       <c r="E248">
         <v>0.0877404725287898</v>
@@ -7331,7 +7331,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D249">
-        <v>0.1592824862676249</v>
+        <v>0.2567103331782814</v>
       </c>
       <c r="E249">
         <v>0.0877404725287898</v>
@@ -7357,7 +7357,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D250">
-        <v>0.1592824862676249</v>
+        <v>0.2567103331782814</v>
       </c>
       <c r="E250">
         <v>0.0877404725287898</v>
@@ -7383,7 +7383,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D251">
-        <v>0.1592824862676249</v>
+        <v>0.2567103331782814</v>
       </c>
       <c r="E251">
         <v>0.0877404725287898</v>
@@ -7409,7 +7409,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D252">
-        <v>0.1592824862676249</v>
+        <v>0.2567103331782814</v>
       </c>
       <c r="E252">
         <v>0.0877404725287898</v>
@@ -7435,7 +7435,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D253">
-        <v>0.1592824862676249</v>
+        <v>0.2567103331782814</v>
       </c>
       <c r="E253">
         <v>0.0877404725287898</v>
@@ -7461,7 +7461,7 @@
         <v>0.7406748920752979</v>
       </c>
       <c r="D254">
-        <v>0.1610026471059625</v>
+        <v>0.5257898671257637</v>
       </c>
       <c r="E254">
         <v>0.4838333548886362</v>
@@ -7487,7 +7487,7 @@
         <v>0.8254017099485104</v>
       </c>
       <c r="D255">
-        <v>0.5155981125091089</v>
+        <v>0.5963826713671094</v>
       </c>
       <c r="E255">
         <v>0.3970027491681588</v>
@@ -7513,7 +7513,7 @@
         <v>0.8758405529392049</v>
       </c>
       <c r="D256">
-        <v>0.4222550646489794</v>
+        <v>0.6153466163386212</v>
       </c>
       <c r="E256">
         <v>0.3347830071476287</v>
@@ -7539,7 +7539,7 @@
         <v>0.9152291298107752</v>
       </c>
       <c r="D257">
-        <v>0.5073917628800511</v>
+        <v>0.6544045090356923</v>
       </c>
       <c r="E257">
         <v>0.2766284490268476</v>
@@ -7565,7 +7565,7 @@
         <v>0.9334945003158428</v>
       </c>
       <c r="D258">
-        <v>0.5354371937414868</v>
+        <v>0.6714761632329098</v>
       </c>
       <c r="E258">
         <v>0.2450204321825344</v>
@@ -7591,7 +7591,7 @@
         <v>0.956248870199862</v>
       </c>
       <c r="D259">
-        <v>0.5380356530627799</v>
+        <v>0.6715947071694797</v>
       </c>
       <c r="E259">
         <v>0.1987321620545547</v>
@@ -7617,7 +7617,7 @@
         <v>0.9787151059501333</v>
       </c>
       <c r="D260">
-        <v>0.5280216023342312</v>
+        <v>0.6741635940817549</v>
       </c>
       <c r="E260">
         <v>0.1386146930210301</v>
@@ -7643,7 +7643,7 @@
         <v>0.9855116622695749</v>
       </c>
       <c r="D261">
-        <v>0.4893454276337766</v>
+        <v>0.6385451430480056</v>
       </c>
       <c r="E261">
         <v>0.1143622790830573</v>
@@ -7669,7 +7669,7 @@
         <v>0.9878574199751391</v>
       </c>
       <c r="D262">
-        <v>0.5056196968364094</v>
+        <v>0.6423817363772609</v>
       </c>
       <c r="E262">
         <v>0.1046957393799563</v>
@@ -7695,7 +7695,7 @@
         <v>0.9888720234648349</v>
       </c>
       <c r="D263">
-        <v>0.4647354069541698</v>
+        <v>0.6015264255440311</v>
       </c>
       <c r="E263">
         <v>0.1002262823937848</v>
@@ -7721,7 +7721,7 @@
         <v>0.990175963615279</v>
       </c>
       <c r="D264">
-        <v>0.4736188993980115</v>
+        <v>0.6230842610612619</v>
       </c>
       <c r="E264">
         <v>0.09417128623973443</v>
@@ -7747,7 +7747,7 @@
         <v>0.9909391604811016</v>
       </c>
       <c r="D265">
-        <v>0.5224546293484984</v>
+        <v>0.6603565566242635</v>
       </c>
       <c r="E265">
         <v>0.09043941414399496</v>
@@ -7773,7 +7773,7 @@
         <v>0.9912298778573988</v>
       </c>
       <c r="D266">
-        <v>0.5164323480406428</v>
+        <v>0.6628371194534302</v>
       </c>
       <c r="E266">
         <v>0.08897670976079271</v>
@@ -7799,7 +7799,7 @@
         <v>0.9914173594053687</v>
       </c>
       <c r="D267">
-        <v>0.5115646755870092</v>
+        <v>0.6458466566313071</v>
       </c>
       <c r="E267">
         <v>0.08802053103502828</v>
@@ -7825,7 +7825,7 @@
         <v>0.9914661478280365</v>
       </c>
       <c r="D268">
-        <v>0.5361961221351547</v>
+        <v>0.6667567165958311</v>
       </c>
       <c r="E268">
         <v>0.08776999606637041</v>
@@ -7851,7 +7851,7 @@
         <v>0.9914715671297722</v>
       </c>
       <c r="D269">
-        <v>0.5168174655827793</v>
+        <v>0.6484218713493592</v>
       </c>
       <c r="E269">
         <v>0.08774212309526364</v>
@@ -7877,7 +7877,7 @@
         <v>0.9914718084860689</v>
       </c>
       <c r="D270">
-        <v>0.511906522566997</v>
+        <v>0.6461108557873896</v>
       </c>
       <c r="E270">
         <v>0.0877408815269685</v>
@@ -7903,7 +7903,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D271">
-        <v>0.5117700158071226</v>
+        <v>0.6497674943905001</v>
       </c>
       <c r="E271">
         <v>0.0877404725287898</v>
@@ -7929,7 +7929,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D272">
-        <v>0.5117700158071226</v>
+        <v>0.6497674943905001</v>
       </c>
       <c r="E272">
         <v>0.0877404725287898</v>
@@ -7955,7 +7955,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D273">
-        <v>0.5117700158071226</v>
+        <v>0.6497674943905001</v>
       </c>
       <c r="E273">
         <v>0.0877404725287898</v>
@@ -7981,7 +7981,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D274">
-        <v>0.5117700158071226</v>
+        <v>0.6497674943905001</v>
       </c>
       <c r="E274">
         <v>0.0877404725287898</v>
@@ -8007,7 +8007,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D275">
-        <v>0.5117700158071226</v>
+        <v>0.6497674943905001</v>
       </c>
       <c r="E275">
         <v>0.0877404725287898</v>
@@ -8033,7 +8033,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D276">
-        <v>0.5117700158071226</v>
+        <v>0.6497674943905001</v>
       </c>
       <c r="E276">
         <v>0.0877404725287898</v>
@@ -8059,7 +8059,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D277">
-        <v>0.5117700158071226</v>
+        <v>0.6497674943905001</v>
       </c>
       <c r="E277">
         <v>0.0877404725287898</v>
@@ -8085,7 +8085,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D278">
-        <v>0.5117700158071226</v>
+        <v>0.6497674943905001</v>
       </c>
       <c r="E278">
         <v>0.0877404725287898</v>
@@ -8111,7 +8111,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D279">
-        <v>0.5117700158071226</v>
+        <v>0.6497674943905001</v>
       </c>
       <c r="E279">
         <v>0.0877404725287898</v>
@@ -8137,7 +8137,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D280">
-        <v>0.5117700158071226</v>
+        <v>0.6497674943905001</v>
       </c>
       <c r="E280">
         <v>0.0877404725287898</v>
@@ -8163,7 +8163,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D281">
-        <v>0.5117700158071226</v>
+        <v>0.6497674943905001</v>
       </c>
       <c r="E281">
         <v>0.0877404725287898</v>
@@ -8189,7 +8189,7 @@
         <v>0.7406748920752979</v>
       </c>
       <c r="D282">
-        <v>0.1610026471059645</v>
+        <v>0.525789867125764</v>
       </c>
       <c r="E282">
         <v>0.4838333548886362</v>
@@ -8215,7 +8215,7 @@
         <v>0.8254017099485104</v>
       </c>
       <c r="D283">
-        <v>0.5155981125091098</v>
+        <v>0.5963826713671097</v>
       </c>
       <c r="E283">
         <v>0.3970027491681588</v>
@@ -8241,7 +8241,7 @@
         <v>0.8723575607053011</v>
       </c>
       <c r="D284">
-        <v>0.6049197737427645</v>
+        <v>0.6141007289746534</v>
       </c>
       <c r="E284">
         <v>0.3394462918129496</v>
@@ -8267,7 +8267,7 @@
         <v>0.9125333005587961</v>
       </c>
       <c r="D285">
-        <v>0.6320606085788976</v>
+        <v>0.6368025904140215</v>
       </c>
       <c r="E285">
         <v>0.2809926049704604</v>
@@ -8293,7 +8293,7 @@
         <v>0.9435301849943508</v>
       </c>
       <c r="D286">
-        <v>0.6157222772686911</v>
+        <v>0.6198071747463566</v>
       </c>
       <c r="E286">
         <v>0.2257780426357422</v>
@@ -8319,7 +8319,7 @@
         <v>0.9627009132684712</v>
       </c>
       <c r="D287">
-        <v>0.6161816896442638</v>
+        <v>0.6156733260829282</v>
       </c>
       <c r="E287">
         <v>0.1834943178410531</v>
@@ -8345,7 +8345,7 @@
         <v>0.9694026535427732</v>
       </c>
       <c r="D288">
-        <v>0.6189733263669835</v>
+        <v>0.6174200803664707</v>
       </c>
       <c r="E288">
         <v>0.1661940239271886</v>
@@ -8371,7 +8371,7 @@
         <v>0.978255932659797</v>
       </c>
       <c r="D289">
-        <v>0.6146500511504253</v>
+        <v>0.6109029650683606</v>
       </c>
       <c r="E289">
         <v>0.1401018639641457</v>
@@ -8397,7 +8397,7 @@
         <v>0.9850628312137624</v>
       </c>
       <c r="D290">
-        <v>0.6101296486542719</v>
+        <v>0.608690504867082</v>
       </c>
       <c r="E290">
         <v>0.1161201706401396</v>
@@ -8423,7 +8423,7 @@
         <v>0.9880756129470317</v>
       </c>
       <c r="D291">
-        <v>0.6306355240753665</v>
+        <v>0.6149409170645164</v>
       </c>
       <c r="E291">
         <v>0.1037508236881855</v>
@@ -8449,7 +8449,7 @@
         <v>0.9900405455955997</v>
       </c>
       <c r="D292">
-        <v>0.6256808829693237</v>
+        <v>0.6105471581415582</v>
       </c>
       <c r="E292">
         <v>0.09481811014603092</v>
@@ -8475,7 +8475,7 @@
         <v>0.9907605721551996</v>
       </c>
       <c r="D293">
-        <v>0.6195696965490229</v>
+        <v>0.6165830489191431</v>
       </c>
       <c r="E293">
         <v>0.09132634148356911</v>
@@ -8501,7 +8501,7 @@
         <v>0.9911132215718976</v>
       </c>
       <c r="D294">
-        <v>0.6443739030047394</v>
+        <v>0.6333738388800778</v>
       </c>
       <c r="E294">
         <v>0.08956651931190263</v>
@@ -8527,7 +8527,7 @@
         <v>0.9913191258579609</v>
       </c>
       <c r="D295">
-        <v>0.6331682820404527</v>
+        <v>0.6292306531142151</v>
       </c>
       <c r="E295">
         <v>0.08852282215314843</v>
@@ -8553,7 +8553,7 @@
         <v>0.9914444099970429</v>
       </c>
       <c r="D296">
-        <v>0.6554053619238731</v>
+        <v>0.6241387046321346</v>
       </c>
       <c r="E296">
         <v>0.08788171090835835</v>
@@ -8579,7 +8579,7 @@
         <v>0.9914696900570953</v>
       </c>
       <c r="D297">
-        <v>0.6387753439054458</v>
+        <v>0.6341892139342487</v>
       </c>
       <c r="E297">
         <v>0.08775177840257645</v>
@@ -8605,7 +8605,7 @@
         <v>0.9914715671297722</v>
       </c>
       <c r="D298">
-        <v>0.653798243582853</v>
+        <v>0.6351011034376306</v>
       </c>
       <c r="E298">
         <v>0.08774212309526364</v>
@@ -8631,7 +8631,7 @@
         <v>0.9914718084860689</v>
       </c>
       <c r="D299">
-        <v>0.6387062998755424</v>
+        <v>0.6297844808438443</v>
       </c>
       <c r="E299">
         <v>0.0877408815269685</v>
@@ -8657,7 +8657,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D300">
-        <v>0.653269510210353</v>
+        <v>0.6354281583335049</v>
       </c>
       <c r="E300">
         <v>0.0877404725287898</v>
@@ -8683,7 +8683,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D301">
-        <v>0.653269510210353</v>
+        <v>0.6354281583335049</v>
       </c>
       <c r="E301">
         <v>0.0877404725287898</v>
@@ -8709,7 +8709,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D302">
-        <v>0.653269510210353</v>
+        <v>0.6354281583335049</v>
       </c>
       <c r="E302">
         <v>0.0877404725287898</v>
@@ -8735,7 +8735,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D303">
-        <v>0.653269510210353</v>
+        <v>0.6354281583335049</v>
       </c>
       <c r="E303">
         <v>0.0877404725287898</v>
@@ -8761,7 +8761,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D304">
-        <v>0.653269510210353</v>
+        <v>0.6354281583335049</v>
       </c>
       <c r="E304">
         <v>0.0877404725287898</v>
@@ -8787,7 +8787,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D305">
-        <v>0.653269510210353</v>
+        <v>0.6354281583335049</v>
       </c>
       <c r="E305">
         <v>0.0877404725287898</v>
@@ -8813,7 +8813,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D306">
-        <v>0.653269510210353</v>
+        <v>0.6354281583335049</v>
       </c>
       <c r="E306">
         <v>0.0877404725287898</v>
@@ -8839,7 +8839,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D307">
-        <v>0.653269510210353</v>
+        <v>0.6354281583335049</v>
       </c>
       <c r="E307">
         <v>0.0877404725287898</v>
@@ -8865,7 +8865,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D308">
-        <v>0.653269510210353</v>
+        <v>0.6354281583335049</v>
       </c>
       <c r="E308">
         <v>0.0877404725287898</v>
@@ -8891,7 +8891,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D309">
-        <v>0.653269510210353</v>
+        <v>0.6354281583335049</v>
       </c>
       <c r="E309">
         <v>0.0877404725287898</v>
@@ -8917,7 +8917,7 @@
         <v>0.7406748920752978</v>
       </c>
       <c r="D310">
-        <v>0.1610026471059625</v>
+        <v>0.5257898671257637</v>
       </c>
       <c r="E310">
         <v>0.4838333548886362</v>
@@ -8943,7 +8943,7 @@
         <v>0.8236140910488311</v>
       </c>
       <c r="D311">
-        <v>0.3808672533034373</v>
+        <v>0.5775388899809422</v>
       </c>
       <c r="E311">
         <v>0.3990299234437568</v>
@@ -8969,7 +8969,7 @@
         <v>0.8719255465152252</v>
       </c>
       <c r="D312">
-        <v>0.431036800315569</v>
+        <v>0.5475474053674119</v>
       </c>
       <c r="E312">
         <v>0.3400202456728935</v>
@@ -8995,7 +8995,7 @@
         <v>0.9124747579143361</v>
       </c>
       <c r="D313">
-        <v>0.4211954064467865</v>
+        <v>0.5244355822369727</v>
       </c>
       <c r="E313">
         <v>0.2810866253155421</v>
@@ -9021,7 +9021,7 @@
         <v>0.9435175002975409</v>
       </c>
       <c r="D314">
-        <v>0.5486792978570328</v>
+        <v>0.6878844586557005</v>
       </c>
       <c r="E314">
         <v>0.2258033992373666</v>
@@ -9047,7 +9047,7 @@
         <v>0.9627009132684712</v>
       </c>
       <c r="D315">
-        <v>0.5481566181381576</v>
+        <v>0.6839105178780098</v>
       </c>
       <c r="E315">
         <v>0.1834943178410531</v>
@@ -9073,7 +9073,7 @@
         <v>0.9694026535427732</v>
       </c>
       <c r="D316">
-        <v>0.5872771405507733</v>
+        <v>0.7082588631829586</v>
       </c>
       <c r="E316">
         <v>0.1661940239271886</v>
@@ -9099,7 +9099,7 @@
         <v>0.978255932659797</v>
       </c>
       <c r="D317">
-        <v>0.5876252736945704</v>
+        <v>0.699781753848584</v>
       </c>
       <c r="E317">
         <v>0.1401018639641457</v>
@@ -9125,7 +9125,7 @@
         <v>0.9850628312137624</v>
       </c>
       <c r="D318">
-        <v>0.5842478549738193</v>
+        <v>0.6922316671359834</v>
       </c>
       <c r="E318">
         <v>0.1161201706401396</v>
@@ -9151,7 +9151,7 @@
         <v>0.9871062463174308</v>
       </c>
       <c r="D319">
-        <v>0.5512069847241763</v>
+        <v>0.6865596432238947</v>
       </c>
       <c r="E319">
         <v>0.107885531586609</v>
@@ -9177,7 +9177,7 @@
         <v>0.9891764949719434</v>
       </c>
       <c r="D320">
-        <v>0.5695656852251532</v>
+        <v>0.6880636974789148</v>
       </c>
       <c r="E320">
         <v>0.09884563204729117</v>
@@ -9203,7 +9203,7 @@
         <v>0.9908104359706321</v>
       </c>
       <c r="D321">
-        <v>0.5809343316051183</v>
+        <v>0.7065419854266362</v>
       </c>
       <c r="E321">
         <v>0.09107957075810467</v>
@@ -9229,7 +9229,7 @@
         <v>0.9912917214079884</v>
       </c>
       <c r="D322">
-        <v>0.5724713174165006</v>
+        <v>0.7067935159047329</v>
       </c>
       <c r="E322">
         <v>0.08866243987168264</v>
@@ -9255,7 +9255,7 @@
         <v>0.9914344341186216</v>
       </c>
       <c r="D323">
-        <v>0.5898427222701051</v>
+        <v>0.6991620481119583</v>
       </c>
       <c r="E323">
         <v>0.08793293132993357</v>
@@ -9281,7 +9281,7 @@
         <v>0.9914617976457848</v>
       </c>
       <c r="D324">
-        <v>0.5709259571903822</v>
+        <v>0.705977750797435</v>
       </c>
       <c r="E324">
         <v>0.08779236385676825</v>
@@ -9307,7 +9307,7 @@
         <v>0.9914715671297722</v>
       </c>
       <c r="D325">
-        <v>0.6007980591480689</v>
+        <v>0.7024940886925972</v>
       </c>
       <c r="E325">
         <v>0.08774212309526364</v>
@@ -9333,7 +9333,7 @@
         <v>0.9914718084860689</v>
       </c>
       <c r="D326">
-        <v>0.579558167851407</v>
+        <v>0.7075654612929514</v>
       </c>
       <c r="E326">
         <v>0.0877408815269685</v>
@@ -9359,7 +9359,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D327">
-        <v>0.6018624952751228</v>
+        <v>0.7108375801559406</v>
       </c>
       <c r="E327">
         <v>0.0877404725287898</v>
@@ -9385,7 +9385,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D328">
-        <v>0.6018624952751228</v>
+        <v>0.7108375801559406</v>
       </c>
       <c r="E328">
         <v>0.0877404725287898</v>
@@ -9411,7 +9411,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D329">
-        <v>0.6018624952751228</v>
+        <v>0.7108375801559406</v>
       </c>
       <c r="E329">
         <v>0.0877404725287898</v>
@@ -9437,7 +9437,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D330">
-        <v>0.6018624952751228</v>
+        <v>0.7108375801559406</v>
       </c>
       <c r="E330">
         <v>0.0877404725287898</v>
@@ -9463,7 +9463,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D331">
-        <v>0.6018624952751228</v>
+        <v>0.7108375801559406</v>
       </c>
       <c r="E331">
         <v>0.0877404725287898</v>
@@ -9489,7 +9489,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D332">
-        <v>0.6018624952751228</v>
+        <v>0.7108375801559406</v>
       </c>
       <c r="E332">
         <v>0.0877404725287898</v>
@@ -9515,7 +9515,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D333">
-        <v>0.6018624952751228</v>
+        <v>0.7108375801559406</v>
       </c>
       <c r="E333">
         <v>0.0877404725287898</v>
@@ -9541,7 +9541,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D334">
-        <v>0.6018624952751228</v>
+        <v>0.7108375801559406</v>
       </c>
       <c r="E334">
         <v>0.0877404725287898</v>
@@ -9567,7 +9567,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D335">
-        <v>0.6018624952751228</v>
+        <v>0.7108375801559406</v>
       </c>
       <c r="E335">
         <v>0.0877404725287898</v>
@@ -9593,7 +9593,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D336">
-        <v>0.6018624952751228</v>
+        <v>0.7108375801559406</v>
       </c>
       <c r="E336">
         <v>0.0877404725287898</v>
@@ -9619,7 +9619,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D337">
-        <v>0.6018624952751228</v>
+        <v>0.7108375801559406</v>
       </c>
       <c r="E337">
         <v>0.0877404725287898</v>
@@ -9645,7 +9645,7 @@
         <v>0.7406748920752978</v>
       </c>
       <c r="D338">
-        <v>0.1610026471059646</v>
+        <v>0.5257898671257639</v>
       </c>
       <c r="E338">
         <v>0.4838333548886362</v>
@@ -9671,7 +9671,7 @@
         <v>0.8097433643036595</v>
       </c>
       <c r="D339">
-        <v>0.05525559556710824</v>
+        <v>0.5615614334036539</v>
       </c>
       <c r="E339">
         <v>0.4144225966606899</v>
@@ -9697,7 +9697,7 @@
         <v>0.8612735736473397</v>
       </c>
       <c r="D340">
-        <v>0.288738341609013</v>
+        <v>0.5204583031329466</v>
       </c>
       <c r="E340">
         <v>0.353877638567092</v>
@@ -9723,7 +9723,7 @@
         <v>0.9136295952052931</v>
       </c>
       <c r="D341">
-        <v>0.4056947137626539</v>
+        <v>0.4822923569124717</v>
       </c>
       <c r="E341">
         <v>0.2792260923834954</v>
@@ -9749,7 +9749,7 @@
         <v>0.9503304022571289</v>
       </c>
       <c r="D342">
-        <v>0.6064164612642051</v>
+        <v>0.702807439630716</v>
       </c>
       <c r="E342">
         <v>0.2117477686570536</v>
@@ -9775,7 +9775,7 @@
         <v>0.9634182835667344</v>
       </c>
       <c r="D343">
-        <v>0.4048313050117088</v>
+        <v>0.6685242627380927</v>
       </c>
       <c r="E343">
         <v>0.181721185182262</v>
@@ -9801,7 +9801,7 @@
         <v>0.9754519702142728</v>
       </c>
       <c r="D344">
-        <v>0.3735112002238196</v>
+        <v>0.6352841628209616</v>
       </c>
       <c r="E344">
         <v>0.1488613118517541</v>
@@ -9827,7 +9827,7 @@
         <v>0.9864578120997788</v>
       </c>
       <c r="D345">
-        <v>0.4083877880970644</v>
+        <v>0.6493267921750264</v>
       </c>
       <c r="E345">
         <v>0.1105650683799197</v>
@@ -9853,7 +9853,7 @@
         <v>0.9898761716584283</v>
       </c>
       <c r="D346">
-        <v>0.4157733196939865</v>
+        <v>0.6502295133344163</v>
       </c>
       <c r="E346">
         <v>0.09559736186037898</v>
@@ -9879,7 +9879,7 @@
         <v>0.9911545607602686</v>
       </c>
       <c r="D347">
-        <v>0.3707327620754486</v>
+        <v>0.6337499072384339</v>
       </c>
       <c r="E347">
         <v>0.08935795536486819</v>
@@ -9905,7 +9905,7 @@
         <v>0.9914358016201384</v>
       </c>
       <c r="D348">
-        <v>0.3993954068051996</v>
+        <v>0.6433206431964533</v>
       </c>
       <c r="E348">
         <v>0.08792591175770285</v>
@@ -9931,7 +9931,7 @@
         <v>0.9914699382356462</v>
       </c>
       <c r="D349">
-        <v>0.3612962004692278</v>
+        <v>0.6235786600218943</v>
       </c>
       <c r="E349">
         <v>0.0877505018799323</v>
@@ -9957,7 +9957,7 @@
         <v>0.9914717756897354</v>
       </c>
       <c r="D350">
-        <v>0.3624107363458142</v>
+        <v>0.6257438105053827</v>
       </c>
       <c r="E350">
         <v>0.08774105023662024</v>
@@ -9983,7 +9983,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D351">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E351">
         <v>0.0877404725287898</v>
@@ -10009,7 +10009,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D352">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E352">
         <v>0.0877404725287898</v>
@@ -10035,7 +10035,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D353">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E353">
         <v>0.0877404725287898</v>
@@ -10061,7 +10061,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D354">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E354">
         <v>0.0877404725287898</v>
@@ -10087,7 +10087,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D355">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E355">
         <v>0.0877404725287898</v>
@@ -10113,7 +10113,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D356">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E356">
         <v>0.0877404725287898</v>
@@ -10139,7 +10139,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D357">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E357">
         <v>0.0877404725287898</v>
@@ -10165,7 +10165,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D358">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E358">
         <v>0.0877404725287898</v>
@@ -10191,7 +10191,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D359">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E359">
         <v>0.0877404725287898</v>
@@ -10217,7 +10217,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D360">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E360">
         <v>0.0877404725287898</v>
@@ -10243,7 +10243,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D361">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E361">
         <v>0.0877404725287898</v>
@@ -10269,7 +10269,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D362">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E362">
         <v>0.0877404725287898</v>
@@ -10295,7 +10295,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D363">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E363">
         <v>0.0877404725287898</v>
@@ -10321,7 +10321,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D364">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E364">
         <v>0.0877404725287898</v>
@@ -10347,7 +10347,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D365">
-        <v>0.3663090096102658</v>
+        <v>0.6276544737488127</v>
       </c>
       <c r="E365">
         <v>0.0877404725287898</v>
@@ -10373,7 +10373,7 @@
         <v>0.7406748920752978</v>
       </c>
       <c r="D366">
-        <v>0.1610026471059625</v>
+        <v>0.5257898671257637</v>
       </c>
       <c r="E366">
         <v>0.4838333548886362</v>
@@ -10399,7 +10399,7 @@
         <v>0.8097433643036595</v>
       </c>
       <c r="D367">
-        <v>0.05525559556710702</v>
+        <v>0.5615614334036536</v>
       </c>
       <c r="E367">
         <v>0.4144225966606899</v>
@@ -10425,7 +10425,7 @@
         <v>0.8612735736473397</v>
       </c>
       <c r="D368">
-        <v>0.288738341609013</v>
+        <v>0.5204583031329466</v>
       </c>
       <c r="E368">
         <v>0.353877638567092</v>
@@ -10451,7 +10451,7 @@
         <v>0.9136295952052931</v>
       </c>
       <c r="D369">
-        <v>0.4056947137626526</v>
+        <v>0.4822923569124714</v>
       </c>
       <c r="E369">
         <v>0.2792260923834954</v>
@@ -10477,7 +10477,7 @@
         <v>0.9503304022571289</v>
       </c>
       <c r="D370">
-        <v>0.5958421019002489</v>
+        <v>0.7046957971871124</v>
       </c>
       <c r="E370">
         <v>0.2117477686570536</v>
@@ -10503,7 +10503,7 @@
         <v>0.9634182835667344</v>
       </c>
       <c r="D371">
-        <v>0.3677900367033754</v>
+        <v>0.621577024492842</v>
       </c>
       <c r="E371">
         <v>0.181721185182262</v>
@@ -10529,7 +10529,7 @@
         <v>0.9754519702142728</v>
       </c>
       <c r="D372">
-        <v>0.3696660184534534</v>
+        <v>0.5990992959268595</v>
       </c>
       <c r="E372">
         <v>0.1488613118517541</v>
@@ -10555,7 +10555,7 @@
         <v>0.9864578120997788</v>
       </c>
       <c r="D373">
-        <v>0.4090307997861095</v>
+        <v>0.6161099988292909</v>
       </c>
       <c r="E373">
         <v>0.1105650683799197</v>
@@ -10581,7 +10581,7 @@
         <v>0.9898761716584283</v>
       </c>
       <c r="D374">
-        <v>0.4053758203815966</v>
+        <v>0.6167554468062439</v>
       </c>
       <c r="E374">
         <v>0.09559736186037897</v>
@@ -10607,7 +10607,7 @@
         <v>0.9911545607602686</v>
       </c>
       <c r="D375">
-        <v>0.4018181739285434</v>
+        <v>0.6159507200888903</v>
       </c>
       <c r="E375">
         <v>0.08935795536486819</v>
@@ -10633,7 +10633,7 @@
         <v>0.9914358016201384</v>
       </c>
       <c r="D376">
-        <v>0.3686882182718786</v>
+        <v>0.5920701576759932</v>
       </c>
       <c r="E376">
         <v>0.08792591175770285</v>
@@ -10659,7 +10659,7 @@
         <v>0.9914699382356462</v>
       </c>
       <c r="D377">
-        <v>0.3991898637390314</v>
+        <v>0.6120750631560214</v>
       </c>
       <c r="E377">
         <v>0.0877505018799323</v>
@@ -10685,7 +10685,7 @@
         <v>0.9914717756897354</v>
       </c>
       <c r="D378">
-        <v>0.3981708499895448</v>
+        <v>0.610834552417225</v>
       </c>
       <c r="E378">
         <v>0.08774105023662024</v>
@@ -10711,7 +10711,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D379">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E379">
         <v>0.0877404725287898</v>
@@ -10737,7 +10737,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D380">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E380">
         <v>0.0877404725287898</v>
@@ -10763,7 +10763,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D381">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E381">
         <v>0.0877404725287898</v>
@@ -10789,7 +10789,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D382">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E382">
         <v>0.0877404725287898</v>
@@ -10815,7 +10815,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D383">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E383">
         <v>0.0877404725287898</v>
@@ -10841,7 +10841,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D384">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E384">
         <v>0.0877404725287898</v>
@@ -10867,7 +10867,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D385">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E385">
         <v>0.0877404725287898</v>
@@ -10893,7 +10893,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D386">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E386">
         <v>0.0877404725287898</v>
@@ -10919,7 +10919,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D387">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E387">
         <v>0.0877404725287898</v>
@@ -10945,7 +10945,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D388">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E388">
         <v>0.0877404725287898</v>
@@ -10971,7 +10971,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D389">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E389">
         <v>0.0877404725287898</v>
@@ -10997,7 +10997,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D390">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E390">
         <v>0.0877404725287898</v>
@@ -11023,7 +11023,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D391">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E391">
         <v>0.0877404725287898</v>
@@ -11049,7 +11049,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D392">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E392">
         <v>0.0877404725287898</v>
@@ -11075,7 +11075,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D393">
-        <v>0.4013572087605665</v>
+        <v>0.6141604359274558</v>
       </c>
       <c r="E393">
         <v>0.0877404725287898</v>
@@ -11101,7 +11101,7 @@
         <v>0.7376167698621623</v>
       </c>
       <c r="D394">
-        <v>0.1487038587125689</v>
+        <v>0.5240659324751347</v>
       </c>
       <c r="E394">
         <v>0.4866778247534429</v>
@@ -11127,7 +11127,7 @@
         <v>0.8044304868469393</v>
       </c>
       <c r="D395">
-        <v>0.04326826483424517</v>
+        <v>0.5591096123231897</v>
       </c>
       <c r="E395">
         <v>0.4201690884112566</v>
@@ -11153,7 +11153,7 @@
         <v>0.8531745235734033</v>
       </c>
       <c r="D396">
-        <v>0.3322402250381075</v>
+        <v>0.5333293383203721</v>
       </c>
       <c r="E396">
         <v>0.3640610610598879</v>
@@ -11179,7 +11179,7 @@
         <v>0.9163621620072044</v>
       </c>
       <c r="D397">
-        <v>0.4918591245141076</v>
+        <v>0.6075672688272362</v>
       </c>
       <c r="E397">
         <v>0.2747735470700568</v>
@@ -11205,7 +11205,7 @@
         <v>0.9520162196850775</v>
       </c>
       <c r="D398">
-        <v>0.3121098203613808</v>
+        <v>0.4478446235300072</v>
       </c>
       <c r="E398">
         <v>0.2081233228762198</v>
@@ -11231,7 +11231,7 @@
         <v>0.9658950549476014</v>
       </c>
       <c r="D399">
-        <v>0.3540811383313789</v>
+        <v>0.4526457455087266</v>
       </c>
       <c r="E399">
         <v>0.1754616456274579</v>
@@ -11257,7 +11257,7 @@
         <v>0.9789338572405342</v>
       </c>
       <c r="D400">
-        <v>0.4448239639724381</v>
+        <v>0.4987389655587964</v>
       </c>
       <c r="E400">
         <v>0.1379005608932781</v>
@@ -11283,7 +11283,7 @@
         <v>0.987704617555008</v>
       </c>
       <c r="D401">
-        <v>0.3979180246195161</v>
+        <v>0.4458978326437514</v>
       </c>
       <c r="E401">
         <v>0.1053524263237434</v>
@@ -11309,7 +11309,7 @@
         <v>0.9908664116132236</v>
       </c>
       <c r="D402">
-        <v>0.4035746888784463</v>
+        <v>0.4661792909144863</v>
       </c>
       <c r="E402">
         <v>0.09080175426763537</v>
@@ -11335,7 +11335,7 @@
         <v>0.9913690627700185</v>
       </c>
       <c r="D403">
-        <v>0.4029572565774578</v>
+        <v>0.4753075501356343</v>
       </c>
       <c r="E403">
         <v>0.08826784022391587</v>
@@ -11361,7 +11361,7 @@
         <v>0.9914326438010913</v>
       </c>
       <c r="D404">
-        <v>0.4442882289859349</v>
+        <v>0.5083976845771685</v>
       </c>
       <c r="E404">
         <v>0.08794212042761623</v>
@@ -11387,7 +11387,7 @@
         <v>0.991455545819552</v>
       </c>
       <c r="D405">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E405">
         <v>0.08782449955381674</v>
@@ -11413,7 +11413,7 @@
         <v>0.9914659979805572</v>
       </c>
       <c r="D406">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E406">
         <v>0.0877707666477371</v>
@@ -11439,7 +11439,7 @@
         <v>0.9914698983622713</v>
       </c>
       <c r="D407">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E407">
         <v>0.08775070697250194</v>
@@ -11465,7 +11465,7 @@
         <v>0.9914714434188305</v>
       </c>
       <c r="D408">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E408">
         <v>0.08774275947368622</v>
@@ -11491,7 +11491,7 @@
         <v>0.9914717780052471</v>
       </c>
       <c r="D409">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E409">
         <v>0.08774103832526359</v>
@@ -11517,7 +11517,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D410">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E410">
         <v>0.0877404725287898</v>
@@ -11543,7 +11543,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D411">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E411">
         <v>0.0877404725287898</v>
@@ -11569,7 +11569,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D412">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E412">
         <v>0.0877404725287898</v>
@@ -11595,7 +11595,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D413">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E413">
         <v>0.0877404725287898</v>
@@ -11621,7 +11621,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D414">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E414">
         <v>0.0877404725287898</v>
@@ -11647,7 +11647,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D415">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E415">
         <v>0.0877404725287898</v>
@@ -11673,7 +11673,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D416">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E416">
         <v>0.0877404725287898</v>
@@ -11699,7 +11699,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D417">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E417">
         <v>0.0877404725287898</v>
@@ -11725,7 +11725,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D418">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E418">
         <v>0.0877404725287898</v>
@@ -11751,7 +11751,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D419">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E419">
         <v>0.0877404725287898</v>
@@ -11777,7 +11777,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D420">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E420">
         <v>0.0877404725287898</v>
@@ -11803,7 +11803,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D421">
-        <v>0.4470075789052649</v>
+        <v>0.5103650480851067</v>
       </c>
       <c r="E421">
         <v>0.0877404725287898</v>
@@ -11829,7 +11829,7 @@
         <v>0.7222346793454339</v>
       </c>
       <c r="D422">
-        <v>-0.06292726623387734</v>
+        <v>0.3192232518523591</v>
       </c>
       <c r="E422">
         <v>0.5007402852891334</v>
@@ -11855,7 +11855,7 @@
         <v>0.7995030253805435</v>
       </c>
       <c r="D423">
-        <v>-0.1627225263241439</v>
+        <v>0.4820124250156582</v>
       </c>
       <c r="E423">
         <v>0.4254293351326329</v>
@@ -11881,7 +11881,7 @@
         <v>0.8535934945538883</v>
       </c>
       <c r="D424">
-        <v>0.389119321130993</v>
+        <v>0.5608223552751352</v>
       </c>
       <c r="E424">
         <v>0.363541260300741</v>
@@ -11907,7 +11907,7 @@
         <v>0.8912633603405151</v>
       </c>
       <c r="D425">
-        <v>0.04315788922830532</v>
+        <v>0.04845602632795598</v>
       </c>
       <c r="E425">
         <v>0.3133007791783105</v>
@@ -11933,7 +11933,7 @@
         <v>0.9028804231840846</v>
       </c>
       <c r="D426">
-        <v>0.133960349624461</v>
+        <v>0.2893777265368388</v>
       </c>
       <c r="E426">
         <v>0.2960921624783613</v>
@@ -11959,7 +11959,7 @@
         <v>0.9229637211602798</v>
       </c>
       <c r="D427">
-        <v>0.5715134653997813</v>
+        <v>0.6799855960313617</v>
       </c>
       <c r="E427">
         <v>0.2637067032260399</v>
@@ -11985,7 +11985,7 @@
         <v>0.958121523136704</v>
       </c>
       <c r="D428">
-        <v>0.4837469041486766</v>
+        <v>0.6065492596713238</v>
       </c>
       <c r="E428">
         <v>0.1944325446441935</v>
@@ -12011,7 +12011,7 @@
         <v>0.9707970213019077</v>
       </c>
       <c r="D429">
-        <v>0.4065843741990102</v>
+        <v>0.5583131667655148</v>
       </c>
       <c r="E429">
         <v>0.1623630111192085</v>
@@ -12037,7 +12037,7 @@
         <v>0.9809572220609836</v>
       </c>
       <c r="D430">
-        <v>0.48426606674886</v>
+        <v>0.5868794990879527</v>
       </c>
       <c r="E430">
         <v>0.1311108619893761</v>
@@ -12063,7 +12063,7 @@
         <v>0.9888291531929698</v>
       </c>
       <c r="D431">
-        <v>0.3788616390923533</v>
+        <v>0.5072761080841219</v>
       </c>
       <c r="E431">
         <v>0.1004191565273512</v>
@@ -12089,7 +12089,7 @@
         <v>0.9902468966313184</v>
       </c>
       <c r="D432">
-        <v>0.4817442502480538</v>
+        <v>0.5862069712318594</v>
       </c>
       <c r="E432">
         <v>0.09383069533855497</v>
@@ -12115,7 +12115,7 @@
         <v>0.9907850068781772</v>
       </c>
       <c r="D433">
-        <v>0.3781897930966216</v>
+        <v>0.5073770994521504</v>
       </c>
       <c r="E433">
         <v>0.09120550006173335</v>
@@ -12141,7 +12141,7 @@
         <v>0.9912784518528454</v>
       </c>
       <c r="D434">
-        <v>0.494759621900835</v>
+        <v>0.5914043034912502</v>
       </c>
       <c r="E434">
         <v>0.08872996546103107</v>
@@ -12167,7 +12167,7 @@
         <v>0.9914072742185556</v>
       </c>
       <c r="D435">
-        <v>0.3857886374423651</v>
+        <v>0.5117875807277887</v>
       </c>
       <c r="E435">
         <v>0.08807223090898826</v>
@@ -12193,7 +12193,7 @@
         <v>0.991453239835187</v>
       </c>
       <c r="D436">
-        <v>0.4712446932380913</v>
+        <v>0.5769255568119303</v>
       </c>
       <c r="E436">
         <v>0.08783634982863864</v>
@@ -12219,7 +12219,7 @@
         <v>0.9914698983622713</v>
       </c>
       <c r="D437">
-        <v>0.3793524757871486</v>
+        <v>0.5071860150886731</v>
       </c>
       <c r="E437">
         <v>0.08775070697250194</v>
@@ -12245,7 +12245,7 @@
         <v>0.9914714434188305</v>
       </c>
       <c r="D438">
-        <v>0.402972408968004</v>
+        <v>0.5188512144497499</v>
       </c>
       <c r="E438">
         <v>0.08774275947368622</v>
@@ -12271,7 +12271,7 @@
         <v>0.9914717780052471</v>
       </c>
       <c r="D439">
-        <v>0.4915693737672796</v>
+        <v>0.5859403585125333</v>
       </c>
       <c r="E439">
         <v>0.08774103832526359</v>
@@ -12297,7 +12297,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D440">
-        <v>0.3799919026178938</v>
+        <v>0.5072254490476416</v>
       </c>
       <c r="E440">
         <v>0.0877404725287898</v>
@@ -12323,7 +12323,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D441">
-        <v>0.3799919026178938</v>
+        <v>0.5072254490476416</v>
       </c>
       <c r="E441">
         <v>0.0877404725287898</v>
@@ -12349,7 +12349,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D442">
-        <v>0.3799919026178938</v>
+        <v>0.5072254490476416</v>
       </c>
       <c r="E442">
         <v>0.0877404725287898</v>
@@ -12375,7 +12375,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D443">
-        <v>0.3799919026178938</v>
+        <v>0.5072254490476416</v>
       </c>
       <c r="E443">
         <v>0.0877404725287898</v>
@@ -12401,7 +12401,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D444">
-        <v>0.3799919026178938</v>
+        <v>0.5072254490476416</v>
       </c>
       <c r="E444">
         <v>0.0877404725287898</v>
@@ -12427,7 +12427,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D445">
-        <v>0.3799919026178938</v>
+        <v>0.5072254490476416</v>
       </c>
       <c r="E445">
         <v>0.0877404725287898</v>
@@ -12453,7 +12453,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D446">
-        <v>0.3799919026178938</v>
+        <v>0.5072254490476416</v>
       </c>
       <c r="E446">
         <v>0.0877404725287898</v>
@@ -12479,7 +12479,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D447">
-        <v>0.3799919026178938</v>
+        <v>0.5072254490476416</v>
       </c>
       <c r="E447">
         <v>0.0877404725287898</v>
@@ -12505,7 +12505,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D448">
-        <v>0.3799919026178938</v>
+        <v>0.5072254490476416</v>
       </c>
       <c r="E448">
         <v>0.0877404725287898</v>
@@ -12531,7 +12531,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D449">
-        <v>0.3799919026178938</v>
+        <v>0.5072254490476416</v>
       </c>
       <c r="E449">
         <v>0.0877404725287898</v>
@@ -12557,7 +12557,7 @@
         <v>0.654320415165092</v>
       </c>
       <c r="D450">
-        <v>-0.1311605976652359</v>
+        <v>0.3338558265698748</v>
       </c>
       <c r="E450">
         <v>0.5586121621930829</v>
@@ -12583,7 +12583,7 @@
         <v>0.7606433573584355</v>
       </c>
       <c r="D451">
-        <v>0.03380453843563314</v>
+        <v>0.2359127749369652</v>
       </c>
       <c r="E451">
         <v>0.4648322625198006</v>
@@ -12609,7 +12609,7 @@
         <v>0.8145790847768581</v>
       </c>
       <c r="D452">
-        <v>-0.004765246806553547</v>
+        <v>0.1768759607919103</v>
       </c>
       <c r="E452">
         <v>0.4091220448337449</v>
@@ -12635,7 +12635,7 @@
         <v>0.8558052795733999</v>
       </c>
       <c r="D453">
-        <v>0.2788644058348384</v>
+        <v>0.4440717405742054</v>
       </c>
       <c r="E453">
         <v>0.3607847738672397</v>
@@ -12661,7 +12661,7 @@
         <v>0.8875060972885793</v>
       </c>
       <c r="D454">
-        <v>0.3289249981299474</v>
+        <v>0.3096053191650929</v>
       </c>
       <c r="E454">
         <v>0.3186676759637476</v>
@@ -12687,7 +12687,7 @@
         <v>0.9209049390626498</v>
       </c>
       <c r="D455">
-        <v>0.438270111875267</v>
+        <v>0.3873001466809739</v>
       </c>
       <c r="E455">
         <v>0.2672072291884108</v>
@@ -12713,7 +12713,7 @@
         <v>0.9436068875796026</v>
       </c>
       <c r="D456">
-        <v>0.3015663242816142</v>
+        <v>0.2118521030878757</v>
       </c>
       <c r="E456">
         <v>0.2256246541023373</v>
@@ -12739,7 +12739,7 @@
         <v>0.9781867876314988</v>
       </c>
       <c r="D457">
-        <v>0.3354828017403136</v>
+        <v>0.2136552391498999</v>
       </c>
       <c r="E457">
         <v>0.1403244455561642</v>
@@ -12765,7 +12765,7 @@
         <v>0.9870886235272588</v>
       </c>
       <c r="D458">
-        <v>0.2732569167466381</v>
+        <v>0.1792534128656169</v>
       </c>
       <c r="E458">
         <v>0.1079592337425318</v>
@@ -12791,7 +12791,7 @@
         <v>0.9892540189675332</v>
       </c>
       <c r="D459">
-        <v>0.3169247478785848</v>
+        <v>0.1737700585678624</v>
       </c>
       <c r="E459">
         <v>0.09849100204558014</v>
@@ -12817,7 +12817,7 @@
         <v>0.9909893639806445</v>
       </c>
       <c r="D460">
-        <v>0.343841169556231</v>
+        <v>0.1952979925657357</v>
       </c>
       <c r="E460">
         <v>0.09018851676365496</v>
@@ -12843,7 +12843,7 @@
         <v>0.9914283055243471</v>
       </c>
       <c r="D461">
-        <v>0.2964896733216866</v>
+        <v>0.201061114688076</v>
       </c>
       <c r="E461">
         <v>0.08796438336158062</v>
@@ -12869,7 +12869,7 @@
         <v>0.9914626822497673</v>
       </c>
       <c r="D462">
-        <v>0.3119762829515512</v>
+        <v>0.175071277882722</v>
       </c>
       <c r="E462">
         <v>0.08778781585690132</v>
@@ -12895,7 +12895,7 @@
         <v>0.9914714434228505</v>
       </c>
       <c r="D463">
-        <v>0.2695630247757882</v>
+        <v>0.1779042967968136</v>
       </c>
       <c r="E463">
         <v>0.08774275945300682</v>
@@ -12921,7 +12921,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D464">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E464">
         <v>0.0877404725287898</v>
@@ -12947,7 +12947,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D465">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E465">
         <v>0.0877404725287898</v>
@@ -12973,7 +12973,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D466">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E466">
         <v>0.0877404725287898</v>
@@ -12999,7 +12999,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D467">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E467">
         <v>0.0877404725287898</v>
@@ -13025,7 +13025,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D468">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E468">
         <v>0.0877404725287898</v>
@@ -13051,7 +13051,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D469">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E469">
         <v>0.0877404725287898</v>
@@ -13077,7 +13077,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D470">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E470">
         <v>0.0877404725287898</v>
@@ -13103,7 +13103,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D471">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E471">
         <v>0.0877404725287898</v>
@@ -13129,7 +13129,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D472">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E472">
         <v>0.0877404725287898</v>
@@ -13155,7 +13155,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D473">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E473">
         <v>0.0877404725287898</v>
@@ -13181,7 +13181,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D474">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E474">
         <v>0.0877404725287898</v>
@@ -13207,7 +13207,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D475">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E475">
         <v>0.0877404725287898</v>
@@ -13233,7 +13233,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D476">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E476">
         <v>0.0877404725287898</v>
@@ -13259,7 +13259,7 @@
         <v>0.9914718879930582</v>
       </c>
       <c r="D477">
-        <v>0.3127295331486316</v>
+        <v>0.1730616769207021</v>
       </c>
       <c r="E477">
         <v>0.0877404725287898</v>
@@ -13285,7 +13285,7 @@
         <v>0.6420104541867701</v>
       </c>
       <c r="D478">
-        <v>-0.6566703411957193</v>
+        <v>0.08047404701567107</v>
       </c>
       <c r="E478">
         <v>0.5684714958847547</v>
@@ -13311,7 +13311,7 @@
         <v>0.7476809275978507</v>
       </c>
       <c r="D479">
-        <v>-0.8638106006797321</v>
+        <v>0.2885085446536133</v>
       </c>
       <c r="E479">
         <v>0.4772528832961515</v>
@@ -13337,7 +13337,7 @@
         <v>0.836842140270053</v>
       </c>
       <c r="D480">
-        <v>-0.432806235459249</v>
+        <v>0.1420537172065941</v>
       </c>
       <c r="E480">
         <v>0.383775742841733</v>
@@ -13363,7 +13363,7 @@
         <v>0.885567607231033</v>
       </c>
       <c r="D481">
-        <v>-0.1987510405410506</v>
+        <v>0.08565969682925101</v>
       </c>
       <c r="E481">
         <v>0.3214015824224863</v>
@@ -13389,7 +13389,7 @@
         <v>0.9124132496721611</v>
       </c>
       <c r="D482">
-        <v>-0.3131894919075497</v>
+        <v>-0.03526527535129098</v>
       </c>
       <c r="E482">
         <v>0.2811853745871604</v>
@@ -13415,7 +13415,7 @@
         <v>0.9550058645820028</v>
       </c>
       <c r="D483">
-        <v>-0.2274499651686905</v>
+        <v>0.009955307715359463</v>
       </c>
       <c r="E483">
         <v>0.2015354626531233</v>
@@ -13441,7 +13441,7 @@
         <v>0.9657015687120921</v>
       </c>
       <c r="D484">
-        <v>-0.1597033512682546</v>
+        <v>-0.03604687534113737</v>
       </c>
       <c r="E484">
         <v>0.175958661505579</v>
@@ -13467,7 +13467,7 @@
         <v>0.9751948652416256</v>
       </c>
       <c r="D485">
-        <v>-0.1551901202596078</v>
+        <v>-0.02626538344799512</v>
       </c>
       <c r="E485">
         <v>0.1496388343606063</v>
@@ -13493,7 +13493,7 @@
         <v>0.9756377351624916</v>
       </c>
       <c r="D486">
-        <v>-0.3094625250787333</v>
+        <v>-0.1494658274777934</v>
       </c>
       <c r="E486">
         <v>0.1482969951060935</v>
@@ -13519,7 +13519,7 @@
         <v>0.9759894063857331</v>
       </c>
       <c r="D487">
-        <v>-0.3907063890155456</v>
+        <v>-0.09277655765407022</v>
       </c>
       <c r="E487">
         <v>0.1472227649275928</v>
@@ -13545,7 +13545,7 @@
         <v>0.9761785230120321</v>
       </c>
       <c r="D488">
-        <v>-0.2704293265041422</v>
+        <v>0.001733653397017143</v>
       </c>
       <c r="E488">
         <v>0.1466418273185218</v>
@@ -13571,7 +13571,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D489">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E489">
         <v>0.1466157356049815</v>
@@ -13597,7 +13597,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D490">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E490">
         <v>0.1466157356049815</v>
@@ -13623,7 +13623,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D491">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E491">
         <v>0.1466157356049815</v>
@@ -13649,7 +13649,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D492">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E492">
         <v>0.1466157356049815</v>
@@ -13675,7 +13675,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D493">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E493">
         <v>0.1466157356049815</v>
@@ -13701,7 +13701,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D494">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E494">
         <v>0.1466157356049815</v>
@@ -13727,7 +13727,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D495">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E495">
         <v>0.1466157356049815</v>
@@ -13753,7 +13753,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D496">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E496">
         <v>0.1466157356049815</v>
@@ -13779,7 +13779,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D497">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E497">
         <v>0.1466157356049815</v>
@@ -13805,7 +13805,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D498">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E498">
         <v>0.1466157356049815</v>
@@ -13831,7 +13831,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D499">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E499">
         <v>0.1466157356049815</v>
@@ -13857,7 +13857,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D500">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E500">
         <v>0.1466157356049815</v>
@@ -13883,7 +13883,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D501">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E501">
         <v>0.1466157356049815</v>
@@ -13909,7 +13909,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D502">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E502">
         <v>0.1466157356049815</v>
@@ -13935,7 +13935,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D503">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E503">
         <v>0.1466157356049815</v>
@@ -13961,7 +13961,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D504">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E504">
         <v>0.1466157356049815</v>
@@ -13987,7 +13987,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D505">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E505">
         <v>0.1466157356049815</v>
@@ -14013,7 +14013,7 @@
         <v>0.6420104541867701</v>
       </c>
       <c r="D506">
-        <v>-0.6566703411957193</v>
+        <v>0.08047404701567107</v>
       </c>
       <c r="E506">
         <v>0.5684714958847547</v>
@@ -14039,7 +14039,7 @@
         <v>0.7476809275978507</v>
       </c>
       <c r="D507">
-        <v>-0.8638106006797321</v>
+        <v>0.2885085446536133</v>
       </c>
       <c r="E507">
         <v>0.4772528832961515</v>
@@ -14065,7 +14065,7 @@
         <v>0.836842140270053</v>
       </c>
       <c r="D508">
-        <v>-0.432806235459249</v>
+        <v>0.1420537172065941</v>
       </c>
       <c r="E508">
         <v>0.383775742841733</v>
@@ -14091,7 +14091,7 @@
         <v>0.885567607231033</v>
       </c>
       <c r="D509">
-        <v>-0.1987510405410506</v>
+        <v>0.08565969682925101</v>
       </c>
       <c r="E509">
         <v>0.3214015824224863</v>
@@ -14117,7 +14117,7 @@
         <v>0.9124132496721611</v>
       </c>
       <c r="D510">
-        <v>-0.3131894919075497</v>
+        <v>-0.03526527535129098</v>
       </c>
       <c r="E510">
         <v>0.2811853745871604</v>
@@ -14143,7 +14143,7 @@
         <v>0.9550058645820028</v>
       </c>
       <c r="D511">
-        <v>-0.2274499651686905</v>
+        <v>0.009955307715359463</v>
       </c>
       <c r="E511">
         <v>0.2015354626531233</v>
@@ -14169,7 +14169,7 @@
         <v>0.9657015687120921</v>
       </c>
       <c r="D512">
-        <v>-0.1597033512682546</v>
+        <v>-0.03604687534113737</v>
       </c>
       <c r="E512">
         <v>0.175958661505579</v>
@@ -14195,7 +14195,7 @@
         <v>0.9751948652416256</v>
       </c>
       <c r="D513">
-        <v>-0.1551901202596078</v>
+        <v>-0.02626538344799512</v>
       </c>
       <c r="E513">
         <v>0.1496388343606063</v>
@@ -14221,7 +14221,7 @@
         <v>0.9756377351624916</v>
       </c>
       <c r="D514">
-        <v>-0.3094625250787333</v>
+        <v>-0.1494658274777934</v>
       </c>
       <c r="E514">
         <v>0.1482969951060935</v>
@@ -14247,7 +14247,7 @@
         <v>0.9759894063857331</v>
       </c>
       <c r="D515">
-        <v>-0.3907063890155456</v>
+        <v>-0.09277655765407022</v>
       </c>
       <c r="E515">
         <v>0.1472227649275928</v>
@@ -14273,7 +14273,7 @@
         <v>0.9761785230120321</v>
       </c>
       <c r="D516">
-        <v>-0.2704293265041422</v>
+        <v>0.001733653397017143</v>
       </c>
       <c r="E516">
         <v>0.1466418273185218</v>
@@ -14299,7 +14299,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D517">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E517">
         <v>0.1466157356049815</v>
@@ -14325,7 +14325,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D518">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E518">
         <v>0.1466157356049815</v>
@@ -14351,7 +14351,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D519">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E519">
         <v>0.1466157356049815</v>
@@ -14377,7 +14377,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D520">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E520">
         <v>0.1466157356049815</v>
@@ -14403,7 +14403,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D521">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E521">
         <v>0.1466157356049815</v>
@@ -14429,7 +14429,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D522">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E522">
         <v>0.1466157356049815</v>
@@ -14455,7 +14455,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D523">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E523">
         <v>0.1466157356049815</v>
@@ -14481,7 +14481,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D524">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E524">
         <v>0.1466157356049815</v>
@@ -14507,7 +14507,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D525">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E525">
         <v>0.1466157356049815</v>
@@ -14533,7 +14533,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D526">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E526">
         <v>0.1466157356049815</v>
@@ -14559,7 +14559,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D527">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E527">
         <v>0.1466157356049815</v>
@@ -14585,7 +14585,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D528">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E528">
         <v>0.1466157356049815</v>
@@ -14611,7 +14611,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D529">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E529">
         <v>0.1466157356049815</v>
@@ -14637,7 +14637,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D530">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E530">
         <v>0.1466157356049815</v>
@@ -14663,7 +14663,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D531">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E531">
         <v>0.1466157356049815</v>
@@ -14689,7 +14689,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D532">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E532">
         <v>0.1466157356049815</v>
@@ -14715,7 +14715,7 @@
         <v>0.9761869992820026</v>
       </c>
       <c r="D533">
-        <v>-0.1950717467774126</v>
+        <v>0.02253318398821869</v>
       </c>
       <c r="E533">
         <v>0.1466157356049815</v>
@@ -14777,7 +14777,7 @@
         <v>0.8181683001314374</v>
       </c>
       <c r="D2">
-        <v>0.4764479807552989</v>
+        <v>0.5815972453065591</v>
       </c>
       <c r="E2">
         <v>0.4051429821832684</v>
@@ -14803,7 +14803,7 @@
         <v>0.8805660748035533</v>
       </c>
       <c r="D3">
-        <v>0.5238620301882468</v>
+        <v>0.6371718434730933</v>
       </c>
       <c r="E3">
         <v>0.3283502671378942</v>
@@ -14829,7 +14829,7 @@
         <v>0.8942303180736062</v>
       </c>
       <c r="D4">
-        <v>0.3588487637136561</v>
+        <v>0.4778014341428974</v>
       </c>
       <c r="E4">
         <v>0.3089968985087935</v>
@@ -14855,7 +14855,7 @@
         <v>0.9024852771695395</v>
       </c>
       <c r="D5">
-        <v>0.4137525958703997</v>
+        <v>0.5345459347604808</v>
       </c>
       <c r="E5">
         <v>0.2966938994065942</v>
@@ -14881,7 +14881,7 @@
         <v>0.9059831393050977</v>
       </c>
       <c r="D6">
-        <v>0.2702630131220007</v>
+        <v>0.4576753281134672</v>
       </c>
       <c r="E6">
         <v>0.2913240869252853</v>
@@ -14907,7 +14907,7 @@
         <v>0.9092652208773935</v>
       </c>
       <c r="D7">
-        <v>0.3420652419268774</v>
+        <v>0.5437267083225719</v>
       </c>
       <c r="E7">
         <v>0.2861939273108874</v>
@@ -14933,7 +14933,7 @@
         <v>0.916830528738996</v>
       </c>
       <c r="D8">
-        <v>0.2804556480520318</v>
+        <v>0.5251567514081975</v>
       </c>
       <c r="E8">
         <v>0.2740031095008892</v>
@@ -14959,7 +14959,7 @@
         <v>0.9205721753130565</v>
       </c>
       <c r="D9">
-        <v>0.2639098073445676</v>
+        <v>0.501596289866481</v>
       </c>
       <c r="E9">
         <v>0.2677687279298755</v>
@@ -14985,7 +14985,7 @@
         <v>0.9211287904179299</v>
       </c>
       <c r="D10">
-        <v>0.2467948959676988</v>
+        <v>0.5177587637487151</v>
       </c>
       <c r="E10">
         <v>0.2668288422138561</v>
@@ -15011,7 +15011,7 @@
         <v>0.9259657833862457</v>
       </c>
       <c r="D11">
-        <v>0.2805116658761058</v>
+        <v>0.5374491493066167</v>
       </c>
       <c r="E11">
         <v>0.2585173906960212</v>
@@ -15037,7 +15037,7 @@
         <v>0.9284019567064893</v>
       </c>
       <c r="D12">
-        <v>0.2954819680225189</v>
+        <v>0.5466660069678442</v>
       </c>
       <c r="E12">
         <v>0.2542284197481181</v>
@@ -15063,7 +15063,7 @@
         <v>0.9295399057521471</v>
       </c>
       <c r="D13">
-        <v>0.2480306672786057</v>
+        <v>0.5115615466796093</v>
       </c>
       <c r="E13">
         <v>0.2522000283296936</v>
@@ -15089,7 +15089,7 @@
         <v>0.930907135030392</v>
       </c>
       <c r="D14">
-        <v>0.2213397206510572</v>
+        <v>0.4954467729169496</v>
       </c>
       <c r="E14">
         <v>0.2497411583817212</v>
@@ -15115,7 +15115,7 @@
         <v>0.9356193164671123</v>
       </c>
       <c r="D15">
-        <v>0.2523773134041754</v>
+        <v>0.522475851088698</v>
       </c>
       <c r="E15">
         <v>0.2410745211514476</v>
@@ -15141,7 +15141,7 @@
         <v>0.9389656074597671</v>
       </c>
       <c r="D16">
-        <v>0.2294140832416723</v>
+        <v>0.5345689337196935</v>
       </c>
       <c r="E16">
         <v>0.2347258035048092</v>
@@ -15167,7 +15167,7 @@
         <v>0.9400613821982624</v>
       </c>
       <c r="D17">
-        <v>0.2188002120122944</v>
+        <v>0.5231171995286338</v>
       </c>
       <c r="E17">
         <v>0.2326091975298755</v>
@@ -15193,7 +15193,7 @@
         <v>0.9402421336213563</v>
       </c>
       <c r="D18">
-        <v>0.1783657735853206</v>
+        <v>0.483057616317347</v>
       </c>
       <c r="E18">
         <v>0.2322582035438314</v>
@@ -15219,7 +15219,7 @@
         <v>0.9427329810523029</v>
       </c>
       <c r="D19">
-        <v>0.2154196279322229</v>
+        <v>0.5073599153399995</v>
       </c>
       <c r="E19">
         <v>0.2273661507347298</v>
@@ -15245,7 +15245,7 @@
         <v>0.9417574554075233</v>
       </c>
       <c r="D20">
-        <v>0.2284262458012156</v>
+        <v>0.5054079277058241</v>
       </c>
       <c r="E20">
         <v>0.2292945284972192</v>
@@ -15271,7 +15271,7 @@
         <v>0.8233755825182935</v>
       </c>
       <c r="D21">
-        <v>0.04592196004986193</v>
+        <v>0.3291231156764775</v>
       </c>
       <c r="E21">
         <v>0.3992996158759329</v>
@@ -15297,7 +15297,7 @@
         <v>0.8943711039695316</v>
       </c>
       <c r="D22">
-        <v>0.2030430950514938</v>
+        <v>0.4876651357763294</v>
       </c>
       <c r="E22">
         <v>0.3087911831746215</v>
@@ -15323,7 +15323,7 @@
         <v>0.9035954683879948</v>
       </c>
       <c r="D23">
-        <v>0.08370680309487832</v>
+        <v>0.3184801403895356</v>
       </c>
       <c r="E23">
         <v>0.2950001559750005</v>
@@ -15349,7 +15349,7 @@
         <v>0.905874579878749</v>
       </c>
       <c r="D24">
-        <v>0.2111993742971016</v>
+        <v>0.4211597674139074</v>
       </c>
       <c r="E24">
         <v>0.2914922315076394</v>
@@ -15375,7 +15375,7 @@
         <v>0.9123917445245804</v>
       </c>
       <c r="D25">
-        <v>0.2860898207344693</v>
+        <v>0.4963418306974666</v>
       </c>
       <c r="E25">
         <v>0.2812198921473255</v>
@@ -15401,7 +15401,7 @@
         <v>0.9147423106378125</v>
       </c>
       <c r="D26">
-        <v>0.3548262864084456</v>
+        <v>0.5889397528966855</v>
       </c>
       <c r="E26">
         <v>0.2774216179770742</v>
@@ -15427,7 +15427,7 @@
         <v>0.9225619702881199</v>
       </c>
       <c r="D27">
-        <v>0.3444740326724015</v>
+        <v>0.5964630456857402</v>
       </c>
       <c r="E27">
         <v>0.2643934357065504</v>
@@ -15453,7 +15453,7 @@
         <v>0.9208975589005794</v>
       </c>
       <c r="D28">
-        <v>0.3061255432251794</v>
+        <v>0.5544372185984858</v>
       </c>
       <c r="E28">
         <v>0.2672196951163412</v>
@@ -15479,7 +15479,7 @@
         <v>0.9233618404184941</v>
       </c>
       <c r="D29">
-        <v>0.2699059934862474</v>
+        <v>0.5134635783880159</v>
       </c>
       <c r="E29">
         <v>0.2630244096905484</v>
@@ -15505,7 +15505,7 @@
         <v>0.9261530438537782</v>
       </c>
       <c r="D30">
-        <v>0.2677946176354603</v>
+        <v>0.5059182460836714</v>
       </c>
       <c r="E30">
         <v>0.2581902396820536</v>
@@ -15531,7 +15531,7 @@
         <v>0.9291553556742296</v>
       </c>
       <c r="D31">
-        <v>0.2990402561746139</v>
+        <v>0.5285174984674401</v>
       </c>
       <c r="E31">
         <v>0.2528873079500022</v>
@@ -15557,7 +15557,7 @@
         <v>0.9297362667128269</v>
       </c>
       <c r="D32">
-        <v>0.3307808116874862</v>
+        <v>0.5497259805199082</v>
       </c>
       <c r="E32">
         <v>0.2518483626729336</v>
@@ -15583,7 +15583,7 @@
         <v>0.9295668230216896</v>
       </c>
       <c r="D33">
-        <v>0.3326822034199777</v>
+        <v>0.5469442379195749</v>
       </c>
       <c r="E33">
         <v>0.2521518508139013</v>
@@ -15609,7 +15609,7 @@
         <v>0.9340420968609267</v>
       </c>
       <c r="D34">
-        <v>0.3541598357893234</v>
+        <v>0.5625419114227576</v>
       </c>
       <c r="E34">
         <v>0.2440096159751123</v>
@@ -15635,7 +15635,7 @@
         <v>0.9374743589241633</v>
       </c>
       <c r="D35">
-        <v>0.3428501131964403</v>
+        <v>0.5747458162741588</v>
       </c>
       <c r="E35">
         <v>0.2375760173969893</v>
@@ -15661,7 +15661,7 @@
         <v>0.9401716443742121</v>
       </c>
       <c r="D36">
-        <v>0.3437323672814493</v>
+        <v>0.5737239847063278</v>
       </c>
       <c r="E36">
         <v>0.2323951468603315</v>
@@ -15687,7 +15687,7 @@
         <v>0.9401785204834452</v>
       </c>
       <c r="D37">
-        <v>0.2963211674025101</v>
+        <v>0.5317650177251178</v>
       </c>
       <c r="E37">
         <v>0.2323817918189383</v>
@@ -15713,7 +15713,7 @@
         <v>0.9420634031441288</v>
       </c>
       <c r="D38">
-        <v>0.3158829490561438</v>
+        <v>0.5396061577878524</v>
       </c>
       <c r="E38">
         <v>0.228691494130628</v>
@@ -15739,7 +15739,7 @@
         <v>0.9420403236822267</v>
       </c>
       <c r="D39">
-        <v>0.3161705878170179</v>
+        <v>0.5398472234995372</v>
       </c>
       <c r="E39">
         <v>0.2287370400495913</v>
@@ -15765,7 +15765,7 @@
         <v>0.8852778953493222</v>
       </c>
       <c r="D40">
-        <v>0.3619987907698543</v>
+        <v>0.3942183594160324</v>
       </c>
       <c r="E40">
         <v>0.3218081761966969</v>
@@ -15791,7 +15791,7 @@
         <v>0.9090747852780591</v>
       </c>
       <c r="D41">
-        <v>0.4009859770394734</v>
+        <v>0.4661746376356649</v>
       </c>
       <c r="E41">
         <v>0.2864941040755773</v>
@@ -15817,7 +15817,7 @@
         <v>0.893483227798066</v>
       </c>
       <c r="D42">
-        <v>0.3831627382104729</v>
+        <v>0.4720515425479107</v>
       </c>
       <c r="E42">
         <v>0.3100862577893872</v>
@@ -15843,7 +15843,7 @@
         <v>0.89504882814425</v>
       </c>
       <c r="D43">
-        <v>0.3847390682683826</v>
+        <v>0.5354810674599311</v>
       </c>
       <c r="E43">
         <v>0.3077989735571708</v>
@@ -15869,7 +15869,7 @@
         <v>0.9003096135214068</v>
       </c>
       <c r="D44">
-        <v>0.295644787408006</v>
+        <v>0.5007813490332792</v>
       </c>
       <c r="E44">
         <v>0.2999854293119701</v>
@@ -15895,7 +15895,7 @@
         <v>0.9021708499980724</v>
       </c>
       <c r="D45">
-        <v>0.3913424803900685</v>
+        <v>0.5661949947153431</v>
       </c>
       <c r="E45">
         <v>0.2971718454117911</v>
@@ -15921,7 +15921,7 @@
         <v>0.9113657580851076</v>
       </c>
       <c r="D46">
-        <v>0.3699802962423571</v>
+        <v>0.5814556423238608</v>
       </c>
       <c r="E46">
         <v>0.2828617920029606</v>
@@ -15947,7 +15947,7 @@
         <v>0.9139630278242189</v>
       </c>
       <c r="D47">
-        <v>0.3339570830605668</v>
+        <v>0.5598630987769686</v>
       </c>
       <c r="E47">
         <v>0.2786865955652861</v>
@@ -15973,7 +15973,7 @@
         <v>0.9187206929969658</v>
       </c>
       <c r="D48">
-        <v>0.2350581930807449</v>
+        <v>0.5118196793710528</v>
       </c>
       <c r="E48">
         <v>0.2708716275239724</v>
@@ -15999,7 +15999,7 @@
         <v>0.9232290961218044</v>
       </c>
       <c r="D49">
-        <v>0.2453745305813941</v>
+        <v>0.5247992076962247</v>
       </c>
       <c r="E49">
         <v>0.2632521022953695</v>
@@ -16025,7 +16025,7 @@
         <v>0.9255302190462398</v>
       </c>
       <c r="D50">
-        <v>0.272711062258716</v>
+        <v>0.5340214995415624</v>
       </c>
       <c r="E50">
         <v>0.2592767411108785</v>
@@ -16051,7 +16051,7 @@
         <v>0.9271775398287626</v>
       </c>
       <c r="D51">
-        <v>0.2424870165497598</v>
+        <v>0.5102935406835205</v>
       </c>
       <c r="E51">
         <v>0.2563930180109231</v>
@@ -16077,7 +16077,7 @@
         <v>0.9282697529711386</v>
       </c>
       <c r="D52">
-        <v>0.2602559982064588</v>
+        <v>0.5271145890645232</v>
       </c>
       <c r="E52">
         <v>0.2544630242466088</v>
@@ -16103,7 +16103,7 @@
         <v>0.9333302172736528</v>
       </c>
       <c r="D53">
-        <v>0.3042819351373222</v>
+        <v>0.5534957916315149</v>
       </c>
       <c r="E53">
         <v>0.2453228723913352</v>
@@ -16129,7 +16129,7 @@
         <v>0.9371197389826671</v>
       </c>
       <c r="D54">
-        <v>0.2917901749383571</v>
+        <v>0.563924250009746</v>
       </c>
       <c r="E54">
         <v>0.2382487819839132</v>
@@ -16155,7 +16155,7 @@
         <v>0.9390888122339004</v>
       </c>
       <c r="D55">
-        <v>0.3046467927044482</v>
+        <v>0.5615122289863785</v>
       </c>
       <c r="E55">
         <v>0.2344887736321261</v>
@@ -16181,7 +16181,7 @@
         <v>0.9372196909846672</v>
       </c>
       <c r="D56">
-        <v>0.2820204171245773</v>
+        <v>0.5330847400370704</v>
       </c>
       <c r="E56">
         <v>0.2380593512062274</v>
@@ -16207,7 +16207,7 @@
         <v>0.9388089125793627</v>
       </c>
       <c r="D57">
-        <v>0.3101838845274781</v>
+        <v>0.5534870849899488</v>
       </c>
       <c r="E57">
         <v>0.2350269186114139</v>
@@ -16233,7 +16233,7 @@
         <v>0.9380906437690217</v>
       </c>
       <c r="D58">
-        <v>0.3332735853455669</v>
+        <v>0.5619806030401766</v>
       </c>
       <c r="E58">
         <v>0.2364022823524749</v>
@@ -16259,7 +16259,7 @@
         <v>0.8757753044289076</v>
       </c>
       <c r="D59">
-        <v>0.2655220566219452</v>
+        <v>0.3900911308253601</v>
       </c>
       <c r="E59">
         <v>0.3348709634967943</v>
@@ -16285,7 +16285,7 @@
         <v>0.9168888430861084</v>
       </c>
       <c r="D60">
-        <v>0.2264815004277332</v>
+        <v>0.4492355628499735</v>
       </c>
       <c r="E60">
         <v>0.2739070338977907</v>
@@ -16311,7 +16311,7 @@
         <v>0.9122150171904064</v>
       </c>
       <c r="D61">
-        <v>0.2570151132815757</v>
+        <v>0.4571608483525291</v>
       </c>
       <c r="E61">
         <v>0.2815033939871066</v>
@@ -16337,7 +16337,7 @@
         <v>0.915043868855576</v>
       </c>
       <c r="D62">
-        <v>0.3133924841943017</v>
+        <v>0.486193184831921</v>
       </c>
       <c r="E62">
         <v>0.2769305603602782</v>
@@ -16363,7 +16363,7 @@
         <v>0.9200555420314582</v>
       </c>
       <c r="D63">
-        <v>0.3950217875948137</v>
+        <v>0.5491814175623263</v>
       </c>
       <c r="E63">
         <v>0.2686381588422411</v>
@@ -16389,7 +16389,7 @@
         <v>0.9149538841116331</v>
       </c>
       <c r="D64">
-        <v>0.4435198288007797</v>
+        <v>0.5941438615245314</v>
       </c>
       <c r="E64">
         <v>0.2770771826822238</v>
@@ -16415,7 +16415,7 @@
         <v>0.9255786106735798</v>
       </c>
       <c r="D65">
-        <v>0.3525520983799626</v>
+        <v>0.5740080787670541</v>
       </c>
       <c r="E65">
         <v>0.2591924863822084</v>
@@ -16441,7 +16441,7 @@
         <v>0.926511475761898</v>
       </c>
       <c r="D66">
-        <v>0.3594005744575283</v>
+        <v>0.5733086777701012</v>
       </c>
       <c r="E66">
         <v>0.25756288688722</v>
@@ -16467,7 +16467,7 @@
         <v>0.9309168280448009</v>
       </c>
       <c r="D67">
-        <v>0.3436842138788201</v>
+        <v>0.5714547416834468</v>
       </c>
       <c r="E67">
         <v>0.2497236397164069</v>
@@ -16493,7 +16493,7 @@
         <v>0.9311446023449538</v>
       </c>
       <c r="D68">
-        <v>0.3629854912891112</v>
+        <v>0.5821945646088383</v>
       </c>
       <c r="E68">
         <v>0.2493116175956489</v>
@@ -16519,7 +16519,7 @@
         <v>0.9337943174471911</v>
       </c>
       <c r="D69">
-        <v>0.3874222991769829</v>
+        <v>0.6006545728133008</v>
       </c>
       <c r="E69">
         <v>0.244467513218199</v>
@@ -16545,7 +16545,7 @@
         <v>0.933146406035583</v>
       </c>
       <c r="D70">
-        <v>0.3213927922336991</v>
+        <v>0.5511683268260185</v>
       </c>
       <c r="E70">
         <v>0.2456608220663071</v>
@@ -16571,7 +16571,7 @@
         <v>0.9323221793074407</v>
       </c>
       <c r="D71">
-        <v>0.300568883362313</v>
+        <v>0.5314824406902298</v>
       </c>
       <c r="E71">
         <v>0.2471705385619364</v>
@@ -16597,7 +16597,7 @@
         <v>0.9366576845012883</v>
       </c>
       <c r="D72">
-        <v>0.3217450275190475</v>
+        <v>0.5480691157874025</v>
       </c>
       <c r="E72">
         <v>0.2391225254016112</v>
@@ -16623,7 +16623,7 @@
         <v>0.9406731642863049</v>
       </c>
       <c r="D73">
-        <v>0.3274844555944609</v>
+        <v>0.5615673260311046</v>
       </c>
       <c r="E73">
         <v>0.2314190538979164</v>
@@ -16649,7 +16649,7 @@
         <v>0.9422564050341219</v>
       </c>
       <c r="D74">
-        <v>0.3265352181194321</v>
+        <v>0.5575046707648867</v>
       </c>
       <c r="E74">
         <v>0.228310260911509</v>
@@ -16675,7 +16675,7 @@
         <v>0.939150723260697</v>
       </c>
       <c r="D75">
-        <v>0.3389036533329104</v>
+        <v>0.5666141874032418</v>
       </c>
       <c r="E75">
         <v>0.2343695744169129</v>
@@ -16701,7 +16701,7 @@
         <v>0.940371480217256</v>
       </c>
       <c r="D76">
-        <v>0.3674152077313451</v>
+        <v>0.5860585820009572</v>
       </c>
       <c r="E76">
         <v>0.232006704587311</v>
@@ -16727,7 +16727,7 @@
         <v>0.9396994339162787</v>
       </c>
       <c r="D77">
-        <v>0.3703722089139568</v>
+        <v>0.5821367300862751</v>
       </c>
       <c r="E77">
         <v>0.2333104631127548</v>
@@ -16753,7 +16753,7 @@
         <v>0.8979827032633257</v>
       </c>
       <c r="D78">
-        <v>0.3746396148829063</v>
+        <v>0.4698663362017368</v>
       </c>
       <c r="E78">
         <v>0.3034662701197199</v>
@@ -16779,7 +16779,7 @@
         <v>0.9164902135027588</v>
       </c>
       <c r="D79">
-        <v>0.2283395514890773</v>
+        <v>0.45878028456915</v>
       </c>
       <c r="E79">
         <v>0.2745631241195524</v>
@@ -16805,7 +16805,7 @@
         <v>0.8960431557680237</v>
       </c>
       <c r="D80">
-        <v>0.3574145647728331</v>
+        <v>0.5456543108369638</v>
       </c>
       <c r="E80">
         <v>0.3063374301924127</v>
@@ -16831,7 +16831,7 @@
         <v>0.897411128601233</v>
       </c>
       <c r="D81">
-        <v>0.4142888866157881</v>
+        <v>0.5890923317096639</v>
       </c>
       <c r="E81">
         <v>0.3043152014352999</v>
@@ -16857,7 +16857,7 @@
         <v>0.9075614608669381</v>
       </c>
       <c r="D82">
-        <v>0.4432119046717913</v>
+        <v>0.6116728934884477</v>
       </c>
       <c r="E82">
         <v>0.2888684145754157</v>
@@ -16883,7 +16883,7 @@
         <v>0.9109085720147327</v>
       </c>
       <c r="D83">
-        <v>0.4824149095154163</v>
+        <v>0.6467788187187526</v>
       </c>
       <c r="E83">
         <v>0.2835903712429449</v>
@@ -16909,7 +16909,7 @@
         <v>0.922747456595401</v>
       </c>
       <c r="D84">
-        <v>0.4332015352482286</v>
+        <v>0.6430776693892275</v>
       </c>
       <c r="E84">
         <v>0.2640765967806402</v>
@@ -16935,7 +16935,7 @@
         <v>0.9207812282970672</v>
       </c>
       <c r="D85">
-        <v>0.426994394907958</v>
+        <v>0.6253884800633915</v>
       </c>
       <c r="E85">
         <v>0.2674161138830178</v>
@@ -16961,7 +16961,7 @@
         <v>0.921068557694529</v>
       </c>
       <c r="D86">
-        <v>0.3728216451569595</v>
+        <v>0.587240176188949</v>
       </c>
       <c r="E86">
         <v>0.266930709299787</v>
@@ -16987,7 +16987,7 @@
         <v>0.9253180099592474</v>
       </c>
       <c r="D87">
-        <v>0.3701598576231203</v>
+        <v>0.5993368895168015</v>
       </c>
       <c r="E87">
         <v>0.2596458958114742</v>
@@ -17013,7 +17013,7 @@
         <v>0.926172470961076</v>
       </c>
       <c r="D88">
-        <v>0.3934614055493828</v>
+        <v>0.607104190330613</v>
       </c>
       <c r="E88">
         <v>0.2581562760654035</v>
@@ -17039,7 +17039,7 @@
         <v>0.9247012208127711</v>
       </c>
       <c r="D89">
-        <v>0.3847103374474879</v>
+        <v>0.6084382151609287</v>
       </c>
       <c r="E89">
         <v>0.2607158825030459</v>
@@ -17065,7 +17065,7 @@
         <v>0.9233853335110325</v>
       </c>
       <c r="D90">
-        <v>0.4079895242852614</v>
+        <v>0.6256952145635151</v>
       </c>
       <c r="E90">
         <v>0.2629840921094694</v>
@@ -17091,7 +17091,7 @@
         <v>0.9275438710502059</v>
       </c>
       <c r="D91">
-        <v>0.4115279571496044</v>
+        <v>0.6338552170552572</v>
       </c>
       <c r="E91">
         <v>0.2557473162129155</v>
@@ -17117,7 +17117,7 @@
         <v>0.932044553101362</v>
       </c>
       <c r="D92">
-        <v>0.3908017588579298</v>
+        <v>0.6310278334436894</v>
       </c>
       <c r="E92">
         <v>0.2476769880036103</v>
@@ -17143,7 +17143,7 @@
         <v>0.9342929264306076</v>
       </c>
       <c r="D93">
-        <v>0.398229817139327</v>
+        <v>0.6254448970177811</v>
       </c>
       <c r="E93">
         <v>0.243545205165199</v>
@@ -17169,7 +17169,7 @@
         <v>0.9336632594213959</v>
       </c>
       <c r="D94">
-        <v>0.3801767733845467</v>
+        <v>0.6159368533672707</v>
       </c>
       <c r="E94">
         <v>0.2447093624682282</v>
@@ -17195,7 +17195,7 @@
         <v>0.9355668142822314</v>
       </c>
       <c r="D95">
-        <v>0.3951829533716578</v>
+        <v>0.6222766525334613</v>
       </c>
       <c r="E95">
         <v>0.2411727987637392</v>
@@ -17221,7 +17221,7 @@
         <v>0.9351962567271765</v>
       </c>
       <c r="D96">
-        <v>0.4195827253517912</v>
+        <v>0.6334721530076981</v>
       </c>
       <c r="E96">
         <v>0.2418653012342822</v>
@@ -17247,7 +17247,7 @@
         <v>0.8651903181798085</v>
       </c>
       <c r="D97">
-        <v>0.3449672633775916</v>
+        <v>0.4160357332377376</v>
       </c>
       <c r="E97">
         <v>0.3488462533576035</v>
@@ -17273,7 +17273,7 @@
         <v>0.8929548136954837</v>
       </c>
       <c r="D98">
-        <v>0.155494536546266</v>
+        <v>0.4229376573335394</v>
       </c>
       <c r="E98">
         <v>0.310854452491907</v>
@@ -17299,7 +17299,7 @@
         <v>0.8804500115362829</v>
       </c>
       <c r="D99">
-        <v>0.3270961493383537</v>
+        <v>0.5210033984123801</v>
       </c>
       <c r="E99">
         <v>0.3285097701885371</v>
@@ -17325,7 +17325,7 @@
         <v>0.8948794159965562</v>
       </c>
       <c r="D100">
-        <v>0.3943778943777685</v>
+        <v>0.5713040229914217</v>
       </c>
       <c r="E100">
         <v>0.308047297888139</v>
@@ -17351,7 +17351,7 @@
         <v>0.9016865333785865</v>
       </c>
       <c r="D101">
-        <v>0.4366977178238353</v>
+        <v>0.6006564954625304</v>
       </c>
       <c r="E101">
         <v>0.2979065322239837</v>
@@ -17377,7 +17377,7 @@
         <v>0.9059126176805208</v>
       </c>
       <c r="D102">
-        <v>0.4598965794470963</v>
+        <v>0.6290254583719189</v>
       </c>
       <c r="E102">
         <v>0.2914333268880362</v>
@@ -17403,7 +17403,7 @@
         <v>0.9138404312566011</v>
       </c>
       <c r="D103">
-        <v>0.3926818443114457</v>
+        <v>0.5965438375044962</v>
       </c>
       <c r="E103">
         <v>0.2788850791754139</v>
@@ -17429,7 +17429,7 @@
         <v>0.9184927864840706</v>
       </c>
       <c r="D104">
-        <v>0.4096788243882787</v>
+        <v>0.5963985365296632</v>
       </c>
       <c r="E104">
         <v>0.2712511226003831</v>
@@ -17455,7 +17455,7 @@
         <v>0.9204945201434372</v>
       </c>
       <c r="D105">
-        <v>0.4110912612882638</v>
+        <v>0.5872409650832973</v>
       </c>
       <c r="E105">
         <v>0.2678995923099688</v>
@@ -17481,7 +17481,7 @@
         <v>0.9257939561772934</v>
       </c>
       <c r="D106">
-        <v>0.4269760334819089</v>
+        <v>0.5910930413608806</v>
       </c>
       <c r="E106">
         <v>0.2588172154233246</v>
@@ -17507,7 +17507,7 @@
         <v>0.9279623220533448</v>
       </c>
       <c r="D107">
-        <v>0.4474425947178392</v>
+        <v>0.594007282007276</v>
       </c>
       <c r="E107">
         <v>0.2550077467422305</v>
@@ -17533,7 +17533,7 @@
         <v>0.9286459291919382</v>
       </c>
       <c r="D108">
-        <v>0.4172524034476091</v>
+        <v>0.5720746032982811</v>
       </c>
       <c r="E108">
         <v>0.2537949046366105</v>
@@ -17559,7 +17559,7 @@
         <v>0.9270410945076196</v>
       </c>
       <c r="D109">
-        <v>0.4217159240254783</v>
+        <v>0.5917355022141924</v>
       </c>
       <c r="E109">
         <v>0.2566331036656932</v>
@@ -17585,7 +17585,7 @@
         <v>0.9320205912616681</v>
       </c>
       <c r="D110">
-        <v>0.4237958570769036</v>
+        <v>0.6019207067834837</v>
       </c>
       <c r="E110">
         <v>0.2477206509730765</v>
@@ -17611,7 +17611,7 @@
         <v>0.9356929969958983</v>
       </c>
       <c r="D111">
-        <v>0.397652295884534</v>
+        <v>0.6053329049650509</v>
       </c>
       <c r="E111">
         <v>0.2409365326880838</v>
@@ -17637,7 +17637,7 @@
         <v>0.93733708043804</v>
       </c>
       <c r="D112">
-        <v>0.3978168520988591</v>
+        <v>0.5986174360084902</v>
       </c>
       <c r="E112">
         <v>0.237836680011333</v>
@@ -17663,7 +17663,7 @@
         <v>0.9346593760405107</v>
       </c>
       <c r="D113">
-        <v>0.3965071828619153</v>
+        <v>0.6070269174273759</v>
       </c>
       <c r="E113">
         <v>0.2428651274970732</v>
@@ -17689,7 +17689,7 @@
         <v>0.9355452962774239</v>
       </c>
       <c r="D114">
-        <v>0.4126259147926404</v>
+        <v>0.6144345712524655</v>
       </c>
       <c r="E114">
         <v>0.2412130662453458</v>
@@ -17715,7 +17715,7 @@
         <v>0.9347382845141157</v>
       </c>
       <c r="D115">
-        <v>0.4113756780574106</v>
+        <v>0.6096300589037723</v>
       </c>
       <c r="E115">
         <v>0.2427184354032883</v>
@@ -17741,7 +17741,7 @@
         <v>0.8630368335044085</v>
       </c>
       <c r="D116">
-        <v>0.5169917721792138</v>
+        <v>0.5538783957261766</v>
       </c>
       <c r="E116">
         <v>0.3516214942397519</v>
@@ -17767,7 +17767,7 @@
         <v>0.9055465229404362</v>
       </c>
       <c r="D117">
-        <v>0.4903703002853507</v>
+        <v>0.5637733303900294</v>
       </c>
       <c r="E117">
         <v>0.2919997610995215</v>
@@ -17793,7 +17793,7 @@
         <v>0.8943835509771532</v>
       </c>
       <c r="D118">
-        <v>0.5612856961764476</v>
+        <v>0.6117603508187632</v>
       </c>
       <c r="E118">
         <v>0.3087729891027856</v>
@@ -17819,7 +17819,7 @@
         <v>0.894719773552661</v>
       </c>
       <c r="D119">
-        <v>0.574052656663358</v>
+        <v>0.6345752775677775</v>
       </c>
       <c r="E119">
         <v>0.3082811187289936</v>
@@ -17845,7 +17845,7 @@
         <v>0.9013296029812696</v>
       </c>
       <c r="D120">
-        <v>0.5308598855030937</v>
+        <v>0.5891497472295668</v>
       </c>
       <c r="E120">
         <v>0.2984468222013433</v>
@@ -17871,7 +17871,7 @@
         <v>0.9019121449153209</v>
       </c>
       <c r="D121">
-        <v>0.5769798986052423</v>
+        <v>0.6174465608235726</v>
       </c>
       <c r="E121">
         <v>0.2975645152221433</v>
@@ -17897,7 +17897,7 @@
         <v>0.9108366307410156</v>
       </c>
       <c r="D122">
-        <v>0.4892369632417664</v>
+        <v>0.5926767807474401</v>
       </c>
       <c r="E122">
         <v>0.2837048476635367</v>
@@ -17923,7 +17923,7 @@
         <v>0.9158491529111679</v>
       </c>
       <c r="D123">
-        <v>0.4896857508008137</v>
+        <v>0.5898344915695244</v>
       </c>
       <c r="E123">
         <v>0.2756149475609079</v>
@@ -17949,7 +17949,7 @@
         <v>0.9173315364809647</v>
       </c>
       <c r="D124">
-        <v>0.4610653001371997</v>
+        <v>0.5691702708953504</v>
       </c>
       <c r="E124">
         <v>0.2731765739933262</v>
@@ -17975,7 +17975,7 @@
         <v>0.9210376199612031</v>
       </c>
       <c r="D125">
-        <v>0.465513612898412</v>
+        <v>0.5732159780093622</v>
       </c>
       <c r="E125">
         <v>0.2669830168580949</v>
@@ -18001,7 +18001,7 @@
         <v>0.9216944109721185</v>
       </c>
       <c r="D126">
-        <v>0.5015739690842853</v>
+        <v>0.5920935462308159</v>
       </c>
       <c r="E126">
         <v>0.2658703464674292</v>
@@ -18027,7 +18027,7 @@
         <v>0.9241525240109599</v>
       </c>
       <c r="D127">
-        <v>0.4509505433101308</v>
+        <v>0.5682129853970697</v>
       </c>
       <c r="E127">
         <v>0.2616640672654854</v>
@@ -18053,7 +18053,7 @@
         <v>0.9223221207175691</v>
       </c>
       <c r="D128">
-        <v>0.4489753714057144</v>
+        <v>0.5906955234855583</v>
       </c>
       <c r="E128">
         <v>0.2648025733385252</v>
@@ -18079,7 +18079,7 @@
         <v>0.9266343132973756</v>
       </c>
       <c r="D129">
-        <v>0.4598383375240394</v>
+        <v>0.6007280591708488</v>
       </c>
       <c r="E129">
         <v>0.2573475361049358</v>
@@ -18105,7 +18105,7 @@
         <v>0.9302600231567822</v>
       </c>
       <c r="D130">
-        <v>0.4422303574180095</v>
+        <v>0.602046105385618</v>
       </c>
       <c r="E130">
         <v>0.2509079490971018</v>
@@ -18131,7 +18131,7 @@
         <v>0.9314431957515263</v>
       </c>
       <c r="D131">
-        <v>0.4441339493538423</v>
+        <v>0.5985068369571629</v>
       </c>
       <c r="E131">
         <v>0.2487704567786236</v>
@@ -18157,7 +18157,7 @@
         <v>0.9293331576496459</v>
       </c>
       <c r="D132">
-        <v>0.4576998084160461</v>
+        <v>0.608162497121647</v>
       </c>
       <c r="E132">
         <v>0.2525697672893611</v>
@@ -18183,7 +18183,7 @@
         <v>0.9330395907443519</v>
       </c>
       <c r="D133">
-        <v>0.464945628426803</v>
+        <v>0.6163160735646449</v>
       </c>
       <c r="E133">
         <v>0.2458569959568464</v>
@@ -18209,7 +18209,7 @@
         <v>0.931883340651141</v>
       </c>
       <c r="D134">
-        <v>0.471014510697629</v>
+        <v>0.6167547880625678</v>
       </c>
       <c r="E134">
         <v>0.24797059920808</v>
@@ -18235,7 +18235,7 @@
         <v>0.8829081104129949</v>
       </c>
       <c r="D135">
-        <v>0.3313909448826177</v>
+        <v>0.4198943060671492</v>
       </c>
       <c r="E135">
         <v>0.3251149409990124</v>
@@ -18261,7 +18261,7 @@
         <v>0.9050423844543564</v>
       </c>
       <c r="D136">
-        <v>0.3658695913974553</v>
+        <v>0.4829336618586151</v>
       </c>
       <c r="E136">
         <v>0.2927779876728055</v>
@@ -18287,7 +18287,7 @@
         <v>0.895320354007382</v>
       </c>
       <c r="D137">
-        <v>0.4361764574735481</v>
+        <v>0.5567504465350226</v>
       </c>
       <c r="E137">
         <v>0.3074005525280143</v>
@@ -18313,7 +18313,7 @@
         <v>0.8992490636820826</v>
       </c>
       <c r="D138">
-        <v>0.4602748573133367</v>
+        <v>0.5909431467628898</v>
       </c>
       <c r="E138">
         <v>0.30157689579098</v>
@@ -18339,7 +18339,7 @@
         <v>0.907881815992253</v>
       </c>
       <c r="D139">
-        <v>0.4392220809955578</v>
+        <v>0.5548215760078414</v>
       </c>
       <c r="E139">
         <v>0.2883674287617468</v>
@@ -18365,7 +18365,7 @@
         <v>0.9072992506015813</v>
       </c>
       <c r="D140">
-        <v>0.5115917403024581</v>
+        <v>0.5938455630784187</v>
       </c>
       <c r="E140">
         <v>0.2892778251228719</v>
@@ -18391,7 +18391,7 @@
         <v>0.918957379344893</v>
       </c>
       <c r="D141">
-        <v>0.4438941154017589</v>
+        <v>0.566397413677814</v>
       </c>
       <c r="E141">
         <v>0.2704769492216024</v>
@@ -18417,7 +18417,7 @@
         <v>0.9226404072575722</v>
       </c>
       <c r="D142">
-        <v>0.4577550902144062</v>
+        <v>0.5696347896723577</v>
       </c>
       <c r="E142">
         <v>0.2642594997450252</v>
@@ -18443,7 +18443,7 @@
         <v>0.9234608521312088</v>
       </c>
       <c r="D143">
-        <v>0.4520445287373297</v>
+        <v>0.5661735146624935</v>
       </c>
       <c r="E143">
         <v>0.2628544492283644</v>
@@ -18469,7 +18469,7 @@
         <v>0.9245477580320722</v>
       </c>
       <c r="D144">
-        <v>0.4662870715909458</v>
+        <v>0.5960394170878149</v>
       </c>
       <c r="E144">
         <v>0.2609814234572103</v>
@@ -18495,7 +18495,7 @@
         <v>0.9274817496244634</v>
       </c>
       <c r="D145">
-        <v>0.4939776196648451</v>
+        <v>0.6118811411077671</v>
       </c>
       <c r="E145">
         <v>0.2558569272580776</v>
@@ -18521,7 +18521,7 @@
         <v>0.9284847169407568</v>
       </c>
       <c r="D146">
-        <v>0.4357173739397749</v>
+        <v>0.572763608271862</v>
       </c>
       <c r="E146">
         <v>0.2540814458493679</v>
@@ -18547,7 +18547,7 @@
         <v>0.9267974400240127</v>
       </c>
       <c r="D147">
-        <v>0.4064178644005524</v>
+        <v>0.5555643874944579</v>
       </c>
       <c r="E147">
         <v>0.2570612740623593</v>
@@ -18573,7 +18573,7 @@
         <v>0.9312281881839606</v>
       </c>
       <c r="D148">
-        <v>0.412330132291794</v>
+        <v>0.5674326831745958</v>
       </c>
       <c r="E148">
         <v>0.249160247844361</v>
@@ -18599,7 +18599,7 @@
         <v>0.934342520808885</v>
       </c>
       <c r="D149">
-        <v>0.4077527540750229</v>
+        <v>0.5807329395989003</v>
       </c>
       <c r="E149">
         <v>0.2434532763028705</v>
@@ -18625,7 +18625,7 @@
         <v>0.9332432759228174</v>
       </c>
       <c r="D150">
-        <v>0.401315675971941</v>
+        <v>0.5791623476680958</v>
       </c>
       <c r="E150">
         <v>0.2454827780645032</v>
@@ -18651,7 +18651,7 @@
         <v>0.9310013536253837</v>
       </c>
       <c r="D151">
-        <v>0.3964868424432578</v>
+        <v>0.5882969994745328</v>
       </c>
       <c r="E151">
         <v>0.2495708203279421</v>
@@ -18677,7 +18677,7 @@
         <v>0.934147710564309</v>
       </c>
       <c r="D152">
-        <v>0.3933743911784086</v>
+        <v>0.5845408696419334</v>
       </c>
       <c r="E152">
         <v>0.2438141800798972</v>
@@ -18703,7 +18703,7 @@
         <v>0.9327173049163342</v>
       </c>
       <c r="D153">
-        <v>0.3982206226095795</v>
+        <v>0.5846613437091343</v>
       </c>
       <c r="E153">
         <v>0.2464479504669375</v>
@@ -18729,7 +18729,7 @@
         <v>0.8823538206105498</v>
       </c>
       <c r="D154">
-        <v>0.4984855306636713</v>
+        <v>0.4961683959813001</v>
       </c>
       <c r="E154">
         <v>0.3258835473184972</v>
@@ -18755,7 +18755,7 @@
         <v>0.9101434695260906</v>
       </c>
       <c r="D155">
-        <v>0.5494872657142735</v>
+        <v>0.6213942733400205</v>
       </c>
       <c r="E155">
         <v>0.2848054816941313</v>
@@ -18781,7 +18781,7 @@
         <v>0.8973864465776599</v>
       </c>
       <c r="D156">
-        <v>0.5893418036454363</v>
+        <v>0.6616781122406032</v>
       </c>
       <c r="E156">
         <v>0.3043518070785318</v>
@@ -18807,7 +18807,7 @@
         <v>0.9041285351899878</v>
       </c>
       <c r="D157">
-        <v>0.5311935207393019</v>
+        <v>0.6106755800934911</v>
       </c>
       <c r="E157">
         <v>0.2941834268521702</v>
@@ -18833,7 +18833,7 @@
         <v>0.9099081456565707</v>
       </c>
       <c r="D158">
-        <v>0.5038156884682916</v>
+        <v>0.564956479244322</v>
       </c>
       <c r="E158">
         <v>0.2851781741663157</v>
@@ -18859,7 +18859,7 @@
         <v>0.907484297407966</v>
       </c>
       <c r="D159">
-        <v>0.5570723806222586</v>
+        <v>0.5955841432546292</v>
       </c>
       <c r="E159">
         <v>0.2889889564863988</v>
@@ -18885,7 +18885,7 @@
         <v>0.9159861589732694</v>
       </c>
       <c r="D160">
-        <v>0.453468354253086</v>
+        <v>0.5638172103346177</v>
       </c>
       <c r="E160">
         <v>0.2753904917051533</v>
@@ -18911,7 +18911,7 @@
         <v>0.9222223241568364</v>
       </c>
       <c r="D161">
-        <v>0.4287983671807808</v>
+        <v>0.5497115465874979</v>
       </c>
       <c r="E161">
         <v>0.2649726211305579</v>
@@ -18937,7 +18937,7 @@
         <v>0.9211255851710367</v>
       </c>
       <c r="D162">
-        <v>0.4158637541939703</v>
+        <v>0.5432354897121408</v>
       </c>
       <c r="E162">
         <v>0.2668342639871056</v>
@@ -18963,7 +18963,7 @@
         <v>0.9237512417138575</v>
       </c>
       <c r="D163">
-        <v>0.408507294338316</v>
+        <v>0.5757121460620049</v>
       </c>
       <c r="E163">
         <v>0.2623553403879425</v>
@@ -18989,7 +18989,7 @@
         <v>0.9247099521555129</v>
       </c>
       <c r="D164">
-        <v>0.4452634867902043</v>
+        <v>0.5912973975562203</v>
       </c>
       <c r="E164">
         <v>0.2607007662837174</v>
@@ -19015,7 +19015,7 @@
         <v>0.9250899541850958</v>
       </c>
       <c r="D165">
-        <v>0.4005431194383058</v>
+        <v>0.5726152780807352</v>
       </c>
       <c r="E165">
         <v>0.2600420328821448</v>
@@ -19041,7 +19041,7 @@
         <v>0.9227496750453643</v>
       </c>
       <c r="D166">
-        <v>0.3900466850703599</v>
+        <v>0.5884614172047744</v>
       </c>
       <c r="E166">
         <v>0.2640728050289609</v>
@@ -19067,7 +19067,7 @@
         <v>0.9262554995911538</v>
       </c>
       <c r="D167">
-        <v>0.3693802962467926</v>
+        <v>0.5934189481997121</v>
       </c>
       <c r="E167">
         <v>0.2580110701236103</v>
@@ -19093,7 +19093,7 @@
         <v>0.9301647751712135</v>
       </c>
       <c r="D168">
-        <v>0.3571896121102763</v>
+        <v>0.5940881959880751</v>
       </c>
       <c r="E168">
         <v>0.251079230501792</v>
@@ -19119,7 +19119,7 @@
         <v>0.9304783844091948</v>
       </c>
       <c r="D169">
-        <v>0.3750317321816408</v>
+        <v>0.5959502083521655</v>
       </c>
       <c r="E169">
         <v>0.2505148350571089</v>
@@ -19145,7 +19145,7 @@
         <v>0.9283461190344929</v>
       </c>
       <c r="D170">
-        <v>0.3682314127397903</v>
+        <v>0.6031077088142536</v>
       </c>
       <c r="E170">
         <v>0.254327533884826</v>
@@ -19171,7 +19171,7 @@
         <v>0.9308356425614814</v>
       </c>
       <c r="D171">
-        <v>0.3689840657366776</v>
+        <v>0.5987107790749827</v>
       </c>
       <c r="E171">
         <v>0.2498703323255208</v>
@@ -19197,7 +19197,7 @@
         <v>0.9298836712524586</v>
       </c>
       <c r="D172">
-        <v>0.3666228132046058</v>
+        <v>0.5921530906875578</v>
       </c>
       <c r="E172">
         <v>0.2515840507666761</v>
@@ -19223,7 +19223,7 @@
         <v>0.8959802530991975</v>
       </c>
       <c r="D173">
-        <v>0.4194688461211997</v>
+        <v>0.165535234048335</v>
       </c>
       <c r="E173">
         <v>0.3064300961829711</v>
@@ -19249,7 +19249,7 @@
         <v>0.9140210578285139</v>
       </c>
       <c r="D174">
-        <v>0.4622142897141485</v>
+        <v>0.3876774889146249</v>
       </c>
       <c r="E174">
         <v>0.2785925957894204</v>
@@ -19275,7 +19275,7 @@
         <v>0.9032819331125619</v>
       </c>
       <c r="D175">
-        <v>0.4764559526669216</v>
+        <v>0.4373827011282184</v>
       </c>
       <c r="E175">
         <v>0.295479479261099</v>
@@ -19301,7 +19301,7 @@
         <v>0.9088446579648737</v>
       </c>
       <c r="D176">
-        <v>0.4639484936308425</v>
+        <v>0.4450367744029851</v>
       </c>
       <c r="E176">
         <v>0.2868564263139126</v>
@@ -19327,7 +19327,7 @@
         <v>0.9144755442093763</v>
       </c>
       <c r="D177">
-        <v>0.4441825080947754</v>
+        <v>0.4199548241160885</v>
       </c>
       <c r="E177">
         <v>0.2778552971818702</v>
@@ -19353,7 +19353,7 @@
         <v>0.9164376879654036</v>
       </c>
       <c r="D178">
-        <v>0.4803642301694345</v>
+        <v>0.4735871896554665</v>
       </c>
       <c r="E178">
         <v>0.2746494571665442</v>
@@ -19379,7 +19379,7 @@
         <v>0.9229532258700067</v>
       </c>
       <c r="D179">
-        <v>0.4173919818458873</v>
+        <v>0.4767208178979839</v>
       </c>
       <c r="E179">
         <v>0.2637246660883397</v>
@@ -19405,7 +19405,7 @@
         <v>0.9290143037085579</v>
       </c>
       <c r="D180">
-        <v>0.4161212643532261</v>
+        <v>0.4769103367085695</v>
       </c>
       <c r="E180">
         <v>0.2531389325785764</v>
@@ -19431,7 +19431,7 @@
         <v>0.9260971604168857</v>
       </c>
       <c r="D181">
-        <v>0.4047125054816072</v>
+        <v>0.4781198564282358</v>
       </c>
       <c r="E181">
         <v>0.2582879135068122</v>
@@ -19457,7 +19457,7 @@
         <v>0.9268562408765847</v>
       </c>
       <c r="D182">
-        <v>0.412328560251884</v>
+        <v>0.4855532045365686</v>
       </c>
       <c r="E182">
         <v>0.2569580095131771</v>
@@ -19483,7 +19483,7 @@
         <v>0.9276690147473292</v>
       </c>
       <c r="D183">
-        <v>0.4482610046433554</v>
+        <v>0.507148799362316</v>
       </c>
       <c r="E183">
         <v>0.2555263618461667</v>
@@ -19509,7 +19509,7 @@
         <v>0.9285765179927752</v>
       </c>
       <c r="D184">
-        <v>0.4206282234778251</v>
+        <v>0.5003626750549819</v>
       </c>
       <c r="E184">
         <v>0.2539183168429452</v>
@@ -19535,7 +19535,7 @@
         <v>0.9276391974838065</v>
       </c>
       <c r="D185">
-        <v>0.3986651148095717</v>
+        <v>0.5009942553906364</v>
       </c>
       <c r="E185">
         <v>0.2555790246973043</v>
@@ -19561,7 +19561,7 @@
         <v>0.9321691603923781</v>
       </c>
       <c r="D186">
-        <v>0.3928529938689629</v>
+        <v>0.5133519919812701</v>
       </c>
       <c r="E186">
         <v>0.2474498059255177</v>
@@ -19587,7 +19587,7 @@
         <v>0.9342368739709419</v>
       </c>
       <c r="D187">
-        <v>0.3928804173805047</v>
+        <v>0.5295595627233065</v>
       </c>
       <c r="E187">
         <v>0.2436490630675747</v>
@@ -19613,7 +19613,7 @@
         <v>0.9346735978121187</v>
       </c>
       <c r="D188">
-        <v>0.3960615138786815</v>
+        <v>0.5297119136234507</v>
       </c>
       <c r="E188">
         <v>0.2428386955460886</v>
@@ -19639,7 +19639,7 @@
         <v>0.9326759895944436</v>
       </c>
       <c r="D189">
-        <v>0.3967659013348165</v>
+        <v>0.5421468794675177</v>
       </c>
       <c r="E189">
         <v>0.2465236052380445</v>
@@ -19665,7 +19665,7 @@
         <v>0.9354252959365302</v>
       </c>
       <c r="D190">
-        <v>0.3862825114476676</v>
+        <v>0.5389944104936066</v>
       </c>
       <c r="E190">
         <v>0.2414375044045542</v>
@@ -19691,7 +19691,7 @@
         <v>0.9345077208067244</v>
       </c>
       <c r="D191">
-        <v>0.3976288883244232</v>
+        <v>0.5529621117943341</v>
       </c>
       <c r="E191">
         <v>0.2431468084685807</v>
@@ -19717,7 +19717,7 @@
         <v>0.8986579463977472</v>
       </c>
       <c r="D192">
-        <v>0.3186318024043627</v>
+        <v>0.1203651263896037</v>
       </c>
       <c r="E192">
         <v>0.3024602950313982</v>
@@ -19743,7 +19743,7 @@
         <v>0.9152505113668447</v>
       </c>
       <c r="D193">
-        <v>0.3498568007490185</v>
+        <v>0.3570118654075431</v>
       </c>
       <c r="E193">
         <v>0.2765935601570462</v>
@@ -19769,7 +19769,7 @@
         <v>0.9064527659897279</v>
       </c>
       <c r="D194">
-        <v>0.4262517496598611</v>
+        <v>0.4774551646107242</v>
       </c>
       <c r="E194">
         <v>0.2905955748126453</v>
@@ -19795,7 +19795,7 @@
         <v>0.9075540235012387</v>
       </c>
       <c r="D195">
-        <v>0.4549633613220023</v>
+        <v>0.5286360402261772</v>
       </c>
       <c r="E195">
         <v>0.2888800351443148</v>
@@ -19821,7 +19821,7 @@
         <v>0.9100618335043427</v>
       </c>
       <c r="D196">
-        <v>0.4346935223635257</v>
+        <v>0.4946602289101006</v>
       </c>
       <c r="E196">
         <v>0.2849348273740733</v>
@@ -19847,7 +19847,7 @@
         <v>0.9123691073171507</v>
       </c>
       <c r="D197">
-        <v>0.4664592056551359</v>
+        <v>0.5279848413731201</v>
       </c>
       <c r="E197">
         <v>0.2812562221816278</v>
@@ -19873,7 +19873,7 @@
         <v>0.9164976339313942</v>
       </c>
       <c r="D198">
-        <v>0.3783183781414721</v>
+        <v>0.5173630011277253</v>
       </c>
       <c r="E198">
         <v>0.2745509254215635</v>
@@ -19899,7 +19899,7 @@
         <v>0.9240775777200795</v>
       </c>
       <c r="D199">
-        <v>0.3998907503384656</v>
+        <v>0.5258058963264469</v>
       </c>
       <c r="E199">
         <v>0.2617933128929649</v>
@@ -19925,7 +19925,7 @@
         <v>0.926407782205695</v>
       </c>
       <c r="D200">
-        <v>0.4064289631295199</v>
+        <v>0.5203176187029603</v>
       </c>
       <c r="E200">
         <v>0.2577445356370177</v>
@@ -19951,7 +19951,7 @@
         <v>0.9274688082761841</v>
       </c>
       <c r="D201">
-        <v>0.4195102311416071</v>
+        <v>0.5312862691240904</v>
       </c>
       <c r="E201">
         <v>0.2558797558969245</v>
@@ -19977,7 +19977,7 @@
         <v>0.9280876579217157</v>
       </c>
       <c r="D202">
-        <v>0.4584705421409713</v>
+        <v>0.5516667413131349</v>
       </c>
       <c r="E202">
         <v>0.254785810578917</v>
@@ -20003,7 +20003,7 @@
         <v>0.9288671518225902</v>
       </c>
       <c r="D203">
-        <v>0.4514531890544699</v>
+        <v>0.5625541546681219</v>
       </c>
       <c r="E203">
         <v>0.2534011726404126</v>
@@ -20029,7 +20029,7 @@
         <v>0.929040526576012</v>
       </c>
       <c r="D204">
-        <v>0.4375162149933405</v>
+        <v>0.5532116661702948</v>
       </c>
       <c r="E204">
         <v>0.2530921721593928</v>
@@ -20055,7 +20055,7 @@
         <v>0.9342351994459517</v>
       </c>
       <c r="D205">
-        <v>0.434733543923347</v>
+        <v>0.5613812128879384</v>
       </c>
       <c r="E205">
         <v>0.2436521650631186</v>
@@ -20081,7 +20081,7 @@
         <v>0.9366066104024438</v>
       </c>
       <c r="D206">
-        <v>0.421464840388818</v>
+        <v>0.5742385844976675</v>
       </c>
       <c r="E206">
         <v>0.2392189104682758</v>
@@ -20107,7 +20107,7 @@
         <v>0.937892711512924</v>
       </c>
       <c r="D207">
-        <v>0.4057734767099819</v>
+        <v>0.5693129809725785</v>
       </c>
       <c r="E207">
         <v>0.2367798851888624</v>
@@ -20133,7 +20133,7 @@
         <v>0.9353215815701449</v>
       </c>
       <c r="D208">
-        <v>0.4072606443166393</v>
+        <v>0.5799401290999666</v>
       </c>
       <c r="E208">
         <v>0.2416313147497021</v>
@@ -20159,7 +20159,7 @@
         <v>0.9381324808652822</v>
       </c>
       <c r="D209">
-        <v>0.3896773735190781</v>
+        <v>0.5788147929522909</v>
       </c>
       <c r="E209">
         <v>0.2363223909019673</v>
@@ -20185,7 +20185,7 @@
         <v>0.9365009261713086</v>
       </c>
       <c r="D210">
-        <v>0.3876982225515722</v>
+        <v>0.5712734972599511</v>
       </c>
       <c r="E210">
         <v>0.2394182304500816</v>
@@ -20211,7 +20211,7 @@
         <v>0.9007401627794123</v>
       </c>
       <c r="D211">
-        <v>0.4108778133718829</v>
+        <v>0.2998739476329272</v>
       </c>
       <c r="E211">
         <v>0.2993369301685568</v>
@@ -20237,7 +20237,7 @@
         <v>0.9214555290555458</v>
       </c>
       <c r="D212">
-        <v>0.3949376519444983</v>
+        <v>0.3912090542063127</v>
       </c>
       <c r="E212">
         <v>0.2662755745918418</v>
@@ -20263,7 +20263,7 @@
         <v>0.9080219453578762</v>
       </c>
       <c r="D213">
-        <v>0.4641215049178653</v>
+        <v>0.49700842149865</v>
       </c>
       <c r="E213">
         <v>0.2881480142978716</v>
@@ -20289,7 +20289,7 @@
         <v>0.9040543433940218</v>
       </c>
       <c r="D214">
-        <v>0.4500137523771711</v>
+        <v>0.4899859254863307</v>
       </c>
       <c r="E214">
         <v>0.294297234312249</v>
@@ -20315,7 +20315,7 @@
         <v>0.9103214151053817</v>
       </c>
       <c r="D215">
-        <v>0.4182552832357205</v>
+        <v>0.4636163490547874</v>
       </c>
       <c r="E215">
         <v>0.2845233375263559</v>
@@ -20341,7 +20341,7 @@
         <v>0.9118787731081205</v>
       </c>
       <c r="D216">
-        <v>0.4515307461247413</v>
+        <v>0.5061790287416303</v>
       </c>
       <c r="E216">
         <v>0.2820420019700238</v>
@@ -20367,7 +20367,7 @@
         <v>0.9184604287423134</v>
       </c>
       <c r="D217">
-        <v>0.3765460648450546</v>
+        <v>0.4925049028067106</v>
       </c>
       <c r="E217">
         <v>0.2713049595705294</v>
@@ -20393,7 +20393,7 @@
         <v>0.9245559829113624</v>
       </c>
       <c r="D218">
-        <v>0.4010361284389437</v>
+        <v>0.5035462954738681</v>
       </c>
       <c r="E218">
         <v>0.2609671985703845</v>
@@ -20419,7 +20419,7 @@
         <v>0.9236846858818921</v>
       </c>
       <c r="D219">
-        <v>0.3862967662334543</v>
+        <v>0.5027721798374059</v>
       </c>
       <c r="E219">
         <v>0.2624698174601928</v>
@@ -20445,7 +20445,7 @@
         <v>0.9244824600321337</v>
       </c>
       <c r="D220">
-        <v>0.3906732621753686</v>
+        <v>0.5077566741244508</v>
       </c>
       <c r="E220">
         <v>0.2610943285153533</v>
@@ -20471,7 +20471,7 @@
         <v>0.9240776015096638</v>
       </c>
       <c r="D221">
-        <v>0.4221813964512116</v>
+        <v>0.513169463634182</v>
       </c>
       <c r="E221">
         <v>0.2617932718777128</v>
@@ -20497,7 +20497,7 @@
         <v>0.9259898032763401</v>
       </c>
       <c r="D222">
-        <v>0.4218313719769892</v>
+        <v>0.5312724411674119</v>
       </c>
       <c r="E222">
         <v>0.2584754502032334</v>
@@ -20523,7 +20523,7 @@
         <v>0.9246376981259627</v>
       </c>
       <c r="D223">
-        <v>0.3995075608459506</v>
+        <v>0.5272047079147878</v>
       </c>
       <c r="E223">
         <v>0.2608258303811707</v>
@@ -20549,7 +20549,7 @@
         <v>0.928260870921638</v>
       </c>
       <c r="D224">
-        <v>0.3891722180584892</v>
+        <v>0.5385743709071089</v>
       </c>
       <c r="E224">
         <v>0.2544787782925593</v>
@@ -20575,7 +20575,7 @@
         <v>0.9326059106492389</v>
       </c>
       <c r="D225">
-        <v>0.3992509195735372</v>
+        <v>0.5310509299042461</v>
       </c>
       <c r="E225">
         <v>0.2466518776084212</v>
@@ -20601,7 +20601,7 @@
         <v>0.9326947218231322</v>
       </c>
       <c r="D226">
-        <v>0.4080138408307189</v>
+        <v>0.5324614966730694</v>
       </c>
       <c r="E226">
         <v>0.2464893064953604</v>
@@ -20627,7 +20627,7 @@
         <v>0.9312224888071822</v>
       </c>
       <c r="D227">
-        <v>0.4100556300746624</v>
+        <v>0.5470923321693866</v>
       </c>
       <c r="E227">
         <v>0.2491705720504055</v>
@@ -20653,7 +20653,7 @@
         <v>0.9341616389598542</v>
       </c>
       <c r="D228">
-        <v>0.4125999558408192</v>
+        <v>0.5524280393326246</v>
       </c>
       <c r="E228">
         <v>0.2437883941888044</v>
@@ -20679,7 +20679,7 @@
         <v>0.9334622643254007</v>
       </c>
       <c r="D229">
-        <v>0.4185115004035951</v>
+        <v>0.5502620373447924</v>
       </c>
       <c r="E229">
         <v>0.2450798071173779</v>
@@ -20705,7 +20705,7 @@
         <v>0.8611419769168711</v>
       </c>
       <c r="D230">
-        <v>0.3892930812091655</v>
+        <v>0.5454449585846735</v>
       </c>
       <c r="E230">
         <v>0.3540454440196587</v>
@@ -20731,7 +20731,7 @@
         <v>0.8936495795494643</v>
       </c>
       <c r="D231">
-        <v>0.4129317168371428</v>
+        <v>0.541224677747464</v>
       </c>
       <c r="E231">
         <v>0.3098440257599386</v>
@@ -20757,7 +20757,7 @@
         <v>0.892344143824911</v>
       </c>
       <c r="D232">
-        <v>0.4064386780418717</v>
+        <v>0.5249422120178948</v>
       </c>
       <c r="E232">
         <v>0.3117398705579656</v>
@@ -20783,7 +20783,7 @@
         <v>0.8976519380292367</v>
       </c>
       <c r="D233">
-        <v>0.3970721068850113</v>
+        <v>0.508846771415852</v>
       </c>
       <c r="E233">
         <v>0.3039578282461419</v>
@@ -20809,7 +20809,7 @@
         <v>0.9047728142929425</v>
       </c>
       <c r="D234">
-        <v>0.3462802274134257</v>
+        <v>0.5087633131254061</v>
       </c>
       <c r="E234">
         <v>0.2931932691374117</v>
@@ -20835,7 +20835,7 @@
         <v>0.9091033431147286</v>
       </c>
       <c r="D235">
-        <v>0.3340868721774878</v>
+        <v>0.5293060055684562</v>
       </c>
       <c r="E235">
         <v>0.2864491094369546</v>
@@ -20861,7 +20861,7 @@
         <v>0.9133774408522215</v>
       </c>
       <c r="D236">
-        <v>0.316318989685081</v>
+        <v>0.5151777324505825</v>
       </c>
       <c r="E236">
         <v>0.2796333890811299</v>
@@ -20887,7 +20887,7 @@
         <v>0.9187870645890038</v>
       </c>
       <c r="D237">
-        <v>0.3514631267001126</v>
+        <v>0.5265090606005922</v>
       </c>
       <c r="E237">
         <v>0.2707610098679882</v>
@@ -20913,7 +20913,7 @@
         <v>0.9206538440816161</v>
       </c>
       <c r="D238">
-        <v>0.3194852609079405</v>
+        <v>0.5153302704715725</v>
       </c>
       <c r="E238">
         <v>0.2676310308030908</v>
@@ -20939,7 +20939,7 @@
         <v>0.9211309415349586</v>
       </c>
       <c r="D239">
-        <v>0.3070263626587802</v>
+        <v>0.5037136680026713</v>
       </c>
       <c r="E239">
         <v>0.2668252034717664</v>
@@ -20965,7 +20965,7 @@
         <v>0.9227231262859787</v>
       </c>
       <c r="D240">
-        <v>0.3146999905872393</v>
+        <v>0.5091531731862087</v>
       </c>
       <c r="E240">
         <v>0.2641181783210121</v>
@@ -20991,7 +20991,7 @@
         <v>0.92478893581796</v>
       </c>
       <c r="D241">
-        <v>0.3178966624799612</v>
+        <v>0.5259587141723561</v>
       </c>
       <c r="E241">
         <v>0.2605639852278852</v>
@@ -21017,7 +21017,7 @@
         <v>0.9246912522446937</v>
       </c>
       <c r="D242">
-        <v>0.3309248839489226</v>
+        <v>0.5267212945887343</v>
       </c>
       <c r="E242">
         <v>0.2607331396089389</v>
@@ -21043,7 +21043,7 @@
         <v>0.9289394079274251</v>
       </c>
       <c r="D243">
-        <v>0.3210855788177682</v>
+        <v>0.5362386638876182</v>
       </c>
       <c r="E243">
         <v>0.2532724386289422</v>
@@ -21069,7 +21069,7 @@
         <v>0.933821482801896</v>
       </c>
       <c r="D244">
-        <v>0.3331523786254008</v>
+        <v>0.5390246133962873</v>
       </c>
       <c r="E244">
         <v>0.2444173534144734</v>
@@ -21095,7 +21095,7 @@
         <v>0.9337001189138343</v>
       </c>
       <c r="D245">
-        <v>0.3550599602680632</v>
+        <v>0.5447124666581729</v>
       </c>
       <c r="E245">
         <v>0.2446413675975188</v>
@@ -21121,7 +21121,7 @@
         <v>0.9314055584601655</v>
       </c>
       <c r="D246">
-        <v>0.3836374789173966</v>
+        <v>0.5603677879348452</v>
       </c>
       <c r="E246">
         <v>0.2488387341841588</v>
@@ -21147,7 +21147,7 @@
         <v>0.9350297460230951</v>
       </c>
       <c r="D247">
-        <v>0.3913223712102512</v>
+        <v>0.5615082904425677</v>
       </c>
       <c r="E247">
         <v>0.2421758336408224</v>
@@ -21173,7 +21173,7 @@
         <v>0.934370573392218</v>
       </c>
       <c r="D248">
-        <v>0.3945526624400655</v>
+        <v>0.5688881307809044</v>
       </c>
       <c r="E248">
         <v>0.2434012622517106</v>
@@ -21199,7 +21199,7 @@
         <v>0.8808108038031037</v>
       </c>
       <c r="D249">
-        <v>0.3983957011070408</v>
+        <v>0.5548396851886879</v>
       </c>
       <c r="E249">
         <v>0.3280136875657284</v>
@@ -21225,7 +21225,7 @@
         <v>0.8928676201588185</v>
       </c>
       <c r="D250">
-        <v>0.4440273603143318</v>
+        <v>0.5575702931018508</v>
       </c>
       <c r="E250">
         <v>0.3109810297944386</v>
@@ -21251,7 +21251,7 @@
         <v>0.8806918042270234</v>
       </c>
       <c r="D251">
-        <v>0.4609885335219218</v>
+        <v>0.5343026862625433</v>
       </c>
       <c r="E251">
         <v>0.3281773926372743</v>
@@ -21277,7 +21277,7 @@
         <v>0.8873566498556622</v>
       </c>
       <c r="D252">
-        <v>0.4554355783756782</v>
+        <v>0.5324976664222443</v>
       </c>
       <c r="E252">
         <v>0.3188792796969704</v>
@@ -21303,7 +21303,7 @@
         <v>0.8985898645954649</v>
       </c>
       <c r="D253">
-        <v>0.3801457933978533</v>
+        <v>0.5157421864000922</v>
       </c>
       <c r="E253">
         <v>0.302561874701386</v>
@@ -21329,7 +21329,7 @@
         <v>0.9020463763002391</v>
       </c>
       <c r="D254">
-        <v>0.4072846163460704</v>
+        <v>0.5445886959698656</v>
       </c>
       <c r="E254">
         <v>0.2973608397954378</v>
@@ -21355,7 +21355,7 @@
         <v>0.9073142149518135</v>
       </c>
       <c r="D255">
-        <v>0.4019522790419336</v>
+        <v>0.5204307083235873</v>
       </c>
       <c r="E255">
         <v>0.2892544756384847</v>
@@ -21381,7 +21381,7 @@
         <v>0.9137304531458058</v>
       </c>
       <c r="D256">
-        <v>0.4207467159728363</v>
+        <v>0.5295297559415787</v>
       </c>
       <c r="E256">
         <v>0.2790630134041308</v>
@@ -21407,7 +21407,7 @@
         <v>0.9154621285625626</v>
       </c>
       <c r="D257">
-        <v>0.4160810270123853</v>
+        <v>0.5294666002841504</v>
       </c>
       <c r="E257">
         <v>0.2762480209781897</v>
@@ -21433,7 +21433,7 @@
         <v>0.9183328164472271</v>
       </c>
       <c r="D258">
-        <v>0.3964424615823096</v>
+        <v>0.5179428268271458</v>
       </c>
       <c r="E258">
         <v>0.271517177469842</v>
@@ -21459,7 +21459,7 @@
         <v>0.9196191464613032</v>
       </c>
       <c r="D259">
-        <v>0.3967631177907869</v>
+        <v>0.5257232884328169</v>
       </c>
       <c r="E259">
         <v>0.2693703731530674</v>
@@ -21485,7 +21485,7 @@
         <v>0.9241835626174466</v>
       </c>
       <c r="D260">
-        <v>0.3881411831557662</v>
+        <v>0.5378159191904148</v>
       </c>
       <c r="E260">
         <v>0.2616105221805826</v>
@@ -21511,7 +21511,7 @@
         <v>0.9245671209514912</v>
       </c>
       <c r="D261">
-        <v>0.3929862196913806</v>
+        <v>0.5352830238720612</v>
       </c>
       <c r="E261">
         <v>0.2609479341506861</v>
@@ -21537,7 +21537,7 @@
         <v>0.928809061560495</v>
       </c>
       <c r="D262">
-        <v>0.3789505254355904</v>
+        <v>0.5437934841189216</v>
       </c>
       <c r="E262">
         <v>0.2535046208844825</v>
@@ -21563,7 +21563,7 @@
         <v>0.9332411767489348</v>
       </c>
       <c r="D263">
-        <v>0.3818425300792263</v>
+        <v>0.5430537618101795</v>
       </c>
       <c r="E263">
         <v>0.2454866376531253</v>
@@ -21589,7 +21589,7 @@
         <v>0.9340810363369428</v>
       </c>
       <c r="D264">
-        <v>0.3931258143806559</v>
+        <v>0.5461390025998464</v>
       </c>
       <c r="E264">
         <v>0.243937577531549</v>
@@ -21615,7 +21615,7 @@
         <v>0.9330304029205985</v>
       </c>
       <c r="D265">
-        <v>0.4033740171084945</v>
+        <v>0.5595280845705759</v>
       </c>
       <c r="E265">
         <v>0.2458738627389543</v>
@@ -21641,7 +21641,7 @@
         <v>0.9364695353131126</v>
       </c>
       <c r="D266">
-        <v>0.409989198828505</v>
+        <v>0.5608934126887882</v>
       </c>
       <c r="E266">
         <v>0.239477401510918</v>
@@ -21667,7 +21667,7 @@
         <v>0.9357761902634151</v>
       </c>
       <c r="D267">
-        <v>0.4161216306266944</v>
+        <v>0.5612780523845899</v>
       </c>
       <c r="E267">
         <v>0.2407806337699976</v>
@@ -21693,7 +21693,7 @@
         <v>0.8701920059449604</v>
       </c>
       <c r="D268">
-        <v>0.1910930847770965</v>
+        <v>0.3855065144087485</v>
       </c>
       <c r="E268">
         <v>0.3423136683092134</v>
@@ -21719,7 +21719,7 @@
         <v>0.877027957734452</v>
       </c>
       <c r="D269">
-        <v>0.2073356748781893</v>
+        <v>0.3580207656919079</v>
       </c>
       <c r="E269">
         <v>0.333178304638041</v>
@@ -21745,7 +21745,7 @@
         <v>0.8805200388583183</v>
       </c>
       <c r="D270">
-        <v>0.2166941258688783</v>
+        <v>0.3624689880507975</v>
       </c>
       <c r="E270">
         <v>0.3284135425370737</v>
@@ -21771,7 +21771,7 @@
         <v>0.8946530796285891</v>
       </c>
       <c r="D271">
-        <v>0.2383229120804523</v>
+        <v>0.4322184176187059</v>
       </c>
       <c r="E271">
         <v>0.3083787497041444</v>
@@ -21797,7 +21797,7 @@
         <v>0.8994524736119046</v>
       </c>
       <c r="D272">
-        <v>0.2065459811944034</v>
+        <v>0.438427131548331</v>
       </c>
       <c r="E272">
         <v>0.3012723093967894</v>
@@ -21823,7 +21823,7 @@
         <v>0.9072978077466455</v>
       </c>
       <c r="D273">
-        <v>0.236418658201234</v>
+        <v>0.4603784538118871</v>
       </c>
       <c r="E273">
         <v>0.2892800763685006</v>
@@ -21849,7 +21849,7 @@
         <v>0.909385055087444</v>
       </c>
       <c r="D274">
-        <v>0.2213956228105726</v>
+        <v>0.4467704444458052</v>
       </c>
       <c r="E274">
         <v>0.2860048754681764</v>
@@ -21875,7 +21875,7 @@
         <v>0.9156679314542395</v>
       </c>
       <c r="D275">
-        <v>0.2631580207772997</v>
+        <v>0.4675755523486408</v>
       </c>
       <c r="E275">
         <v>0.2759115606206927</v>
@@ -21901,7 +21901,7 @@
         <v>0.9180226377978735</v>
       </c>
       <c r="D276">
-        <v>0.2720788658200706</v>
+        <v>0.4653674269142563</v>
       </c>
       <c r="E276">
         <v>0.2720323110383172</v>
@@ -21927,7 +21927,7 @@
         <v>0.9189413841651746</v>
       </c>
       <c r="D277">
-        <v>0.2820409035865304</v>
+        <v>0.468213323537044</v>
       </c>
       <c r="E277">
         <v>0.2705036395848301</v>
@@ -21953,7 +21953,7 @@
         <v>0.9221428430416325</v>
       </c>
       <c r="D278">
-        <v>0.311981967653125</v>
+        <v>0.4971752987342707</v>
       </c>
       <c r="E278">
         <v>0.2651079745051131</v>
@@ -21979,7 +21979,7 @@
         <v>0.9261972081376789</v>
       </c>
       <c r="D279">
-        <v>0.2890158916455793</v>
+        <v>0.4944858441833914</v>
       </c>
       <c r="E279">
         <v>0.2581130226035553</v>
@@ -22005,7 +22005,7 @@
         <v>0.9256712702159763</v>
       </c>
       <c r="D280">
-        <v>0.281048473494134</v>
+        <v>0.4838641376477374</v>
       </c>
       <c r="E280">
         <v>0.2590310802485919</v>
@@ -22031,7 +22031,7 @@
         <v>0.9290797749257059</v>
       </c>
       <c r="D281">
-        <v>0.2800651931107869</v>
+        <v>0.5003240825658031</v>
       </c>
       <c r="E281">
         <v>0.2530221686521132</v>
@@ -22057,7 +22057,7 @@
         <v>0.9323344206436165</v>
       </c>
       <c r="D282">
-        <v>0.2958865302115908</v>
+        <v>0.5092589183260854</v>
       </c>
       <c r="E282">
         <v>0.247148183863926</v>
@@ -22083,7 +22083,7 @@
         <v>0.9320613469877952</v>
       </c>
       <c r="D283">
-        <v>0.3193836780367131</v>
+        <v>0.5163730199670418</v>
       </c>
       <c r="E283">
         <v>0.2476463818019525</v>
@@ -22109,7 +22109,7 @@
         <v>0.9306596808230102</v>
       </c>
       <c r="D284">
-        <v>0.3257881696184567</v>
+        <v>0.5233572301118291</v>
       </c>
       <c r="E284">
         <v>0.2501879792364206</v>
@@ -22135,7 +22135,7 @@
         <v>0.9334356310557911</v>
       </c>
       <c r="D285">
-        <v>0.3433765209842606</v>
+        <v>0.5345132913867925</v>
       </c>
       <c r="E285">
         <v>0.2451288516442915</v>
@@ -22161,7 +22161,7 @@
         <v>0.9317902167190175</v>
       </c>
       <c r="D286">
-        <v>0.3358275294024137</v>
+        <v>0.5339584216796698</v>
       </c>
       <c r="E286">
         <v>0.2481400446158063</v>
@@ -22187,7 +22187,7 @@
         <v>0.8555205195014749</v>
       </c>
       <c r="D287">
-        <v>0.3890654030820325</v>
+        <v>0.4370478247630917</v>
       </c>
       <c r="E287">
         <v>0.361140842472928</v>
@@ -22213,7 +22213,7 @@
         <v>0.8740517250278343</v>
       </c>
       <c r="D288">
-        <v>0.3813284678181253</v>
+        <v>0.4493290988399076</v>
       </c>
       <c r="E288">
         <v>0.3371860765440408</v>
@@ -22239,7 +22239,7 @@
         <v>0.8757388960144764</v>
       </c>
       <c r="D289">
-        <v>0.394635200883296</v>
+        <v>0.4875165134457535</v>
       </c>
       <c r="E289">
         <v>0.334920032756181</v>
@@ -22265,7 +22265,7 @@
         <v>0.8888747771286586</v>
       </c>
       <c r="D290">
-        <v>0.4264976002565856</v>
+        <v>0.5585710643205545</v>
       </c>
       <c r="E290">
         <v>0.3167231759304333</v>
@@ -22291,7 +22291,7 @@
         <v>0.9021195528765735</v>
       </c>
       <c r="D291">
-        <v>0.4192707858875409</v>
+        <v>0.5537595578062426</v>
       </c>
       <c r="E291">
         <v>0.2972497468474164</v>
@@ -22317,7 +22317,7 @@
         <v>0.904295291236503</v>
       </c>
       <c r="D292">
-        <v>0.4502154328041341</v>
+        <v>0.5927432678070623</v>
       </c>
       <c r="E292">
         <v>0.293927468440019</v>
@@ -22343,7 +22343,7 @@
         <v>0.9032594181353764</v>
       </c>
       <c r="D293">
-        <v>0.4365225474834047</v>
+        <v>0.5863200855746489</v>
       </c>
       <c r="E293">
         <v>0.2955138695607739</v>
@@ -22369,7 +22369,7 @@
         <v>0.9105071466777432</v>
       </c>
       <c r="D294">
-        <v>0.4267327866472643</v>
+        <v>0.5834803656645062</v>
       </c>
       <c r="E294">
         <v>0.2842285494404888</v>
@@ -22395,7 +22395,7 @@
         <v>0.9138148313760736</v>
       </c>
       <c r="D295">
-        <v>0.4140171737487551</v>
+        <v>0.5710349941793043</v>
       </c>
       <c r="E295">
         <v>0.2789265075075837</v>
@@ -22421,7 +22421,7 @@
         <v>0.9171341130856752</v>
       </c>
       <c r="D296">
-        <v>0.4156044922097785</v>
+        <v>0.5750290880534991</v>
       </c>
       <c r="E296">
         <v>0.2735025706549458</v>
@@ -22447,7 +22447,7 @@
         <v>0.9180419053995367</v>
       </c>
       <c r="D297">
-        <v>0.4275010047603771</v>
+        <v>0.5897532259727301</v>
       </c>
       <c r="E297">
         <v>0.2720003405157027</v>
@@ -22473,7 +22473,7 @@
         <v>0.9225147589569629</v>
       </c>
       <c r="D298">
-        <v>0.4030921259276048</v>
+        <v>0.5787765633303936</v>
       </c>
       <c r="E298">
         <v>0.2644740192657952</v>
@@ -22499,7 +22499,7 @@
         <v>0.923159756066765</v>
       </c>
       <c r="D299">
-        <v>0.3893271529758743</v>
+        <v>0.5671566377973452</v>
       </c>
       <c r="E299">
         <v>0.2633709610975499</v>
@@ -22525,7 +22525,7 @@
         <v>0.9258869709310161</v>
       </c>
       <c r="D300">
-        <v>0.3957771781428869</v>
+        <v>0.5776262605256793</v>
       </c>
       <c r="E300">
         <v>0.2586549552692212</v>
@@ -22551,7 +22551,7 @@
         <v>0.929809833903137</v>
       </c>
       <c r="D301">
-        <v>0.3833419855967022</v>
+        <v>0.5646050784910343</v>
       </c>
       <c r="E301">
         <v>0.2517164836237073</v>
@@ -22577,7 +22577,7 @@
         <v>0.9299279966035339</v>
       </c>
       <c r="D302">
-        <v>0.4011043806049474</v>
+        <v>0.5781788273240902</v>
       </c>
       <c r="E302">
         <v>0.2515045164089365</v>
@@ -22603,7 +22603,7 @@
         <v>0.9283020608173829</v>
       </c>
       <c r="D303">
-        <v>0.4242579827114559</v>
+        <v>0.5914532779018526</v>
       </c>
       <c r="E303">
         <v>0.2544057117562116</v>
@@ -22629,7 +22629,7 @@
         <v>0.9300043234688996</v>
       </c>
       <c r="D304">
-        <v>0.4235445728843734</v>
+        <v>0.6000683323909897</v>
       </c>
       <c r="E304">
         <v>0.2513675017611021</v>
@@ -22655,7 +22655,7 @@
         <v>0.9289891715912761</v>
       </c>
       <c r="D305">
-        <v>0.4166523895692773</v>
+        <v>0.5897500663806695</v>
       </c>
       <c r="E305">
         <v>0.253183739875491</v>
@@ -22681,7 +22681,7 @@
         <v>0.8704858506419776</v>
       </c>
       <c r="D306">
-        <v>-0.06849341582643009</v>
+        <v>0.1199335825817363</v>
       </c>
       <c r="E306">
         <v>0.3419260032589559</v>
@@ -22707,7 +22707,7 @@
         <v>0.8935685733111893</v>
       </c>
       <c r="D307">
-        <v>-0.02504147963970893</v>
+        <v>0.16157498781896</v>
       </c>
       <c r="E307">
         <v>0.3099620061177483</v>
@@ -22733,7 +22733,7 @@
         <v>0.8833963008867418</v>
       </c>
       <c r="D308">
-        <v>-0.09758165057969292</v>
+        <v>0.2314718692413483</v>
       </c>
       <c r="E308">
         <v>0.3244364832556508</v>
@@ -22759,7 +22759,7 @@
         <v>0.8948556539564001</v>
       </c>
       <c r="D309">
-        <v>-0.05156782177421992</v>
+        <v>0.2773330146185875</v>
       </c>
       <c r="E309">
         <v>0.3080821122811748</v>
@@ -22785,7 +22785,7 @@
         <v>0.8929282473769383</v>
       </c>
       <c r="D310">
-        <v>0.006941702791746995</v>
+        <v>0.2990570075591159</v>
       </c>
       <c r="E310">
         <v>0.3108930238017161</v>
@@ -22811,7 +22811,7 @@
         <v>0.894023325589829</v>
       </c>
       <c r="D311">
-        <v>0.06406295957182673</v>
+        <v>0.3785611977941153</v>
       </c>
       <c r="E311">
         <v>0.3092991059669649</v>
@@ -22837,7 +22837,7 @@
         <v>0.9074650853606187</v>
       </c>
       <c r="D312">
-        <v>0.0869603716579509</v>
+        <v>0.3812378992664739</v>
       </c>
       <c r="E312">
         <v>0.289018961021575</v>
@@ -22863,7 +22863,7 @@
         <v>0.9044984117219518</v>
       </c>
       <c r="D313">
-        <v>0.02543469364335682</v>
+        <v>0.3801639930148227</v>
       </c>
       <c r="E313">
         <v>0.2936153918334511</v>
@@ -22889,7 +22889,7 @@
         <v>0.9072020142931152</v>
       </c>
       <c r="D314">
-        <v>0.069912079341647</v>
+        <v>0.4386258413650693</v>
       </c>
       <c r="E314">
         <v>0.2894295010033256</v>
@@ -22915,7 +22915,7 @@
         <v>0.9077328455410829</v>
       </c>
       <c r="D315">
-        <v>0.02989275620699428</v>
+        <v>0.4387790340283982</v>
       </c>
       <c r="E315">
         <v>0.2886005036578969</v>
@@ -22941,7 +22941,7 @@
         <v>0.9042772252490401</v>
       </c>
       <c r="D316">
-        <v>0.00868490167515712</v>
+        <v>0.424233303460594</v>
       </c>
       <c r="E316">
         <v>0.2939552091826548</v>
@@ -22967,7 +22967,7 @@
         <v>0.9062162655454979</v>
       </c>
       <c r="D317">
-        <v>-0.002695453108114698</v>
+        <v>0.4138891057997663</v>
       </c>
       <c r="E317">
         <v>0.2909626759934915</v>
@@ -22993,7 +22993,7 @@
         <v>0.908564268234142</v>
       </c>
       <c r="D318">
-        <v>-0.02256896314165635</v>
+        <v>0.4086188993146407</v>
       </c>
       <c r="E318">
         <v>0.2872972663035869</v>
@@ -23019,7 +23019,7 @@
         <v>0.9112853071606721</v>
       </c>
       <c r="D319">
-        <v>-0.01035329795194317</v>
+        <v>0.4058306019331229</v>
       </c>
       <c r="E319">
         <v>0.2829901359174583</v>
@@ -23045,7 +23045,7 @@
         <v>0.9136770769230842</v>
       </c>
       <c r="D320">
-        <v>0.0248970403922254</v>
+        <v>0.4253911340580724</v>
       </c>
       <c r="E320">
         <v>0.279149330226365</v>
@@ -23071,7 +23071,7 @@
         <v>0.9153674404557002</v>
       </c>
       <c r="D321">
-        <v>-0.004538680386117599</v>
+        <v>0.3941973962608036</v>
       </c>
       <c r="E321">
         <v>0.2764026858714062</v>
@@ -23097,7 +23097,7 @@
         <v>0.914297829062572</v>
       </c>
       <c r="D322">
-        <v>-0.05025376451082075</v>
+        <v>0.3905557274506732</v>
       </c>
       <c r="E322">
         <v>0.2781438314339991</v>
@@ -23123,7 +23123,7 @@
         <v>0.9138634749311376</v>
       </c>
       <c r="D323">
-        <v>-0.08424786441152277</v>
+        <v>0.3883128389031359</v>
       </c>
       <c r="E323">
         <v>0.27884778229215</v>
@@ -23149,7 +23149,7 @@
         <v>0.9112944665855264</v>
       </c>
       <c r="D324">
-        <v>-0.1030733426044175</v>
+        <v>0.375773395200603</v>
       </c>
       <c r="E324">
         <v>0.2829755267602322</v>
@@ -23175,7 +23175,7 @@
         <v>0.8872428876468201</v>
       </c>
       <c r="D325">
-        <v>-0.7188210147812324</v>
+        <v>-0.1610188397314016</v>
       </c>
       <c r="E325">
         <v>0.3190402623763918</v>
@@ -23201,7 +23201,7 @@
         <v>0.8936194858118207</v>
       </c>
       <c r="D326">
-        <v>-0.7998157521295226</v>
+        <v>-0.1875549348152314</v>
       </c>
       <c r="E326">
         <v>0.30988786059036</v>
@@ -23227,7 +23227,7 @@
         <v>0.8996081007781528</v>
       </c>
       <c r="D327">
-        <v>-0.6459551475351326</v>
+        <v>-0.02970210740869628</v>
       </c>
       <c r="E327">
         <v>0.3010390649099132</v>
@@ -23253,7 +23253,7 @@
         <v>0.9125653068672454</v>
       </c>
       <c r="D328">
-        <v>-0.5776119063726581</v>
+        <v>0.1513343540911481</v>
       </c>
       <c r="E328">
         <v>0.2809411890662591</v>
@@ -23279,7 +23279,7 @@
         <v>0.9205881790264858</v>
       </c>
       <c r="D329">
-        <v>-0.5510934353075732</v>
+        <v>0.1805524089644321</v>
       </c>
       <c r="E329">
         <v>0.2677417505457909</v>
@@ -23305,7 +23305,7 @@
         <v>0.9157854015211662</v>
       </c>
       <c r="D330">
-        <v>-0.6061407249849373</v>
+        <v>0.244692188451755</v>
       </c>
       <c r="E330">
         <v>0.2757193286220086</v>
@@ -23331,7 +23331,7 @@
         <v>0.9159115425853556</v>
       </c>
       <c r="D331">
-        <v>-0.4627036731192178</v>
+        <v>0.2991090451109651</v>
       </c>
       <c r="E331">
         <v>0.2755127577686504</v>
@@ -23357,7 +23357,7 @@
         <v>0.9171742968378217</v>
       </c>
       <c r="D332">
-        <v>-0.3408806954048744</v>
+        <v>0.3706883494597722</v>
       </c>
       <c r="E332">
         <v>0.2734362484769151</v>
@@ -23383,7 +23383,7 @@
         <v>0.9154032395659183</v>
       </c>
       <c r="D333">
-        <v>-0.2763094004211439</v>
+        <v>0.3959294539131831</v>
       </c>
       <c r="E333">
         <v>0.2763442212753314</v>
@@ -23409,7 +23409,7 @@
         <v>0.9160218986556783</v>
       </c>
       <c r="D334">
-        <v>-0.2537214651510404</v>
+        <v>0.3904239970867593</v>
       </c>
       <c r="E334">
         <v>0.275331909597991</v>
@@ -23435,7 +23435,7 @@
         <v>0.9161168599597713</v>
       </c>
       <c r="D335">
-        <v>-0.2589244006932443</v>
+        <v>0.3896895830895062</v>
       </c>
       <c r="E335">
         <v>0.2751761947609772</v>
@@ -23461,7 +23461,7 @@
         <v>0.9139359304814301</v>
       </c>
       <c r="D336">
-        <v>-0.2522453084521226</v>
+        <v>0.3929789799998811</v>
       </c>
       <c r="E336">
         <v>0.2787304782793918</v>
@@ -23487,7 +23487,7 @@
         <v>0.9162321570943549</v>
       </c>
       <c r="D337">
-        <v>-0.2681212908694803</v>
+        <v>0.3525967535172634</v>
       </c>
       <c r="E337">
         <v>0.2749870152880699</v>
@@ -23513,7 +23513,7 @@
         <v>0.915673539359517</v>
       </c>
       <c r="D338">
-        <v>-0.1898895983893998</v>
+        <v>0.3923124317907229</v>
       </c>
       <c r="E338">
         <v>0.2759023866987951</v>
@@ -23539,7 +23539,7 @@
         <v>0.9207838885935203</v>
       </c>
       <c r="D339">
-        <v>-0.1826766127878854</v>
+        <v>0.3887278824138709</v>
       </c>
       <c r="E339">
         <v>0.2674116237091826</v>
@@ -23565,7 +23565,7 @@
         <v>0.918459571084461</v>
       </c>
       <c r="D340">
-        <v>-0.2372107928800993</v>
+        <v>0.379596675772144</v>
       </c>
       <c r="E340">
         <v>0.271306386400555</v>
@@ -23591,7 +23591,7 @@
         <v>0.9186037706584157</v>
       </c>
       <c r="D341">
-        <v>-0.3083739750434402</v>
+        <v>0.3683343624387151</v>
       </c>
       <c r="E341">
         <v>0.2710663853511843</v>
@@ -23617,7 +23617,7 @@
         <v>0.9192804333890898</v>
       </c>
       <c r="D342">
-        <v>-0.3387608161382141</v>
+        <v>0.3595417371818789</v>
       </c>
       <c r="E342">
         <v>0.2699373200528282</v>
@@ -23643,7 +23643,7 @@
         <v>0.9177004824695141</v>
       </c>
       <c r="D343">
-        <v>-0.3572165014582322</v>
+        <v>0.3495380577326089</v>
       </c>
       <c r="E343">
         <v>0.2725663043632853</v>
@@ -23669,7 +23669,7 @@
         <v>0.8872428876468201</v>
       </c>
       <c r="D344">
-        <v>-0.7188210147812324</v>
+        <v>-0.1610188397314016</v>
       </c>
       <c r="E344">
         <v>0.3190402623763918</v>
@@ -23695,7 +23695,7 @@
         <v>0.8936194858118207</v>
       </c>
       <c r="D345">
-        <v>-0.7998157521295226</v>
+        <v>-0.1875549348152314</v>
       </c>
       <c r="E345">
         <v>0.30988786059036</v>
@@ -23721,7 +23721,7 @@
         <v>0.8996081007781528</v>
       </c>
       <c r="D346">
-        <v>-0.6459551475351326</v>
+        <v>-0.02970210740869628</v>
       </c>
       <c r="E346">
         <v>0.3010390649099132</v>
@@ -23747,7 +23747,7 @@
         <v>0.9125653068672454</v>
       </c>
       <c r="D347">
-        <v>-0.5776119063726581</v>
+        <v>0.1513343540911481</v>
       </c>
       <c r="E347">
         <v>0.2809411890662591</v>
@@ -23773,7 +23773,7 @@
         <v>0.9205881790264858</v>
       </c>
       <c r="D348">
-        <v>-0.5510934353075732</v>
+        <v>0.1805524089644321</v>
       </c>
       <c r="E348">
         <v>0.2677417505457909</v>
@@ -23799,7 +23799,7 @@
         <v>0.9157854015211662</v>
       </c>
       <c r="D349">
-        <v>-0.6061407249849373</v>
+        <v>0.244692188451755</v>
       </c>
       <c r="E349">
         <v>0.2757193286220086</v>
@@ -23825,7 +23825,7 @@
         <v>0.9159115425853556</v>
       </c>
       <c r="D350">
-        <v>-0.4627036731192178</v>
+        <v>0.2991090451109651</v>
       </c>
       <c r="E350">
         <v>0.2755127577686504</v>
@@ -23851,7 +23851,7 @@
         <v>0.9171742968378217</v>
       </c>
       <c r="D351">
-        <v>-0.3408806954048744</v>
+        <v>0.3706883494597722</v>
       </c>
       <c r="E351">
         <v>0.2734362484769151</v>
@@ -23877,7 +23877,7 @@
         <v>0.9154032395659183</v>
       </c>
       <c r="D352">
-        <v>-0.2763094004211439</v>
+        <v>0.3959294539131831</v>
       </c>
       <c r="E352">
         <v>0.2763442212753314</v>
@@ -23903,7 +23903,7 @@
         <v>0.9160218986556783</v>
       </c>
       <c r="D353">
-        <v>-0.2537214651510404</v>
+        <v>0.3904239970867593</v>
       </c>
       <c r="E353">
         <v>0.275331909597991</v>
@@ -23929,7 +23929,7 @@
         <v>0.9161168599597713</v>
       </c>
       <c r="D354">
-        <v>-0.2589244006932443</v>
+        <v>0.3896895830895062</v>
       </c>
       <c r="E354">
         <v>0.2751761947609772</v>
@@ -23955,7 +23955,7 @@
         <v>0.9139359304814301</v>
       </c>
       <c r="D355">
-        <v>-0.2522453084521226</v>
+        <v>0.3929789799998811</v>
       </c>
       <c r="E355">
         <v>0.2787304782793918</v>
@@ -23981,7 +23981,7 @@
         <v>0.9162321570943549</v>
       </c>
       <c r="D356">
-        <v>-0.2681212908694803</v>
+        <v>0.3525967535172634</v>
       </c>
       <c r="E356">
         <v>0.2749870152880699</v>
@@ -24007,7 +24007,7 @@
         <v>0.915673539359517</v>
       </c>
       <c r="D357">
-        <v>-0.1898895983893998</v>
+        <v>0.3923124317907229</v>
       </c>
       <c r="E357">
         <v>0.2759023866987951</v>
@@ -24033,7 +24033,7 @@
         <v>0.9207838885935203</v>
       </c>
       <c r="D358">
-        <v>-0.1826766127878854</v>
+        <v>0.3887278824138709</v>
       </c>
       <c r="E358">
         <v>0.2674116237091826</v>
@@ -24059,7 +24059,7 @@
         <v>0.918459571084461</v>
       </c>
       <c r="D359">
-        <v>-0.2372107928800993</v>
+        <v>0.379596675772144</v>
       </c>
       <c r="E359">
         <v>0.271306386400555</v>
@@ -24085,7 +24085,7 @@
         <v>0.9186037706584157</v>
       </c>
       <c r="D360">
-        <v>-0.3083739750434402</v>
+        <v>0.3683343624387151</v>
       </c>
       <c r="E360">
         <v>0.2710663853511843</v>
@@ -24111,7 +24111,7 @@
         <v>0.9192804333890898</v>
       </c>
       <c r="D361">
-        <v>-0.3387608161382141</v>
+        <v>0.3595417371818789</v>
       </c>
       <c r="E361">
         <v>0.2699373200528282</v>
@@ -24137,7 +24137,7 @@
         <v>0.9177004824695141</v>
       </c>
       <c r="D362">
-        <v>-0.3572165014582322</v>
+        <v>0.3495380577326089</v>
       </c>
       <c r="E362">
         <v>0.2725663043632853</v>
@@ -24196,7 +24196,7 @@
         <v>0.6218215823466378</v>
       </c>
       <c r="D2">
-        <v>0.06716664252747739</v>
+        <v>0.2463507647058475</v>
       </c>
       <c r="E2">
         <v>0.5842811714449988</v>
@@ -24219,7 +24219,7 @@
         <v>0.6233115143280328</v>
       </c>
       <c r="D3">
-        <v>0.06716664252747739</v>
+        <v>0.2463507647058475</v>
       </c>
       <c r="E3">
         <v>0.5831290719534049</v>
@@ -24242,7 +24242,7 @@
         <v>0.6169567900892357</v>
       </c>
       <c r="D4">
-        <v>-0.1021895877340939</v>
+        <v>0.2434144699572891</v>
       </c>
       <c r="E4">
         <v>0.5880271861711089</v>
@@ -24265,7 +24265,7 @@
         <v>0.6197335504324604</v>
       </c>
       <c r="D5">
-        <v>-0.09733797794742927</v>
+        <v>0.3105369538599247</v>
       </c>
       <c r="E5">
         <v>0.5858919433970723</v>
@@ -24288,7 +24288,7 @@
         <v>0.6187258163686562</v>
       </c>
       <c r="D6">
-        <v>-0.07365150411429044</v>
+        <v>0.3388370876691216</v>
       </c>
       <c r="E6">
         <v>0.586667758119775</v>
@@ -24311,7 +24311,7 @@
         <v>0.6919698048236269</v>
       </c>
       <c r="D7">
-        <v>0.3987660743680378</v>
+        <v>0.6011923777495211</v>
       </c>
       <c r="E7">
         <v>0.5273150500381683</v>
@@ -24334,7 +24334,7 @@
         <v>0.6883013677018761</v>
       </c>
       <c r="D8">
-        <v>0.3914963129052623</v>
+        <v>0.5998612722608914</v>
       </c>
       <c r="E8">
         <v>0.5304457442899743</v>
@@ -24357,7 +24357,7 @@
         <v>0.6883013677018761</v>
       </c>
       <c r="D9">
-        <v>0.391162754315862</v>
+        <v>0.5926457515383503</v>
       </c>
       <c r="E9">
         <v>0.5304457442899743</v>
@@ -24380,7 +24380,7 @@
         <v>0.6839169654862063</v>
       </c>
       <c r="D10">
-        <v>0.4014561473815471</v>
+        <v>0.5928929423505911</v>
       </c>
       <c r="E10">
         <v>0.5341633835460506</v>
@@ -24403,7 +24403,7 @@
         <v>0.5778398166424933</v>
       </c>
       <c r="D11">
-        <v>-0.1215361282042573</v>
+        <v>0.2662597888272571</v>
       </c>
       <c r="E11">
         <v>0.6173225707005043</v>
@@ -24426,7 +24426,7 @@
         <v>0.5379402513226956</v>
       </c>
       <c r="D12">
-        <v>-0.2455215355614853</v>
+        <v>0.1598172912113641</v>
       </c>
       <c r="E12">
         <v>0.6458365059794419</v>
@@ -24449,7 +24449,7 @@
         <v>0.5379198327280055</v>
       </c>
       <c r="D13">
-        <v>-0.2455215355614853</v>
+        <v>0.1598172912113641</v>
       </c>
       <c r="E13">
         <v>0.6458507757012769</v>
@@ -24472,7 +24472,7 @@
         <v>0.5379198327280055</v>
       </c>
       <c r="D14">
-        <v>-0.2824489500993042</v>
+        <v>0.1361568459509026</v>
       </c>
       <c r="E14">
         <v>0.6458507757012769</v>
@@ -24495,7 +24495,7 @@
         <v>0.5370231359104487</v>
       </c>
       <c r="D15">
-        <v>-0.252060505205087</v>
+        <v>0.1621614621074697</v>
       </c>
       <c r="E15">
         <v>0.646477129835705</v>
@@ -24518,7 +24518,7 @@
         <v>0.5370231359104487</v>
       </c>
       <c r="D16">
-        <v>-0.252060505205087</v>
+        <v>0.1621614621074697</v>
       </c>
       <c r="E16">
         <v>0.646477129835705</v>
@@ -24541,7 +24541,7 @@
         <v>0.5355269486645768</v>
       </c>
       <c r="D17">
-        <v>-0.252060505205087</v>
+        <v>0.1621614621074697</v>
       </c>
       <c r="E17">
         <v>0.6475208867847891</v>
@@ -24564,7 +24564,7 @@
         <v>0.5312391004993626</v>
       </c>
       <c r="D18">
-        <v>-0.1710967818917799</v>
+        <v>0.296565902643201</v>
       </c>
       <c r="E18">
         <v>0.6505028604431928</v>
@@ -24587,7 +24587,7 @@
         <v>0.5177433694804979</v>
       </c>
       <c r="D19">
-        <v>-0.2025554084112859</v>
+        <v>0.2808374764517442</v>
       </c>
       <c r="E19">
         <v>0.6598004765201537</v>
@@ -24610,7 +24610,7 @@
         <v>0.5177433694804979</v>
       </c>
       <c r="D20">
-        <v>-0.2025554084112859</v>
+        <v>0.2808374764517442</v>
       </c>
       <c r="E20">
         <v>0.6598004765201537</v>
@@ -24666,7 +24666,7 @@
         <v>0.6996777777695293</v>
       </c>
       <c r="D2">
-        <v>0.4441174153144181</v>
+        <v>0.703929869363519</v>
       </c>
       <c r="E2">
         <v>0.5206756352511659</v>
@@ -24689,7 +24689,7 @@
         <v>0.6986814257094136</v>
       </c>
       <c r="D3">
-        <v>0.4319831187186385</v>
+        <v>0.7143384819566245</v>
       </c>
       <c r="E3">
         <v>0.5215386194751022</v>
@@ -24712,7 +24712,7 @@
         <v>0.6535737455153618</v>
       </c>
       <c r="D4">
-        <v>-0.02366748128593721</v>
+        <v>0.5989698375143779</v>
       </c>
       <c r="E4">
         <v>0.5592151393066337</v>
@@ -24735,7 +24735,7 @@
         <v>0.6191168058214236</v>
       </c>
       <c r="D5">
-        <v>-0.6273155629404104</v>
+        <v>0.232309497036035</v>
       </c>
       <c r="E5">
         <v>0.5863668726255967</v>
@@ -24758,7 +24758,7 @@
         <v>0.5917681608977161</v>
       </c>
       <c r="D6">
-        <v>-0.773045460301353</v>
+        <v>0.07678202639557186</v>
       </c>
       <c r="E6">
         <v>0.6070534867039141</v>
@@ -24781,7 +24781,7 @@
         <v>0.5897939104693246</v>
       </c>
       <c r="D7">
-        <v>-0.7322063078041992</v>
+        <v>0.2344859112353636</v>
       </c>
       <c r="E7">
         <v>0.6085196022752739</v>
@@ -24804,7 +24804,7 @@
         <v>0.5843024802694508</v>
       </c>
       <c r="D8">
-        <v>-0.6539580936828144</v>
+        <v>0.231231138059814</v>
       </c>
       <c r="E8">
         <v>0.6125791879290924</v>
@@ -24827,7 +24827,7 @@
         <v>0.5883704354755479</v>
       </c>
       <c r="D9">
-        <v>-0.4605744914430816</v>
+        <v>0.3173055025998179</v>
       </c>
       <c r="E9">
         <v>0.6095745138054709</v>
@@ -24850,7 +24850,7 @@
         <v>0.587545352396156</v>
       </c>
       <c r="D10">
-        <v>-0.4603987681428963</v>
+        <v>0.4348127965718761</v>
       </c>
       <c r="E10">
         <v>0.6101851330133837</v>
@@ -24873,7 +24873,7 @@
         <v>0.5602403520708938</v>
       </c>
       <c r="D11">
-        <v>-0.5547438644218792</v>
+        <v>0.4538420310487677</v>
       </c>
       <c r="E11">
         <v>0.6300589850574575</v>
@@ -24896,7 +24896,7 @@
         <v>0.5585243553693977</v>
       </c>
       <c r="D12">
-        <v>-0.3403849094296623</v>
+        <v>0.4380350204493438</v>
       </c>
       <c r="E12">
         <v>0.631287072348136</v>
@@ -24919,7 +24919,7 @@
         <v>0.5583636783953972</v>
       </c>
       <c r="D13">
-        <v>-0.3459264498598675</v>
+        <v>0.4373109396220336</v>
       </c>
       <c r="E13">
         <v>0.631401941730118</v>
@@ -24942,7 +24942,7 @@
         <v>0.5538689837562794</v>
       </c>
       <c r="D14">
-        <v>-0.2781067171624629</v>
+        <v>0.4723230995453483</v>
       </c>
       <c r="E14">
         <v>0.634606812524483</v>
@@ -24965,7 +24965,7 @@
         <v>0.5464825449937616</v>
       </c>
       <c r="D15">
-        <v>-0.4288946691457265</v>
+        <v>0.4055772668787958</v>
       </c>
       <c r="E15">
         <v>0.6398387297138556</v>
@@ -24988,7 +24988,7 @@
         <v>0.5456001407821984</v>
       </c>
       <c r="D16">
-        <v>-0.4008670587937511</v>
+        <v>0.4088492780055205</v>
       </c>
       <c r="E16">
         <v>0.6404608910200034</v>
@@ -25011,7 +25011,7 @@
         <v>0.5476661396030538</v>
       </c>
       <c r="D17">
-        <v>-0.397203499190415</v>
+        <v>0.4077423756771656</v>
       </c>
       <c r="E17">
         <v>0.639003255337468</v>
@@ -25034,7 +25034,7 @@
         <v>0.5552209957705743</v>
       </c>
       <c r="D18">
-        <v>-0.4180804399839402</v>
+        <v>0.3810051567749491</v>
       </c>
       <c r="E18">
         <v>0.6336444863966385</v>
@@ -25057,7 +25057,7 @@
         <v>0.5301711041437702</v>
       </c>
       <c r="D19">
-        <v>-0.4667240498755778</v>
+        <v>0.4161606958939972</v>
       </c>
       <c r="E19">
         <v>0.6512434719413053</v>
@@ -25080,7 +25080,7 @@
         <v>0.5301711041437702</v>
       </c>
       <c r="D20">
-        <v>-0.4667240498755778</v>
+        <v>0.4161606958939972</v>
       </c>
       <c r="E20">
         <v>0.6512434719413053</v>
